--- a/src_dependency_tree.xlsx
+++ b/src_dependency_tree.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\gitshit\fortran-bif\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B0CA2A-1820-4C6D-B857-D342DF583661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2BFDD-E770-45D7-A851-6AA40FE1ECB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="22224" windowHeight="13152" xr2:uid="{0D147937-47FE-476D-B021-75096AF6095F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="22104" windowHeight="13152" xr2:uid="{0D147937-47FE-476D-B021-75096AF6095F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation Order" sheetId="7" r:id="rId1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="200">
   <si>
     <t>constants.f90</t>
   </si>
@@ -640,6 +635,12 @@
   </si>
   <si>
     <t>Functions that return the next largest prime number or check if a number is prime.</t>
+  </si>
+  <si>
+    <t>write_array_interface.f90</t>
+  </si>
+  <si>
+    <t>Write a 1D or 2D array to a file.</t>
   </si>
 </sst>
 </file>
@@ -776,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,9 +847,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,13 +1162,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235DC57-8223-4ADA-A635-C1797A680775}">
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2433,18 +2431,21 @@
     </row>
     <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>153</v>
+        <v>198</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="D24" s="17">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -2473,24 +2474,17 @@
         <v>146</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>73</v>
+        <v>145</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="D25" s="17">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -2517,17 +2511,24 @@
         <v>146</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>195</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="D26" s="17">
-        <v>1</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -2554,10 +2555,10 @@
         <v>146</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
@@ -2591,85 +2592,85 @@
         <v>146</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
     </row>
     <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>193</v>
+        <v>53</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
@@ -2703,48 +2704,47 @@
         <v>146</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>197</v>
+        <v>150</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
     </row>
     <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
@@ -2778,11 +2778,11 @@
       <c r="A33" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>54</v>
+      <c r="B33" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
@@ -2817,54 +2817,53 @@
         <v>146</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>152</v>
+        <v>54</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
     </row>
     <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="17" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>167</v>
+        <v>151</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="D35" s="17">
-        <v>2</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>157</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -2893,15 +2892,17 @@
         <v>165</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="17">
+        <v>2</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
@@ -2930,17 +2931,15 @@
         <v>165</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D37" s="17">
-        <v>2</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>157</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
@@ -2969,10 +2968,10 @@
         <v>165</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="17">
         <v>2</v>
@@ -3008,10 +3007,10 @@
         <v>165</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D39" s="17">
         <v>2</v>
@@ -3047,10 +3046,10 @@
         <v>165</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D40" s="17">
         <v>2</v>
@@ -3086,10 +3085,10 @@
         <v>165</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41" s="17">
         <v>2</v>
@@ -3125,10 +3124,10 @@
         <v>165</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D42" s="17">
         <v>2</v>
@@ -3161,39 +3160,26 @@
     </row>
     <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>75</v>
+        <v>164</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="D43" s="17">
-        <v>4</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>2</v>
+      </c>
       <c r="F43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>17</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
@@ -3216,30 +3202,36 @@
         <v>174</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D44" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
@@ -3262,48 +3254,56 @@
         <v>174</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="17">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="17">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
+      <c r="I45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
     </row>
     <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
@@ -3338,67 +3338,61 @@
         <v>175</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D47" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
     </row>
     <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -3426,48 +3420,54 @@
         <v>175</v>
       </c>
       <c r="B49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="17">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="17">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
     </row>
     <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D50" s="17">
         <v>1</v>
@@ -3502,100 +3502,100 @@
         <v>175</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D51" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
     </row>
     <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="D52" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
+      <c r="F52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
     </row>
     <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="D53" s="17">
         <v>1</v>
@@ -3630,90 +3630,90 @@
         <v>177</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D54" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
     </row>
     <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="17">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="17">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
     </row>
     <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D56" s="17">
         <v>1</v>
@@ -3748,90 +3748,90 @@
         <v>178</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D57" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
     </row>
     <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D58" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
+      <c r="F58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
     </row>
     <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="17">
         <v>1</v>
@@ -3866,330 +3866,331 @@
         <v>178</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="D60" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q60" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="R60" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
     </row>
     <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="D61" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
+      <c r="F61" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
     </row>
     <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D62" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M62" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N62" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="O62" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P62" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q62" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="R62" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
     </row>
     <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="D63" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
+      <c r="F63" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="15"/>
     </row>
     <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D64" s="17">
         <v>1</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
     </row>
     <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>125</v>
+        <v>143</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="D65" s="17">
         <v>1</v>
       </c>
-      <c r="E65" s="10"/>
       <c r="F65" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
     </row>
     <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>189</v>
+        <v>124</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="D66" s="17">
         <v>1</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
     </row>
     <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>189</v>
       </c>
       <c r="D67" s="17">
         <v>1</v>
@@ -4220,54 +4221,53 @@
     </row>
     <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>65</v>
+        <v>126</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="D68" s="17">
         <v>1</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
     </row>
     <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D69" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="4"/>
@@ -4299,13 +4299,13 @@
         <v>182</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D70" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
@@ -4337,58 +4337,59 @@
         <v>182</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D71" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="10"/>
-      <c r="F71" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="15"/>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
     </row>
     <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>184</v>
+        <v>81</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="D72" s="17">
-        <v>1</v>
-      </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
@@ -4416,88 +4417,96 @@
         <v>182</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>63</v>
+        <v>183</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="D73" s="17">
         <v>1</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
     </row>
     <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D74" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="10"/>
-      <c r="F74" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
     </row>
     <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="17"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
+      <c r="A75" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="17">
+        <v>2</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
@@ -4607,75 +4616,104 @@
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="8" t="s">
-        <v>103</v>
-      </c>
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="17"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="7"/>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="7"/>
+      <c r="B82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D82" s="7">
         <v>8</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="2" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I81" s="2" t="s">
+      <c r="H82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="M82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="N82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="O82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P81" s="2" t="s">
+      <c r="P82" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q81" s="2" t="s">
+      <c r="Q82" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB74">
-    <sortCondition ref="A2:A74"/>
-    <sortCondition ref="B2:B74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB75">
+    <sortCondition ref="A2:A75"/>
+    <sortCondition ref="B2:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4684,17 +4722,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E594B1-EC0E-4F70-863A-F6EBE967FA24}">
-  <dimension ref="A1:GB27"/>
+  <dimension ref="A1:ER27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.734375" customWidth="1"/>
-    <col min="2" max="147" width="21.3125" customWidth="1"/>
+    <col min="2" max="148" width="21.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:148" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6"/>
       <c r="B1" s="12" t="s">
         <v>75</v>
@@ -4981,13 +5019,14 @@
       </c>
       <c r="EO1" s="12"/>
       <c r="EP1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="EQ1" s="12"/>
+      <c r="ER1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="4"/>
-      <c r="ES1" s="4"/>
     </row>
-    <row r="2" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
@@ -5426,11 +5465,14 @@
       <c r="EP2" s="14">
         <v>1</v>
       </c>
-      <c r="EQ2" s="6"/>
-      <c r="ER2" s="4"/>
-      <c r="ES2" s="4"/>
+      <c r="EQ2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="ER2" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:184" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:148" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="26" t="s">
         <v>129</v>
       </c>
@@ -5863,42 +5905,20 @@
       <c r="EN3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="EO3" s="27" t="s">
+      <c r="EO3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="EP3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="EQ3" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="ER3" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="FP3" s="26" t="e">
-        <f>VLOOKUP(FP4,#REF!,2,TRUE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="FR3" s="26" t="e">
-        <f>VLOOKUP(FR4,#REF!,2,TRUE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="FT3" s="26" t="e">
-        <f>VLOOKUP(FT4,#REF!,2,TRUE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="FV3" s="26" t="e">
-        <f>VLOOKUP(FV4,#REF!,2,TRUE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="FX3" s="26" t="e">
-        <f>VLOOKUP(FX4,#REF!,2,TRUE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="FZ3" s="26" t="e">
-        <f>VLOOKUP(FZ4,#REF!,2,TRUE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="GB3" s="26" t="e">
-        <f>VLOOKUP(GB4,#REF!,2,TRUE)</f>
-        <v>#REF!</v>
-      </c>
     </row>
-    <row r="4" spans="1:184" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:148" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>186</v>
       </c>
@@ -6335,13 +6355,16 @@
         <v>186</v>
       </c>
       <c r="EP4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="EQ4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="ER4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="EQ4" s="6"/>
-      <c r="ER4" s="3"/>
-      <c r="ES4" s="3"/>
     </row>
-    <row r="5" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -6715,10 +6738,15 @@
       <c r="EO5" s="6">
         <v>1</v>
       </c>
-      <c r="EP5" s="4"/>
-      <c r="EQ5" s="6"/>
+      <c r="EP5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="EQ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER5" s="4"/>
     </row>
-    <row r="6" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -7069,9 +7097,12 @@
         <v>2</v>
       </c>
       <c r="EP6" s="4"/>
-      <c r="EQ6" s="6"/>
+      <c r="EQ6" s="6">
+        <v>2</v>
+      </c>
+      <c r="ER6" s="4"/>
     </row>
-    <row r="7" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -7409,9 +7440,12 @@
         <v>3</v>
       </c>
       <c r="EP7" s="4"/>
-      <c r="EQ7" s="6"/>
+      <c r="EQ7" s="6">
+        <v>3</v>
+      </c>
+      <c r="ER7" s="4"/>
     </row>
-    <row r="8" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -7737,9 +7771,12 @@
         <v>4</v>
       </c>
       <c r="EP8" s="4"/>
-      <c r="EQ8" s="6"/>
+      <c r="EQ8" s="6">
+        <v>4</v>
+      </c>
+      <c r="ER8" s="4"/>
     </row>
-    <row r="9" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -8061,9 +8098,12 @@
         <v>5</v>
       </c>
       <c r="EP9" s="4"/>
-      <c r="EQ9" s="6"/>
+      <c r="EQ9" s="6">
+        <v>5</v>
+      </c>
+      <c r="ER9" s="4"/>
     </row>
-    <row r="10" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -8384,9 +8424,12 @@
         <v>6</v>
       </c>
       <c r="EP10" s="4"/>
-      <c r="EQ10" s="6"/>
+      <c r="EQ10" s="6">
+        <v>6</v>
+      </c>
+      <c r="ER10" s="4"/>
     </row>
-    <row r="11" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -8705,9 +8748,12 @@
         <v>7</v>
       </c>
       <c r="EP11" s="4"/>
-      <c r="EQ11" s="6"/>
+      <c r="EQ11" s="6">
+        <v>7</v>
+      </c>
+      <c r="ER11" s="4"/>
     </row>
-    <row r="12" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -9019,9 +9065,12 @@
         <v>8</v>
       </c>
       <c r="EP12" s="4"/>
-      <c r="EQ12" s="6"/>
+      <c r="EQ12" s="6">
+        <v>8</v>
+      </c>
+      <c r="ER12" s="4"/>
     </row>
-    <row r="13" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -9332,9 +9381,12 @@
         <v>9</v>
       </c>
       <c r="EP13" s="4"/>
-      <c r="EQ13" s="6"/>
+      <c r="EQ13" s="6">
+        <v>9</v>
+      </c>
+      <c r="ER13" s="4"/>
     </row>
-    <row r="14" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -9643,9 +9695,12 @@
         <v>10</v>
       </c>
       <c r="EP14" s="4"/>
-      <c r="EQ14" s="6"/>
+      <c r="EQ14" s="6">
+        <v>10</v>
+      </c>
+      <c r="ER14" s="4"/>
     </row>
-    <row r="15" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -9954,9 +10009,12 @@
         <v>11</v>
       </c>
       <c r="EP15" s="4"/>
-      <c r="EQ15" s="6"/>
+      <c r="EQ15" s="6">
+        <v>11</v>
+      </c>
+      <c r="ER15" s="4"/>
     </row>
-    <row r="16" spans="1:184" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -10263,9 +10321,12 @@
         <v>12</v>
       </c>
       <c r="EP16" s="4"/>
-      <c r="EQ16" s="6"/>
+      <c r="EQ16" s="6">
+        <v>12</v>
+      </c>
+      <c r="ER16" s="4"/>
     </row>
-    <row r="17" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -10572,9 +10633,12 @@
         <v>13</v>
       </c>
       <c r="EP17" s="4"/>
-      <c r="EQ17" s="6"/>
+      <c r="EQ17" s="6">
+        <v>13</v>
+      </c>
+      <c r="ER17" s="4"/>
     </row>
-    <row r="18" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -10877,9 +10941,12 @@
         <v>14</v>
       </c>
       <c r="EP18" s="4"/>
-      <c r="EQ18" s="6"/>
+      <c r="EQ18" s="6">
+        <v>14</v>
+      </c>
+      <c r="ER18" s="4"/>
     </row>
-    <row r="19" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -11180,9 +11247,12 @@
         <v>15</v>
       </c>
       <c r="EP19" s="4"/>
-      <c r="EQ19" s="6"/>
+      <c r="EQ19" s="6">
+        <v>15</v>
+      </c>
+      <c r="ER19" s="4"/>
     </row>
-    <row r="20" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -11483,9 +11553,12 @@
         <v>16</v>
       </c>
       <c r="EP20" s="4"/>
-      <c r="EQ20" s="6"/>
+      <c r="EQ20" s="6">
+        <v>16</v>
+      </c>
+      <c r="ER20" s="4"/>
     </row>
-    <row r="21" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -11786,9 +11859,12 @@
         <v>17</v>
       </c>
       <c r="EP21" s="4"/>
-      <c r="EQ21" s="6"/>
+      <c r="EQ21" s="6">
+        <v>17</v>
+      </c>
+      <c r="ER21" s="4"/>
     </row>
-    <row r="22" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -12089,9 +12165,12 @@
         <v>18</v>
       </c>
       <c r="EP22" s="4"/>
-      <c r="EQ22" s="6"/>
+      <c r="EQ22" s="6">
+        <v>18</v>
+      </c>
+      <c r="ER22" s="4"/>
     </row>
-    <row r="23" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -12392,9 +12471,12 @@
         <v>19</v>
       </c>
       <c r="EP23" s="4"/>
-      <c r="EQ23" s="6"/>
+      <c r="EQ23" s="6">
+        <v>19</v>
+      </c>
+      <c r="ER23" s="4"/>
     </row>
-    <row r="24" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -12695,9 +12777,12 @@
         <v>20</v>
       </c>
       <c r="EP24" s="4"/>
-      <c r="EQ24" s="6"/>
+      <c r="EQ24" s="6">
+        <v>20</v>
+      </c>
+      <c r="ER24" s="4"/>
     </row>
-    <row r="25" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -12998,9 +13083,12 @@
         <v>21</v>
       </c>
       <c r="EP25" s="4"/>
-      <c r="EQ25" s="6"/>
+      <c r="EQ25" s="6">
+        <v>21</v>
+      </c>
+      <c r="ER25" s="4"/>
     </row>
-    <row r="26" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -13299,9 +13387,12 @@
         <v>22</v>
       </c>
       <c r="EP26" s="4"/>
-      <c r="EQ26" s="6"/>
+      <c r="EQ26" s="6">
+        <v>22</v>
+      </c>
+      <c r="ER26" s="4"/>
     </row>
-    <row r="27" spans="1:147" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:148" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -13598,7 +13689,10 @@
         <v>23</v>
       </c>
       <c r="EP27" s="4"/>
-      <c r="EQ27" s="6"/>
+      <c r="EQ27" s="6">
+        <v>23</v>
+      </c>
+      <c r="ER27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src_dependency_tree.xlsx
+++ b/src_dependency_tree.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD2BFDD-E770-45D7-A851-6AA40FE1ECB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F717BDF1-311F-4D14-9077-D1AA21A12174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="22104" windowHeight="13152" xr2:uid="{0D147937-47FE-476D-B021-75096AF6095F}"/>
+    <workbookView xWindow="57480" yWindow="14325" windowWidth="29040" windowHeight="18240" xr2:uid="{0D147937-47FE-476D-B021-75096AF6095F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation Order" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="202">
   <si>
     <t>constants.f90</t>
   </si>
@@ -641,6 +641,13 @@
   </si>
   <si>
     <t>Write a 1D or 2D array to a file.</t>
+  </si>
+  <si>
+    <t>circular_queue_instruction.f90</t>
+  </si>
+  <si>
+    <t>Linked list that has the end of the list point to the start. 
+Similar concept to rolling pointer, but that uses an array of pointers</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235DC57-8223-4ADA-A635-C1797A680775}">
-  <dimension ref="A1:AB82"/>
+  <dimension ref="A1:AB83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -1171,17 +1178,17 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1015625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.3671875" customWidth="1"/>
-    <col min="4" max="4" width="8.83984375" style="1"/>
-    <col min="5" max="5" width="1.5234375" style="11" customWidth="1"/>
-    <col min="6" max="28" width="13.68359375" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="1.54296875" style="11" customWidth="1"/>
+    <col min="6" max="28" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>129</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>130</v>
       </c>
@@ -1303,7 +1310,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -1343,7 +1350,7 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>130</v>
       </c>
@@ -1380,7 +1387,7 @@
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
     </row>
-    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>130</v>
       </c>
@@ -1446,7 +1453,7 @@
       <c r="AA5" s="15"/>
       <c r="AB5" s="15"/>
     </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>130</v>
       </c>
@@ -1484,7 +1491,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>134</v>
       </c>
@@ -1523,7 +1530,7 @@
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
     </row>
-    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>134</v>
       </c>
@@ -1560,7 +1567,7 @@
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
     </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>139</v>
       </c>
@@ -1602,7 +1609,7 @@
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
     </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>139</v>
       </c>
@@ -1646,7 +1653,7 @@
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
     </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>140</v>
       </c>
@@ -1687,7 +1694,7 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>140</v>
       </c>
@@ -1747,7 +1754,7 @@
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
     </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>140</v>
       </c>
@@ -1831,7 +1838,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>140</v>
       </c>
@@ -1915,7 +1922,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>140</v>
       </c>
@@ -1997,7 +2004,7 @@
       </c>
       <c r="AB15" s="15"/>
     </row>
-    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>140</v>
       </c>
@@ -2077,7 +2084,7 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
     </row>
-    <row r="17" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>144</v>
       </c>
@@ -2131,7 +2138,7 @@
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
     </row>
-    <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>144</v>
       </c>
@@ -2177,7 +2184,7 @@
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
     </row>
-    <row r="19" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>144</v>
       </c>
@@ -2227,7 +2234,7 @@
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
     </row>
-    <row r="20" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>144</v>
       </c>
@@ -2283,7 +2290,7 @@
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
     </row>
-    <row r="21" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>144</v>
       </c>
@@ -2327,7 +2334,7 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
     </row>
-    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>144</v>
       </c>
@@ -2385,7 +2392,7 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>144</v>
       </c>
@@ -2429,7 +2436,7 @@
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>144</v>
       </c>
@@ -2469,7 +2476,7 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>146</v>
       </c>
@@ -2506,7 +2513,7 @@
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>146</v>
       </c>
@@ -2550,7 +2557,7 @@
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>146</v>
       </c>
@@ -2587,7 +2594,7 @@
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>146</v>
       </c>
@@ -2624,7 +2631,7 @@
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>146</v>
       </c>
@@ -2662,7 +2669,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>146</v>
       </c>
@@ -2699,7 +2706,7 @@
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>146</v>
       </c>
@@ -2736,7 +2743,7 @@
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>146</v>
       </c>
@@ -2774,7 +2781,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>146</v>
       </c>
@@ -2812,7 +2819,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>146</v>
       </c>
@@ -2850,7 +2857,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>146</v>
       </c>
@@ -2887,7 +2894,7 @@
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>165</v>
       </c>
@@ -2926,7 +2933,7 @@
       <c r="AA36" s="15"/>
       <c r="AB36" s="15"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>165</v>
       </c>
@@ -2963,7 +2970,7 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
@@ -3002,7 +3009,7 @@
       <c r="AA38" s="15"/>
       <c r="AB38" s="15"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>165</v>
       </c>
@@ -3041,7 +3048,7 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>165</v>
       </c>
@@ -3080,7 +3087,7 @@
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>165</v>
       </c>
@@ -3119,7 +3126,7 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>165</v>
       </c>
@@ -3158,7 +3165,7 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>165</v>
       </c>
@@ -3197,7 +3204,7 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>174</v>
       </c>
@@ -3249,7 +3256,7 @@
       <c r="AA44" s="15"/>
       <c r="AB44" s="15"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>174</v>
       </c>
@@ -3295,7 +3302,7 @@
       <c r="AA45" s="15"/>
       <c r="AB45" s="15"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>174</v>
       </c>
@@ -3333,7 +3340,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>175</v>
       </c>
@@ -3371,7 +3378,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>175</v>
       </c>
@@ -3415,7 +3422,7 @@
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>175</v>
       </c>
@@ -3459,7 +3466,7 @@
       <c r="AA49" s="15"/>
       <c r="AB49" s="15"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>175</v>
       </c>
@@ -3497,7 +3504,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>175</v>
       </c>
@@ -3535,7 +3542,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>175</v>
       </c>
@@ -3587,7 +3594,7 @@
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>177</v>
       </c>
@@ -3625,7 +3632,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>177</v>
       </c>
@@ -3663,7 +3670,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>177</v>
       </c>
@@ -3705,7 +3712,7 @@
       <c r="AA55" s="15"/>
       <c r="AB55" s="15"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>178</v>
       </c>
@@ -3743,7 +3750,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>178</v>
       </c>
@@ -3781,26 +3788,22 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="D58" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>121</v>
-      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
@@ -3823,53 +3826,57 @@
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D59" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
+      <c r="F59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="17">
         <v>1</v>
@@ -3899,335 +3906,336 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="D61" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M61" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N61" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="O61" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P61" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q61" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="R61" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
-      <c r="AB61" s="15"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="D62" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
+      <c r="F62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q62" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D63" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N63" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="O63" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P63" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q63" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="R63" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
-      <c r="U63" s="15"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="15"/>
-      <c r="AB63" s="15"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="D64" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E64" s="10"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
+      <c r="F64" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D65" s="17">
         <v>1</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>125</v>
+        <v>143</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="D66" s="17">
         <v>1</v>
       </c>
-      <c r="E66" s="10"/>
       <c r="F66" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+    </row>
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B68" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C68" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="D67" s="17">
-        <v>1</v>
-      </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-    </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="D68" s="17">
         <v>1</v>
@@ -4256,56 +4264,55 @@
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>65</v>
+        <v>126</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="D69" s="17">
         <v>1</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D70" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="4"/>
@@ -4332,18 +4339,18 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D71" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="4"/>
@@ -4370,63 +4377,64 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D72" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="10"/>
-      <c r="F72" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>184</v>
+        <v>81</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="D73" s="17">
-        <v>1</v>
-      </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
@@ -4449,93 +4457,101 @@
       <c r="AA73" s="15"/>
       <c r="AB73" s="15"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>63</v>
+        <v>183</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="D74" s="17">
         <v>1</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="17">
+        <v>1</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+    </row>
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D76" s="17">
         <v>2</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="15" t="s">
+      <c r="E76" s="10"/>
+      <c r="F76" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G76" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
-    </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="17"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
@@ -4558,7 +4574,7 @@
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
@@ -4587,7 +4603,7 @@
       <c r="AA77" s="15"/>
       <c r="AB77" s="15"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
@@ -4616,7 +4632,7 @@
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
@@ -4645,75 +4661,104 @@
       <c r="AA79" s="15"/>
       <c r="AB79" s="15"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="8" t="s">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="17"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B82" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="7"/>
-      <c r="B82" s="5" t="s">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A83" s="7"/>
+      <c r="B83" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D83" s="7">
         <v>8</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="2" t="s">
+      <c r="E83" s="10"/>
+      <c r="F83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I82" s="2" t="s">
+      <c r="H83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M82" s="2" t="s">
+      <c r="M83" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="O83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P82" s="2" t="s">
+      <c r="P83" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q82" s="2" t="s">
+      <c r="Q83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB75">
-    <sortCondition ref="A2:A75"/>
-    <sortCondition ref="B2:B75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB76">
+    <sortCondition ref="A2:A76"/>
+    <sortCondition ref="B2:B76"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4722,17 +4767,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E594B1-EC0E-4F70-863A-F6EBE967FA24}">
-  <dimension ref="A1:ER27"/>
+  <dimension ref="A1:ET27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.734375" customWidth="1"/>
-    <col min="2" max="148" width="21.3125" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="150" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:150" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="12" t="s">
         <v>75</v>
@@ -4763,183 +4808,183 @@
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="13"/>
+      <c r="X1" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="Y1" s="12"/>
       <c r="Z1" s="12" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="AA1" s="12"/>
       <c r="AB1" s="12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC1" s="12"/>
       <c r="AD1" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="AK1" s="12"/>
       <c r="AL1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="13" t="s">
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="AU1" s="12"/>
       <c r="AV1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="AY1" s="13"/>
       <c r="AZ1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="BC1" s="12"/>
       <c r="BD1" s="12" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="BE1" s="12"/>
       <c r="BF1" s="12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="BG1" s="12"/>
       <c r="BH1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="13" t="s">
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="12" t="s">
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12" t="s">
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="13" t="s">
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="12" t="s">
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="13" t="s">
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="12" t="s">
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="BY1" s="12"/>
       <c r="BZ1" s="12" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="CA1" s="12"/>
       <c r="CB1" s="12" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="CC1" s="12"/>
       <c r="CD1" s="12" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="CE1" s="12"/>
       <c r="CF1" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="CG1" s="12"/>
       <c r="CH1" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="CI1" s="12"/>
       <c r="CJ1" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CK1" s="12"/>
       <c r="CL1" s="12" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="CM1" s="12"/>
       <c r="CN1" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="CO1" s="12"/>
       <c r="CP1" s="12" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="CQ1" s="12"/>
       <c r="CR1" s="12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="CS1" s="12"/>
       <c r="CT1" s="12" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="CU1" s="12"/>
       <c r="CV1" s="12" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="CW1" s="12"/>
       <c r="CX1" s="12" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="CY1" s="12"/>
       <c r="CZ1" s="12" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="DA1" s="12"/>
       <c r="DB1" s="12" t="s">
@@ -4947,59 +4992,59 @@
       </c>
       <c r="DC1" s="12"/>
       <c r="DD1" s="12" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="DE1" s="12"/>
       <c r="DF1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="DG1" s="12"/>
+      <c r="DH1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="DH1" s="12" t="s">
+      <c r="DJ1" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="DJ1" s="12" t="s">
+      <c r="DL1" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="DL1" s="12" t="s">
+      <c r="DN1" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="DN1" s="12" t="s">
+      <c r="DP1" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="DO1" s="12"/>
-      <c r="DP1" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="DQ1" s="12"/>
       <c r="DR1" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DS1" s="12"/>
       <c r="DT1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="DU1" s="12"/>
+      <c r="DV1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="13" t="s">
+      <c r="DW1" s="12"/>
+      <c r="DX1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13" t="s">
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="DY1" s="12"/>
-      <c r="DZ1" s="12" t="s">
+      <c r="EA1" s="12"/>
+      <c r="EB1" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="EC1" s="13"/>
       <c r="ED1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="EG1" s="13"/>
       <c r="EH1" s="12" t="s">
@@ -5007,26 +5052,30 @@
       </c>
       <c r="EI1" s="13"/>
       <c r="EJ1" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="EK1" s="12"/>
-      <c r="EL1" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="EM1" s="12"/>
       <c r="EN1" s="12" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="EO1" s="12"/>
       <c r="EP1" s="12" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="EQ1" s="12"/>
       <c r="ER1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="ES1" s="12"/>
+      <c r="ET1" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
@@ -5079,25 +5128,25 @@
         <v>48</v>
       </c>
       <c r="R2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="X2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="14" t="s">
         <v>48</v>
@@ -5109,31 +5158,31 @@
         <v>48</v>
       </c>
       <c r="AB2" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AD2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AF2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AH2" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AJ2" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK2" s="14" t="s">
         <v>48</v>
@@ -5145,25 +5194,25 @@
         <v>48</v>
       </c>
       <c r="AN2" s="14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AP2" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AR2" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="AT2" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU2" s="14" t="s">
         <v>48</v>
@@ -5175,7 +5224,7 @@
         <v>48</v>
       </c>
       <c r="AX2" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY2" s="14" t="s">
         <v>48</v>
@@ -5193,13 +5242,13 @@
         <v>48</v>
       </c>
       <c r="BD2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="BF2" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG2" s="14" t="s">
         <v>48</v>
@@ -5211,43 +5260,43 @@
         <v>48</v>
       </c>
       <c r="BJ2" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="BL2" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BM2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="BN2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="BP2" s="14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BQ2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="BR2" s="14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BS2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="BT2" s="14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BU2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="BV2" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BW2" s="14" t="s">
         <v>48</v>
@@ -5265,19 +5314,19 @@
         <v>48</v>
       </c>
       <c r="CB2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CC2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="CD2" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CE2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="CF2" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG2" s="14" t="s">
         <v>48</v>
@@ -5295,7 +5344,7 @@
         <v>48</v>
       </c>
       <c r="CL2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM2" s="14" t="s">
         <v>48</v>
@@ -5397,43 +5446,43 @@
         <v>48</v>
       </c>
       <c r="DT2" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DU2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="DV2" s="14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="DW2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="DX2" s="14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="DY2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="DZ2" s="14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EA2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="EB2" s="14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="EC2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="ED2" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="EE2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="EF2" s="14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="EG2" s="14" t="s">
         <v>48</v>
@@ -5445,25 +5494,25 @@
         <v>48</v>
       </c>
       <c r="EJ2" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EK2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="EL2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EM2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="EN2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EO2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="EP2" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EQ2" s="14" t="s">
         <v>48</v>
@@ -5471,8 +5520,14 @@
       <c r="ER2" s="14">
         <v>1</v>
       </c>
+      <c r="ES2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="ET2" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:148" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:150" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26" t="s">
         <v>129</v>
       </c>
@@ -5519,43 +5574,43 @@
         <v>129</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="U3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="X3" s="26" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="Y3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="Z3" s="26" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="AA3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="AB3" s="26" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>129</v>
@@ -5567,19 +5622,19 @@
         <v>129</v>
       </c>
       <c r="AF3" s="26" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AG3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="AH3" s="26" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AI3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="AJ3" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK3" s="26" t="s">
         <v>129</v>
@@ -5591,13 +5646,13 @@
         <v>129</v>
       </c>
       <c r="AN3" s="26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AO3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="AP3" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AQ3" s="26" t="s">
         <v>129</v>
@@ -5615,19 +5670,19 @@
         <v>129</v>
       </c>
       <c r="AV3" s="26" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="AW3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="AX3" s="26" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="AY3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="AZ3" s="26" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="BA3" s="26" t="s">
         <v>129</v>
@@ -5639,55 +5694,55 @@
         <v>129</v>
       </c>
       <c r="BD3" s="26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BE3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BF3" s="26" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BG3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BH3" s="26" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="BI3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BJ3" s="26" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="BK3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BL3" s="26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BM3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BN3" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BO3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BP3" s="26" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="BQ3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BR3" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="BS3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BT3" s="26" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="BU3" s="26" t="s">
         <v>129</v>
@@ -5699,49 +5754,49 @@
         <v>129</v>
       </c>
       <c r="BX3" s="26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BY3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="BZ3" s="26" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="CA3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CB3" s="26" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="CC3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CD3" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CE3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CF3" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="CG3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CH3" s="26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="CI3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CJ3" s="26" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="CK3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CL3" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="CM3" s="26" t="s">
         <v>129</v>
@@ -5765,37 +5820,37 @@
         <v>129</v>
       </c>
       <c r="CT3" s="26" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="CU3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CV3" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="CW3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CX3" s="26" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="CY3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="CZ3" s="26" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="DA3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="DB3" s="26" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="DC3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="DD3" s="26" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="DE3" s="26" t="s">
         <v>129</v>
@@ -5843,31 +5898,31 @@
         <v>129</v>
       </c>
       <c r="DT3" s="26" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="DU3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="DV3" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="DW3" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="DX3" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="DW3" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="DX3" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="DY3" s="26" t="s">
+      <c r="DY3" s="27" t="s">
         <v>129</v>
       </c>
       <c r="DZ3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="EA3" s="27" t="s">
+      <c r="EA3" s="26" t="s">
         <v>129</v>
       </c>
       <c r="EB3" s="26" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="EC3" s="27" t="s">
         <v>129</v>
@@ -5879,46 +5934,52 @@
         <v>129</v>
       </c>
       <c r="EF3" s="26" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="EG3" s="27" t="s">
         <v>129</v>
       </c>
       <c r="EH3" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="EI3" s="27" t="s">
         <v>129</v>
       </c>
       <c r="EJ3" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="EK3" s="27" t="s">
         <v>129</v>
       </c>
       <c r="EL3" s="26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="EM3" s="27" t="s">
         <v>129</v>
       </c>
       <c r="EN3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="EO3" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="EP3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="EO3" s="26" t="s">
+      <c r="EQ3" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="EP3" s="26" t="s">
+      <c r="ER3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="EQ3" s="27" t="s">
+      <c r="ES3" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="ER3" s="26" t="s">
+      <c r="ET3" s="26" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:148" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:150" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>186</v>
       </c>
@@ -5965,406 +6026,412 @@
         <v>186</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="AG4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AK4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AO4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="AS4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="AU4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="AW4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="AY4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="BA4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BB4" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="BC4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BD4" s="5" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="BE4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BF4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BG4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BH4" s="5" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="BI4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BJ4" s="5" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="BK4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BL4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BM4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BN4" s="5" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="BO4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BP4" s="5" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="BQ4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="BS4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BT4" s="5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="BU4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BV4" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="BW4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BX4" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="BY4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="BZ4" s="5" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="CA4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CB4" s="5" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="CC4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CD4" s="5" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="CE4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CF4" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CG4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CH4" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="CI4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CJ4" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="CK4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CL4" s="5" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="CM4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CN4" s="5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="CO4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CP4" s="5" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="CQ4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CR4" s="5" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="CS4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CT4" s="5" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="CU4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CV4" s="5" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="CW4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CX4" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="CY4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="CZ4" s="5" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="DA4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DB4" s="5" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="DC4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="DD4" s="3" t="s">
-        <v>158</v>
+      <c r="DD4" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="DE4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DG4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DH4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="DI4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DJ4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DK4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DM4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DN4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DO4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DP4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DQ4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DS4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="DT4" s="5" t="s">
-        <v>82</v>
+      <c r="DT4" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="DU4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DV4" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="DW4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DX4" s="5" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="DY4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="DZ4" s="5" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="EA4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="EB4" s="5" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="EC4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="ED4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="EE4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="EF4" s="5" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="EG4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="EH4" s="5" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="EI4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="EJ4" s="5" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="EK4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="EL4" s="5" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="EM4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="EN4" s="5" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="EO4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="EP4" s="5" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="EQ4" s="6" t="s">
         <v>186</v>
       </c>
       <c r="ER4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="ES4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="ET4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -6408,19 +6475,19 @@
       <c r="S5" s="6">
         <v>1</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="4"/>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2"/>
       <c r="Y5" s="6">
         <v>1</v>
       </c>
@@ -6428,19 +6495,17 @@
       <c r="AA5" s="6">
         <v>1</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AC5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="2"/>
       <c r="AE5" s="6">
         <v>1</v>
       </c>
-      <c r="AF5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="6">
         <v>1</v>
       </c>
@@ -6486,13 +6551,15 @@
       <c r="AU5" s="6">
         <v>1</v>
       </c>
-      <c r="AV5" s="15" t="s">
+      <c r="AV5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AW5" s="6">
         <v>1</v>
       </c>
-      <c r="AX5" s="4"/>
+      <c r="AX5" s="15" t="s">
+        <v>0</v>
+      </c>
       <c r="AY5" s="6">
         <v>1</v>
       </c>
@@ -6504,9 +6571,7 @@
       <c r="BC5" s="6">
         <v>1</v>
       </c>
-      <c r="BD5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="BD5" s="4"/>
       <c r="BE5" s="6">
         <v>1</v>
       </c>
@@ -6516,13 +6581,13 @@
       <c r="BG5" s="6">
         <v>1</v>
       </c>
-      <c r="BH5" s="2"/>
+      <c r="BH5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="BI5" s="6">
         <v>1</v>
       </c>
-      <c r="BJ5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="BJ5" s="2"/>
       <c r="BK5" s="6">
         <v>1</v>
       </c>
@@ -6532,27 +6597,29 @@
       <c r="BM5" s="6">
         <v>1</v>
       </c>
-      <c r="BN5" s="4"/>
+      <c r="BN5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="BO5" s="6">
         <v>1</v>
       </c>
-      <c r="BP5" s="2" t="s">
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BQ5" s="6">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="4"/>
       <c r="BS5" s="6">
         <v>1</v>
       </c>
-      <c r="BT5" s="2" t="s">
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BU5" s="6">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="4"/>
       <c r="BW5" s="6">
         <v>1</v>
       </c>
@@ -6560,23 +6627,21 @@
       <c r="BY5" s="6">
         <v>1</v>
       </c>
-      <c r="BZ5" s="2"/>
+      <c r="BZ5" s="4"/>
       <c r="CA5" s="6">
         <v>1</v>
       </c>
-      <c r="CB5" s="2" t="s">
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CC5" s="6">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="4"/>
       <c r="CE5" s="6">
         <v>1</v>
       </c>
-      <c r="CF5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="CF5" s="4"/>
       <c r="CG5" s="6">
         <v>1</v>
       </c>
@@ -6592,7 +6657,9 @@
       <c r="CK5" s="6">
         <v>1</v>
       </c>
-      <c r="CL5" s="2"/>
+      <c r="CL5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="CM5" s="6">
         <v>1</v>
       </c>
@@ -6600,7 +6667,7 @@
       <c r="CO5" s="6">
         <v>1</v>
       </c>
-      <c r="CP5" s="4"/>
+      <c r="CP5" s="2"/>
       <c r="CQ5" s="6">
         <v>1</v>
       </c>
@@ -6628,20 +6695,18 @@
       <c r="DC5" s="6">
         <v>1</v>
       </c>
-      <c r="DD5" s="4" t="s">
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="DE5" s="6">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="4" t="s">
+      <c r="DG5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="DG5" s="6">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="DI5" s="6">
         <v>1</v>
@@ -6676,8 +6741,8 @@
       <c r="DS5" s="6">
         <v>1</v>
       </c>
-      <c r="DT5" s="2" t="s">
-        <v>0</v>
+      <c r="DT5" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="DU5" s="6">
         <v>1</v>
@@ -6694,13 +6759,13 @@
       <c r="DY5" s="6">
         <v>1</v>
       </c>
-      <c r="DZ5" s="4"/>
+      <c r="DZ5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="EA5" s="6">
         <v>1</v>
       </c>
-      <c r="EB5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="EB5" s="4"/>
       <c r="EC5" s="6">
         <v>1</v>
       </c>
@@ -6710,13 +6775,13 @@
       <c r="EE5" s="6">
         <v>1</v>
       </c>
-      <c r="EF5" s="2"/>
+      <c r="EF5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="EG5" s="6">
         <v>1</v>
       </c>
-      <c r="EH5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="EH5" s="2"/>
       <c r="EI5" s="6">
         <v>1</v>
       </c>
@@ -6739,14 +6804,20 @@
         <v>1</v>
       </c>
       <c r="EP5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ5" s="6">
+        <v>1</v>
+      </c>
+      <c r="ER5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="EQ5" s="6">
-        <v>1</v>
-      </c>
-      <c r="ER5" s="4"/>
+      <c r="ES5" s="6">
+        <v>1</v>
+      </c>
+      <c r="ET5" s="4"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -6790,13 +6861,13 @@
       <c r="S6" s="6">
         <v>2</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="T6" s="4"/>
       <c r="U6" s="6">
         <v>2</v>
       </c>
-      <c r="V6" s="2"/>
+      <c r="V6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="W6" s="6">
         <v>2</v>
       </c>
@@ -6816,20 +6887,18 @@
       <c r="AE6" s="6">
         <v>2</v>
       </c>
-      <c r="AF6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="AF6" s="2"/>
       <c r="AG6" s="6">
         <v>2</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="6">
         <v>2</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK6" s="6">
         <v>2</v>
@@ -6864,13 +6933,15 @@
       <c r="AU6" s="6">
         <v>2</v>
       </c>
-      <c r="AV6" s="15" t="s">
-        <v>121</v>
+      <c r="AV6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="AW6" s="6">
         <v>2</v>
       </c>
-      <c r="AX6" s="4"/>
+      <c r="AX6" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="AY6" s="6">
         <v>2</v>
       </c>
@@ -6882,13 +6953,13 @@
       <c r="BC6" s="6">
         <v>2</v>
       </c>
-      <c r="BD6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="BD6" s="4"/>
       <c r="BE6" s="6">
         <v>2</v>
       </c>
-      <c r="BF6" s="4"/>
+      <c r="BF6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="BG6" s="6">
         <v>2</v>
       </c>
@@ -6896,39 +6967,39 @@
       <c r="BI6" s="6">
         <v>2</v>
       </c>
-      <c r="BJ6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="BJ6" s="4"/>
       <c r="BK6" s="6">
         <v>2</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BM6" s="6">
         <v>2</v>
       </c>
-      <c r="BN6" s="4"/>
+      <c r="BN6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="BO6" s="6">
         <v>2</v>
       </c>
-      <c r="BP6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="BP6" s="4"/>
       <c r="BQ6" s="6">
         <v>2</v>
       </c>
-      <c r="BR6" s="4"/>
+      <c r="BR6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="BS6" s="6">
         <v>2</v>
       </c>
-      <c r="BT6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="BT6" s="4"/>
       <c r="BU6" s="6">
         <v>2</v>
       </c>
-      <c r="BV6" s="4"/>
+      <c r="BV6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="BW6" s="6">
         <v>2</v>
       </c>
@@ -6936,23 +7007,21 @@
       <c r="BY6" s="6">
         <v>2</v>
       </c>
-      <c r="BZ6" s="2"/>
+      <c r="BZ6" s="4"/>
       <c r="CA6" s="6">
         <v>2</v>
       </c>
-      <c r="CB6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="CB6" s="2"/>
       <c r="CC6" s="6">
         <v>2</v>
       </c>
-      <c r="CD6" s="4"/>
+      <c r="CD6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="CE6" s="6">
         <v>2</v>
       </c>
-      <c r="CF6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="CF6" s="4"/>
       <c r="CG6" s="6">
         <v>2</v>
       </c>
@@ -6963,12 +7032,14 @@
         <v>2</v>
       </c>
       <c r="CJ6" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="CK6" s="6">
         <v>2</v>
       </c>
-      <c r="CL6" s="2"/>
+      <c r="CL6" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="CM6" s="6">
         <v>2</v>
       </c>
@@ -6976,7 +7047,7 @@
       <c r="CO6" s="6">
         <v>2</v>
       </c>
-      <c r="CP6" s="4"/>
+      <c r="CP6" s="2"/>
       <c r="CQ6" s="6">
         <v>2</v>
       </c>
@@ -7008,13 +7079,13 @@
       <c r="DE6" s="6">
         <v>2</v>
       </c>
-      <c r="DF6" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="DF6" s="4"/>
       <c r="DG6" s="6">
         <v>2</v>
       </c>
-      <c r="DH6" s="4"/>
+      <c r="DH6" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="DI6" s="6">
         <v>2</v>
       </c>
@@ -7038,31 +7109,29 @@
       <c r="DS6" s="6">
         <v>2</v>
       </c>
-      <c r="DT6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="DT6" s="4"/>
       <c r="DU6" s="6">
         <v>2</v>
       </c>
       <c r="DV6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DW6" s="6">
         <v>2</v>
       </c>
       <c r="DX6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DY6" s="6">
         <v>2</v>
       </c>
-      <c r="DZ6" s="4"/>
+      <c r="DZ6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="EA6" s="6">
         <v>2</v>
       </c>
-      <c r="EB6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="EB6" s="4"/>
       <c r="EC6" s="6">
         <v>2</v>
       </c>
@@ -7072,7 +7141,9 @@
       <c r="EE6" s="6">
         <v>2</v>
       </c>
-      <c r="EF6" s="2"/>
+      <c r="EF6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="EG6" s="6">
         <v>2</v>
       </c>
@@ -7080,29 +7151,33 @@
       <c r="EI6" s="6">
         <v>2</v>
       </c>
-      <c r="EJ6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="EJ6" s="2"/>
       <c r="EK6" s="6">
         <v>2</v>
       </c>
-      <c r="EL6" s="4"/>
+      <c r="EL6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="EM6" s="6">
         <v>2</v>
       </c>
-      <c r="EN6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="EN6" s="4"/>
       <c r="EO6" s="6">
         <v>2</v>
       </c>
-      <c r="EP6" s="4"/>
+      <c r="EP6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="EQ6" s="6">
         <v>2</v>
       </c>
       <c r="ER6" s="4"/>
+      <c r="ES6" s="6">
+        <v>2</v>
+      </c>
+      <c r="ET6" s="4"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -7144,13 +7219,13 @@
       <c r="S7" s="6">
         <v>3</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="T7" s="4"/>
       <c r="U7" s="6">
         <v>3</v>
       </c>
-      <c r="V7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="W7" s="6">
         <v>3</v>
       </c>
@@ -7170,57 +7245,57 @@
       <c r="AE7" s="6">
         <v>3</v>
       </c>
-      <c r="AF7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AF7" s="2"/>
       <c r="AG7" s="6">
         <v>3</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AI7" s="6">
         <v>3</v>
       </c>
-      <c r="AJ7" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="6">
         <v>3</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="AM7" s="6">
         <v>3</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AO7" s="6">
         <v>3</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="6">
         <v>3</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="AS7" s="6">
         <v>3</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="AU7" s="6">
         <v>3</v>
       </c>
-      <c r="AV7" s="2"/>
+      <c r="AV7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="AW7" s="6">
         <v>3</v>
       </c>
-      <c r="AX7" s="4"/>
+      <c r="AX7" s="2"/>
       <c r="AY7" s="6">
         <v>3</v>
       </c>
@@ -7232,13 +7307,13 @@
       <c r="BC7" s="6">
         <v>3</v>
       </c>
-      <c r="BD7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="BD7" s="4"/>
       <c r="BE7" s="6">
         <v>3</v>
       </c>
-      <c r="BF7" s="4"/>
+      <c r="BF7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="BG7" s="6">
         <v>3</v>
       </c>
@@ -7246,39 +7321,39 @@
       <c r="BI7" s="6">
         <v>3</v>
       </c>
-      <c r="BJ7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="BJ7" s="4"/>
       <c r="BK7" s="6">
         <v>3</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BM7" s="6">
         <v>3</v>
       </c>
-      <c r="BN7" s="4"/>
+      <c r="BN7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="BO7" s="6">
         <v>3</v>
       </c>
-      <c r="BP7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="BP7" s="4"/>
       <c r="BQ7" s="6">
         <v>3</v>
       </c>
-      <c r="BR7" s="4"/>
+      <c r="BR7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="BS7" s="6">
         <v>3</v>
       </c>
-      <c r="BT7" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="BT7" s="4"/>
       <c r="BU7" s="6">
         <v>3</v>
       </c>
-      <c r="BV7" s="4"/>
+      <c r="BV7" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="BW7" s="6">
         <v>3</v>
       </c>
@@ -7286,21 +7361,21 @@
       <c r="BY7" s="6">
         <v>3</v>
       </c>
-      <c r="BZ7" s="2"/>
+      <c r="BZ7" s="4"/>
       <c r="CA7" s="6">
         <v>3</v>
       </c>
-      <c r="CB7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="CB7" s="2"/>
       <c r="CC7" s="6">
         <v>3</v>
       </c>
-      <c r="CD7" s="4"/>
+      <c r="CD7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="CE7" s="6">
         <v>3</v>
       </c>
-      <c r="CF7" s="2"/>
+      <c r="CF7" s="4"/>
       <c r="CG7" s="6">
         <v>3</v>
       </c>
@@ -7308,13 +7383,13 @@
       <c r="CI7" s="6">
         <v>3</v>
       </c>
-      <c r="CJ7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="CJ7" s="2"/>
       <c r="CK7" s="6">
         <v>3</v>
       </c>
-      <c r="CL7" s="2"/>
+      <c r="CL7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="CM7" s="6">
         <v>3</v>
       </c>
@@ -7322,7 +7397,7 @@
       <c r="CO7" s="6">
         <v>3</v>
       </c>
-      <c r="CP7" s="4"/>
+      <c r="CP7" s="2"/>
       <c r="CQ7" s="6">
         <v>3</v>
       </c>
@@ -7350,16 +7425,16 @@
       <c r="DC7" s="6">
         <v>3</v>
       </c>
+      <c r="DD7" s="4"/>
       <c r="DE7" s="6">
         <v>3</v>
       </c>
-      <c r="DF7" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="DG7" s="6">
         <v>3</v>
       </c>
-      <c r="DH7" s="4"/>
+      <c r="DH7" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="DI7" s="6">
         <v>3</v>
       </c>
@@ -7383,31 +7458,29 @@
       <c r="DS7" s="6">
         <v>3</v>
       </c>
-      <c r="DT7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="DT7" s="4"/>
       <c r="DU7" s="6">
         <v>3</v>
       </c>
       <c r="DV7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="DW7" s="6">
         <v>3</v>
       </c>
       <c r="DX7" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="DY7" s="6">
         <v>3</v>
       </c>
-      <c r="DZ7" s="4"/>
+      <c r="DZ7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="EA7" s="6">
         <v>3</v>
       </c>
-      <c r="EB7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="EB7" s="4"/>
       <c r="EC7" s="6">
         <v>3</v>
       </c>
@@ -7417,7 +7490,9 @@
       <c r="EE7" s="6">
         <v>3</v>
       </c>
-      <c r="EF7" s="2"/>
+      <c r="EF7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="EG7" s="6">
         <v>3</v>
       </c>
@@ -7429,23 +7504,27 @@
       <c r="EK7" s="6">
         <v>3</v>
       </c>
-      <c r="EL7" s="4"/>
+      <c r="EL7" s="2"/>
       <c r="EM7" s="6">
         <v>3</v>
       </c>
-      <c r="EN7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="EN7" s="4"/>
       <c r="EO7" s="6">
         <v>3</v>
       </c>
-      <c r="EP7" s="4"/>
+      <c r="EP7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="EQ7" s="6">
         <v>3</v>
       </c>
       <c r="ER7" s="4"/>
+      <c r="ES7" s="6">
+        <v>3</v>
+      </c>
+      <c r="ET7" s="4"/>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -7487,13 +7566,13 @@
       <c r="S8" s="6">
         <v>4</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="T8" s="4"/>
       <c r="U8" s="6">
         <v>4</v>
       </c>
-      <c r="V8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="W8" s="6">
         <v>4</v>
       </c>
@@ -7521,45 +7600,45 @@
       <c r="AI8" s="6">
         <v>4</v>
       </c>
-      <c r="AJ8" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="6">
         <v>4</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AM8" s="6">
         <v>4</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="AO8" s="6">
         <v>4</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="AQ8" s="6">
         <v>4</v>
       </c>
-      <c r="AR8" s="2"/>
+      <c r="AR8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="AS8" s="6">
         <v>4</v>
       </c>
-      <c r="AT8" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="AT8" s="2"/>
       <c r="AU8" s="6">
         <v>4</v>
       </c>
-      <c r="AV8" s="2"/>
+      <c r="AV8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="AW8" s="6">
         <v>4</v>
       </c>
-      <c r="AX8" s="4"/>
+      <c r="AX8" s="2"/>
       <c r="AY8" s="6">
         <v>4</v>
       </c>
@@ -7571,11 +7650,11 @@
       <c r="BC8" s="6">
         <v>4</v>
       </c>
-      <c r="BD8" s="2"/>
+      <c r="BD8" s="4"/>
       <c r="BE8" s="6">
         <v>4</v>
       </c>
-      <c r="BF8" s="4"/>
+      <c r="BF8" s="2"/>
       <c r="BG8" s="6">
         <v>4</v>
       </c>
@@ -7583,37 +7662,37 @@
       <c r="BI8" s="6">
         <v>4</v>
       </c>
-      <c r="BJ8" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="BJ8" s="4"/>
       <c r="BK8" s="6">
         <v>4</v>
       </c>
-      <c r="BL8" s="2"/>
+      <c r="BL8" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="BM8" s="6">
         <v>4</v>
       </c>
-      <c r="BN8" s="4"/>
+      <c r="BN8" s="2"/>
       <c r="BO8" s="6">
         <v>4</v>
       </c>
-      <c r="BP8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="BP8" s="4"/>
       <c r="BQ8" s="6">
         <v>4</v>
       </c>
-      <c r="BR8" s="4"/>
+      <c r="BR8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="BS8" s="6">
         <v>4</v>
       </c>
-      <c r="BT8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="BT8" s="4"/>
       <c r="BU8" s="6">
         <v>4</v>
       </c>
-      <c r="BV8" s="4"/>
+      <c r="BV8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="BW8" s="6">
         <v>4</v>
       </c>
@@ -7621,21 +7700,21 @@
       <c r="BY8" s="6">
         <v>4</v>
       </c>
-      <c r="BZ8" s="2"/>
+      <c r="BZ8" s="4"/>
       <c r="CA8" s="6">
         <v>4</v>
       </c>
-      <c r="CB8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="CB8" s="2"/>
       <c r="CC8" s="6">
         <v>4</v>
       </c>
-      <c r="CD8" s="4"/>
+      <c r="CD8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="CE8" s="6">
         <v>4</v>
       </c>
-      <c r="CF8" s="2"/>
+      <c r="CF8" s="4"/>
       <c r="CG8" s="6">
         <v>4</v>
       </c>
@@ -7655,7 +7734,7 @@
       <c r="CO8" s="6">
         <v>4</v>
       </c>
-      <c r="CP8" s="4"/>
+      <c r="CP8" s="2"/>
       <c r="CQ8" s="6">
         <v>4</v>
       </c>
@@ -7683,16 +7762,16 @@
       <c r="DC8" s="6">
         <v>4</v>
       </c>
+      <c r="DD8" s="4"/>
       <c r="DE8" s="6">
         <v>4</v>
       </c>
-      <c r="DF8" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="DG8" s="6">
         <v>4</v>
       </c>
-      <c r="DH8" s="4"/>
+      <c r="DH8" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="DI8" s="6">
         <v>4</v>
       </c>
@@ -7716,31 +7795,29 @@
       <c r="DS8" s="6">
         <v>4</v>
       </c>
-      <c r="DT8" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="DT8" s="4"/>
       <c r="DU8" s="6">
         <v>4</v>
       </c>
       <c r="DV8" s="2" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="DW8" s="6">
         <v>4</v>
       </c>
       <c r="DX8" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DY8" s="6">
         <v>4</v>
       </c>
-      <c r="DZ8" s="4"/>
+      <c r="DZ8" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="EA8" s="6">
         <v>4</v>
       </c>
-      <c r="EB8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="EB8" s="4"/>
       <c r="EC8" s="6">
         <v>4</v>
       </c>
@@ -7750,7 +7827,9 @@
       <c r="EE8" s="6">
         <v>4</v>
       </c>
-      <c r="EF8" s="2"/>
+      <c r="EF8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="EG8" s="6">
         <v>4</v>
       </c>
@@ -7762,21 +7841,25 @@
       <c r="EK8" s="6">
         <v>4</v>
       </c>
-      <c r="EL8" s="4"/>
+      <c r="EL8" s="2"/>
       <c r="EM8" s="6">
         <v>4</v>
       </c>
-      <c r="EN8" s="2"/>
+      <c r="EN8" s="4"/>
       <c r="EO8" s="6">
         <v>4</v>
       </c>
-      <c r="EP8" s="4"/>
+      <c r="EP8" s="2"/>
       <c r="EQ8" s="6">
         <v>4</v>
       </c>
       <c r="ER8" s="4"/>
+      <c r="ES8" s="6">
+        <v>4</v>
+      </c>
+      <c r="ET8" s="4"/>
     </row>
-    <row r="9" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -7818,13 +7901,13 @@
       <c r="S9" s="6">
         <v>5</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="T9" s="4"/>
       <c r="U9" s="6">
         <v>5</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="V9" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="W9" s="6">
         <v>5</v>
       </c>
@@ -7856,39 +7939,39 @@
       <c r="AK9" s="6">
         <v>5</v>
       </c>
-      <c r="AL9" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="AL9" s="2"/>
       <c r="AM9" s="6">
         <v>5</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="AO9" s="6">
         <v>5</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="AQ9" s="6">
         <v>5</v>
       </c>
-      <c r="AR9" s="2"/>
+      <c r="AR9" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="AS9" s="6">
         <v>5</v>
       </c>
-      <c r="AT9" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="AT9" s="2"/>
       <c r="AU9" s="6">
         <v>5</v>
       </c>
-      <c r="AV9" s="2"/>
+      <c r="AV9" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="AW9" s="6">
         <v>5</v>
       </c>
-      <c r="AX9" s="4"/>
+      <c r="AX9" s="2"/>
       <c r="AY9" s="6">
         <v>5</v>
       </c>
@@ -7900,11 +7983,11 @@
       <c r="BC9" s="6">
         <v>5</v>
       </c>
-      <c r="BD9" s="2"/>
+      <c r="BD9" s="4"/>
       <c r="BE9" s="6">
         <v>5</v>
       </c>
-      <c r="BF9" s="4"/>
+      <c r="BF9" s="2"/>
       <c r="BG9" s="6">
         <v>5</v>
       </c>
@@ -7912,37 +7995,37 @@
       <c r="BI9" s="6">
         <v>5</v>
       </c>
-      <c r="BJ9" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="BJ9" s="4"/>
       <c r="BK9" s="6">
         <v>5</v>
       </c>
-      <c r="BL9" s="2"/>
+      <c r="BL9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="BM9" s="6">
         <v>5</v>
       </c>
-      <c r="BN9" s="4"/>
+      <c r="BN9" s="2"/>
       <c r="BO9" s="6">
         <v>5</v>
       </c>
-      <c r="BP9" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="BP9" s="4"/>
       <c r="BQ9" s="6">
         <v>5</v>
       </c>
-      <c r="BR9" s="4"/>
+      <c r="BR9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="BS9" s="6">
         <v>5</v>
       </c>
-      <c r="BT9" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="BT9" s="4"/>
       <c r="BU9" s="6">
         <v>5</v>
       </c>
-      <c r="BV9" s="4"/>
+      <c r="BV9" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="BW9" s="6">
         <v>5</v>
       </c>
@@ -7950,7 +8033,7 @@
       <c r="BY9" s="6">
         <v>5</v>
       </c>
-      <c r="BZ9" s="2"/>
+      <c r="BZ9" s="4"/>
       <c r="CA9" s="6">
         <v>5</v>
       </c>
@@ -7958,11 +8041,11 @@
       <c r="CC9" s="6">
         <v>5</v>
       </c>
-      <c r="CD9" s="4"/>
+      <c r="CD9" s="2"/>
       <c r="CE9" s="6">
         <v>5</v>
       </c>
-      <c r="CF9" s="2"/>
+      <c r="CF9" s="4"/>
       <c r="CG9" s="6">
         <v>5</v>
       </c>
@@ -7982,7 +8065,7 @@
       <c r="CO9" s="6">
         <v>5</v>
       </c>
-      <c r="CP9" s="4"/>
+      <c r="CP9" s="2"/>
       <c r="CQ9" s="6">
         <v>5</v>
       </c>
@@ -8010,16 +8093,16 @@
       <c r="DC9" s="6">
         <v>5</v>
       </c>
+      <c r="DD9" s="4"/>
       <c r="DE9" s="6">
         <v>5</v>
       </c>
-      <c r="DF9" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="DG9" s="6">
         <v>5</v>
       </c>
-      <c r="DH9" s="4"/>
+      <c r="DH9" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="DI9" s="6">
         <v>5</v>
       </c>
@@ -8043,31 +8126,29 @@
       <c r="DS9" s="6">
         <v>5</v>
       </c>
-      <c r="DT9" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="DT9" s="4"/>
       <c r="DU9" s="6">
         <v>5</v>
       </c>
       <c r="DV9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="DW9" s="6">
         <v>5</v>
       </c>
       <c r="DX9" s="2" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="DY9" s="6">
         <v>5</v>
       </c>
-      <c r="DZ9" s="4"/>
+      <c r="DZ9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="EA9" s="6">
         <v>5</v>
       </c>
-      <c r="EB9" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="EB9" s="4"/>
       <c r="EC9" s="6">
         <v>5</v>
       </c>
@@ -8077,7 +8158,9 @@
       <c r="EE9" s="6">
         <v>5</v>
       </c>
-      <c r="EF9" s="2"/>
+      <c r="EF9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="EG9" s="6">
         <v>5</v>
       </c>
@@ -8089,21 +8172,25 @@
       <c r="EK9" s="6">
         <v>5</v>
       </c>
-      <c r="EL9" s="4"/>
+      <c r="EL9" s="2"/>
       <c r="EM9" s="6">
         <v>5</v>
       </c>
-      <c r="EN9" s="2"/>
+      <c r="EN9" s="4"/>
       <c r="EO9" s="6">
         <v>5</v>
       </c>
-      <c r="EP9" s="4"/>
+      <c r="EP9" s="2"/>
       <c r="EQ9" s="6">
         <v>5</v>
       </c>
       <c r="ER9" s="4"/>
+      <c r="ES9" s="6">
+        <v>5</v>
+      </c>
+      <c r="ET9" s="4"/>
     </row>
-    <row r="10" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -8145,13 +8232,13 @@
       <c r="S10" s="6">
         <v>6</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="T10" s="4"/>
       <c r="U10" s="6">
         <v>6</v>
       </c>
-      <c r="V10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="W10" s="6">
         <v>6</v>
       </c>
@@ -8183,39 +8270,39 @@
       <c r="AK10" s="6">
         <v>6</v>
       </c>
-      <c r="AL10" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AL10" s="2"/>
       <c r="AM10" s="6">
         <v>6</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="AO10" s="6">
         <v>6</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="AQ10" s="6">
         <v>6</v>
       </c>
-      <c r="AR10" s="2"/>
+      <c r="AR10" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="AS10" s="6">
         <v>6</v>
       </c>
-      <c r="AT10" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AT10" s="2"/>
       <c r="AU10" s="6">
         <v>6</v>
       </c>
-      <c r="AV10" s="2"/>
+      <c r="AV10" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="AW10" s="6">
         <v>6</v>
       </c>
-      <c r="AX10" s="4"/>
+      <c r="AX10" s="2"/>
       <c r="AY10" s="6">
         <v>6</v>
       </c>
@@ -8227,11 +8314,11 @@
       <c r="BC10" s="6">
         <v>6</v>
       </c>
-      <c r="BD10" s="2"/>
+      <c r="BD10" s="4"/>
       <c r="BE10" s="6">
         <v>6</v>
       </c>
-      <c r="BF10" s="4"/>
+      <c r="BF10" s="2"/>
       <c r="BG10" s="6">
         <v>6</v>
       </c>
@@ -8239,37 +8326,37 @@
       <c r="BI10" s="6">
         <v>6</v>
       </c>
-      <c r="BJ10" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="BJ10" s="4"/>
       <c r="BK10" s="6">
         <v>6</v>
       </c>
-      <c r="BL10" s="2"/>
+      <c r="BL10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="BM10" s="6">
         <v>6</v>
       </c>
-      <c r="BN10" s="4"/>
+      <c r="BN10" s="2"/>
       <c r="BO10" s="6">
         <v>6</v>
       </c>
-      <c r="BP10" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="BP10" s="4"/>
       <c r="BQ10" s="6">
         <v>6</v>
       </c>
-      <c r="BR10" s="4"/>
+      <c r="BR10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="BS10" s="6">
         <v>6</v>
       </c>
-      <c r="BT10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="BT10" s="4"/>
       <c r="BU10" s="6">
         <v>6</v>
       </c>
-      <c r="BV10" s="4"/>
+      <c r="BV10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="BW10" s="6">
         <v>6</v>
       </c>
@@ -8277,7 +8364,7 @@
       <c r="BY10" s="6">
         <v>6</v>
       </c>
-      <c r="BZ10" s="2"/>
+      <c r="BZ10" s="4"/>
       <c r="CA10" s="6">
         <v>6</v>
       </c>
@@ -8285,11 +8372,11 @@
       <c r="CC10" s="6">
         <v>6</v>
       </c>
-      <c r="CD10" s="4"/>
+      <c r="CD10" s="2"/>
       <c r="CE10" s="6">
         <v>6</v>
       </c>
-      <c r="CF10" s="2"/>
+      <c r="CF10" s="4"/>
       <c r="CG10" s="6">
         <v>6</v>
       </c>
@@ -8309,7 +8396,7 @@
       <c r="CO10" s="6">
         <v>6</v>
       </c>
-      <c r="CP10" s="4"/>
+      <c r="CP10" s="2"/>
       <c r="CQ10" s="6">
         <v>6</v>
       </c>
@@ -8337,23 +8424,23 @@
       <c r="DC10" s="6">
         <v>6</v>
       </c>
+      <c r="DD10" s="4"/>
       <c r="DE10" s="6">
         <v>6</v>
       </c>
-      <c r="DF10" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="DG10" s="6">
         <v>6</v>
       </c>
-      <c r="DH10" s="4"/>
+      <c r="DH10" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="DI10" s="6">
         <v>6</v>
       </c>
+      <c r="DJ10" s="4"/>
       <c r="DK10" s="6">
         <v>6</v>
       </c>
-      <c r="DL10" s="4"/>
       <c r="DM10" s="6">
         <v>6</v>
       </c>
@@ -8369,31 +8456,29 @@
       <c r="DS10" s="6">
         <v>6</v>
       </c>
-      <c r="DT10" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="DT10" s="4"/>
       <c r="DU10" s="6">
         <v>6</v>
       </c>
       <c r="DV10" s="2" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="DW10" s="6">
         <v>6</v>
       </c>
       <c r="DX10" s="2" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="DY10" s="6">
         <v>6</v>
       </c>
-      <c r="DZ10" s="4"/>
+      <c r="DZ10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="EA10" s="6">
         <v>6</v>
       </c>
-      <c r="EB10" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="EB10" s="4"/>
       <c r="EC10" s="6">
         <v>6</v>
       </c>
@@ -8403,7 +8488,9 @@
       <c r="EE10" s="6">
         <v>6</v>
       </c>
-      <c r="EF10" s="2"/>
+      <c r="EF10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="EG10" s="6">
         <v>6</v>
       </c>
@@ -8415,21 +8502,25 @@
       <c r="EK10" s="6">
         <v>6</v>
       </c>
-      <c r="EL10" s="4"/>
+      <c r="EL10" s="2"/>
       <c r="EM10" s="6">
         <v>6</v>
       </c>
-      <c r="EN10" s="2"/>
+      <c r="EN10" s="4"/>
       <c r="EO10" s="6">
         <v>6</v>
       </c>
-      <c r="EP10" s="4"/>
+      <c r="EP10" s="2"/>
       <c r="EQ10" s="6">
         <v>6</v>
       </c>
       <c r="ER10" s="4"/>
+      <c r="ES10" s="6">
+        <v>6</v>
+      </c>
+      <c r="ET10" s="4"/>
     </row>
-    <row r="11" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -8471,13 +8562,13 @@
       <c r="S11" s="6">
         <v>7</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="T11" s="4"/>
       <c r="U11" s="6">
         <v>7</v>
       </c>
-      <c r="V11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="W11" s="6">
         <v>7</v>
       </c>
@@ -8513,33 +8604,33 @@
       <c r="AM11" s="6">
         <v>7</v>
       </c>
-      <c r="AN11" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AN11" s="2"/>
       <c r="AO11" s="6">
         <v>7</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AQ11" s="6">
         <v>7</v>
       </c>
-      <c r="AR11" s="2"/>
+      <c r="AR11" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="AS11" s="6">
         <v>7</v>
       </c>
-      <c r="AT11" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AT11" s="2"/>
       <c r="AU11" s="6">
         <v>7</v>
       </c>
-      <c r="AV11" s="2"/>
+      <c r="AV11" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="AW11" s="6">
         <v>7</v>
       </c>
-      <c r="AX11" s="4"/>
+      <c r="AX11" s="2"/>
       <c r="AY11" s="6">
         <v>7</v>
       </c>
@@ -8551,11 +8642,11 @@
       <c r="BC11" s="6">
         <v>7</v>
       </c>
-      <c r="BD11" s="2"/>
+      <c r="BD11" s="4"/>
       <c r="BE11" s="6">
         <v>7</v>
       </c>
-      <c r="BF11" s="4"/>
+      <c r="BF11" s="2"/>
       <c r="BG11" s="6">
         <v>7</v>
       </c>
@@ -8563,37 +8654,37 @@
       <c r="BI11" s="6">
         <v>7</v>
       </c>
-      <c r="BJ11" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="BJ11" s="4"/>
       <c r="BK11" s="6">
         <v>7</v>
       </c>
-      <c r="BL11" s="2"/>
+      <c r="BL11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="BM11" s="6">
         <v>7</v>
       </c>
-      <c r="BN11" s="4"/>
+      <c r="BN11" s="2"/>
       <c r="BO11" s="6">
         <v>7</v>
       </c>
-      <c r="BP11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="BP11" s="4"/>
       <c r="BQ11" s="6">
         <v>7</v>
       </c>
-      <c r="BR11" s="4"/>
+      <c r="BR11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="BS11" s="6">
         <v>7</v>
       </c>
-      <c r="BT11" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="BT11" s="4"/>
       <c r="BU11" s="6">
         <v>7</v>
       </c>
-      <c r="BV11" s="4"/>
+      <c r="BV11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="BW11" s="6">
         <v>7</v>
       </c>
@@ -8601,7 +8692,7 @@
       <c r="BY11" s="6">
         <v>7</v>
       </c>
-      <c r="BZ11" s="2"/>
+      <c r="BZ11" s="4"/>
       <c r="CA11" s="6">
         <v>7</v>
       </c>
@@ -8609,11 +8700,11 @@
       <c r="CC11" s="6">
         <v>7</v>
       </c>
-      <c r="CD11" s="4"/>
+      <c r="CD11" s="2"/>
       <c r="CE11" s="6">
         <v>7</v>
       </c>
-      <c r="CF11" s="2"/>
+      <c r="CF11" s="4"/>
       <c r="CG11" s="6">
         <v>7</v>
       </c>
@@ -8633,7 +8724,7 @@
       <c r="CO11" s="6">
         <v>7</v>
       </c>
-      <c r="CP11" s="4"/>
+      <c r="CP11" s="2"/>
       <c r="CQ11" s="6">
         <v>7</v>
       </c>
@@ -8661,23 +8752,23 @@
       <c r="DC11" s="6">
         <v>7</v>
       </c>
+      <c r="DD11" s="4"/>
       <c r="DE11" s="6">
         <v>7</v>
       </c>
-      <c r="DF11" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="DG11" s="6">
         <v>7</v>
       </c>
-      <c r="DH11" s="4"/>
+      <c r="DH11" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="DI11" s="6">
         <v>7</v>
       </c>
+      <c r="DJ11" s="4"/>
       <c r="DK11" s="6">
         <v>7</v>
       </c>
-      <c r="DL11" s="4"/>
       <c r="DM11" s="6">
         <v>7</v>
       </c>
@@ -8693,31 +8784,29 @@
       <c r="DS11" s="6">
         <v>7</v>
       </c>
-      <c r="DT11" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="DT11" s="4"/>
       <c r="DU11" s="6">
         <v>7</v>
       </c>
       <c r="DV11" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="DW11" s="6">
         <v>7</v>
       </c>
       <c r="DX11" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="DY11" s="6">
         <v>7</v>
       </c>
-      <c r="DZ11" s="4"/>
+      <c r="DZ11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="EA11" s="6">
         <v>7</v>
       </c>
-      <c r="EB11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="EB11" s="4"/>
       <c r="EC11" s="6">
         <v>7</v>
       </c>
@@ -8727,7 +8816,9 @@
       <c r="EE11" s="6">
         <v>7</v>
       </c>
-      <c r="EF11" s="2"/>
+      <c r="EF11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="EG11" s="6">
         <v>7</v>
       </c>
@@ -8739,21 +8830,25 @@
       <c r="EK11" s="6">
         <v>7</v>
       </c>
-      <c r="EL11" s="4"/>
+      <c r="EL11" s="2"/>
       <c r="EM11" s="6">
         <v>7</v>
       </c>
-      <c r="EN11" s="2"/>
+      <c r="EN11" s="4"/>
       <c r="EO11" s="6">
         <v>7</v>
       </c>
-      <c r="EP11" s="4"/>
+      <c r="EP11" s="2"/>
       <c r="EQ11" s="6">
         <v>7</v>
       </c>
       <c r="ER11" s="4"/>
+      <c r="ES11" s="6">
+        <v>7</v>
+      </c>
+      <c r="ET11" s="4"/>
     </row>
-    <row r="12" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -8793,13 +8888,13 @@
       <c r="S12" s="6">
         <v>8</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="T12" s="4"/>
       <c r="U12" s="6">
         <v>8</v>
       </c>
-      <c r="V12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="W12" s="6">
         <v>8</v>
       </c>
@@ -8835,33 +8930,33 @@
       <c r="AM12" s="6">
         <v>8</v>
       </c>
-      <c r="AN12" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AN12" s="2"/>
       <c r="AO12" s="6">
         <v>8</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AQ12" s="6">
         <v>8</v>
       </c>
-      <c r="AR12" s="2"/>
+      <c r="AR12" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AS12" s="6">
         <v>8</v>
       </c>
-      <c r="AT12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="AT12" s="2"/>
       <c r="AU12" s="6">
         <v>8</v>
       </c>
-      <c r="AV12" s="2"/>
+      <c r="AV12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="AW12" s="6">
         <v>8</v>
       </c>
-      <c r="AX12" s="4"/>
+      <c r="AX12" s="2"/>
       <c r="AY12" s="6">
         <v>8</v>
       </c>
@@ -8873,11 +8968,11 @@
       <c r="BC12" s="6">
         <v>8</v>
       </c>
-      <c r="BD12" s="2"/>
+      <c r="BD12" s="4"/>
       <c r="BE12" s="6">
         <v>8</v>
       </c>
-      <c r="BF12" s="4"/>
+      <c r="BF12" s="2"/>
       <c r="BG12" s="6">
         <v>8</v>
       </c>
@@ -8885,37 +8980,37 @@
       <c r="BI12" s="6">
         <v>8</v>
       </c>
-      <c r="BJ12" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="BJ12" s="4"/>
       <c r="BK12" s="6">
         <v>8</v>
       </c>
-      <c r="BL12" s="2"/>
+      <c r="BL12" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="BM12" s="6">
         <v>8</v>
       </c>
-      <c r="BN12" s="4"/>
+      <c r="BN12" s="2"/>
       <c r="BO12" s="6">
         <v>8</v>
       </c>
-      <c r="BP12" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="BP12" s="4"/>
       <c r="BQ12" s="6">
         <v>8</v>
       </c>
-      <c r="BR12" s="4"/>
+      <c r="BR12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="BS12" s="6">
         <v>8</v>
       </c>
-      <c r="BT12" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="BT12" s="4"/>
       <c r="BU12" s="6">
         <v>8</v>
       </c>
-      <c r="BV12" s="4"/>
+      <c r="BV12" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="BW12" s="6">
         <v>8</v>
       </c>
@@ -8923,7 +9018,7 @@
       <c r="BY12" s="6">
         <v>8</v>
       </c>
-      <c r="BZ12" s="2"/>
+      <c r="BZ12" s="4"/>
       <c r="CA12" s="6">
         <v>8</v>
       </c>
@@ -8931,11 +9026,11 @@
       <c r="CC12" s="6">
         <v>8</v>
       </c>
-      <c r="CD12" s="4"/>
+      <c r="CD12" s="2"/>
       <c r="CE12" s="6">
         <v>8</v>
       </c>
-      <c r="CF12" s="2"/>
+      <c r="CF12" s="4"/>
       <c r="CG12" s="6">
         <v>8</v>
       </c>
@@ -8955,7 +9050,7 @@
       <c r="CO12" s="6">
         <v>8</v>
       </c>
-      <c r="CP12" s="4"/>
+      <c r="CP12" s="2"/>
       <c r="CQ12" s="6">
         <v>8</v>
       </c>
@@ -8983,20 +9078,20 @@
       <c r="DC12" s="6">
         <v>8</v>
       </c>
+      <c r="DD12" s="4"/>
       <c r="DE12" s="6">
         <v>8</v>
       </c>
       <c r="DG12" s="6">
         <v>8</v>
       </c>
-      <c r="DH12" s="4"/>
       <c r="DI12" s="6">
         <v>8</v>
       </c>
+      <c r="DJ12" s="4"/>
       <c r="DK12" s="6">
         <v>8</v>
       </c>
-      <c r="DL12" s="4"/>
       <c r="DM12" s="6">
         <v>8</v>
       </c>
@@ -9012,29 +9107,27 @@
       <c r="DS12" s="6">
         <v>8</v>
       </c>
-      <c r="DT12" s="2"/>
+      <c r="DT12" s="4"/>
       <c r="DU12" s="6">
         <v>8</v>
       </c>
-      <c r="DV12" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="DV12" s="2"/>
       <c r="DW12" s="6">
         <v>8</v>
       </c>
       <c r="DX12" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="DY12" s="6">
         <v>8</v>
       </c>
-      <c r="DZ12" s="4"/>
+      <c r="DZ12" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="EA12" s="6">
         <v>8</v>
       </c>
-      <c r="EB12" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="EB12" s="4"/>
       <c r="EC12" s="6">
         <v>8</v>
       </c>
@@ -9044,7 +9137,9 @@
       <c r="EE12" s="6">
         <v>8</v>
       </c>
-      <c r="EF12" s="2"/>
+      <c r="EF12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="EG12" s="6">
         <v>8</v>
       </c>
@@ -9056,21 +9151,25 @@
       <c r="EK12" s="6">
         <v>8</v>
       </c>
-      <c r="EL12" s="4"/>
+      <c r="EL12" s="2"/>
       <c r="EM12" s="6">
         <v>8</v>
       </c>
-      <c r="EN12" s="2"/>
+      <c r="EN12" s="4"/>
       <c r="EO12" s="6">
         <v>8</v>
       </c>
-      <c r="EP12" s="4"/>
+      <c r="EP12" s="2"/>
       <c r="EQ12" s="6">
         <v>8</v>
       </c>
       <c r="ER12" s="4"/>
+      <c r="ES12" s="6">
+        <v>8</v>
+      </c>
+      <c r="ET12" s="4"/>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -9110,7 +9209,7 @@
       <c r="S13" s="6">
         <v>9</v>
       </c>
-      <c r="T13" s="2"/>
+      <c r="T13" s="4"/>
       <c r="U13" s="6">
         <v>9</v>
       </c>
@@ -9150,33 +9249,33 @@
       <c r="AM13" s="6">
         <v>9</v>
       </c>
-      <c r="AN13" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="AN13" s="2"/>
       <c r="AO13" s="6">
         <v>9</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AQ13" s="6">
         <v>9</v>
       </c>
-      <c r="AR13" s="2"/>
+      <c r="AR13" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AS13" s="6">
         <v>9</v>
       </c>
-      <c r="AT13" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="AT13" s="2"/>
       <c r="AU13" s="6">
         <v>9</v>
       </c>
-      <c r="AV13" s="2"/>
+      <c r="AV13" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AW13" s="6">
         <v>9</v>
       </c>
-      <c r="AX13" s="4"/>
+      <c r="AX13" s="2"/>
       <c r="AY13" s="6">
         <v>9</v>
       </c>
@@ -9188,11 +9287,11 @@
       <c r="BC13" s="6">
         <v>9</v>
       </c>
-      <c r="BD13" s="2"/>
+      <c r="BD13" s="4"/>
       <c r="BE13" s="6">
         <v>9</v>
       </c>
-      <c r="BF13" s="4"/>
+      <c r="BF13" s="2"/>
       <c r="BG13" s="6">
         <v>9</v>
       </c>
@@ -9200,37 +9299,37 @@
       <c r="BI13" s="6">
         <v>9</v>
       </c>
-      <c r="BJ13" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="BJ13" s="4"/>
       <c r="BK13" s="6">
         <v>9</v>
       </c>
-      <c r="BL13" s="2"/>
+      <c r="BL13" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="BM13" s="6">
         <v>9</v>
       </c>
-      <c r="BN13" s="4"/>
+      <c r="BN13" s="2"/>
       <c r="BO13" s="6">
         <v>9</v>
       </c>
-      <c r="BP13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="BP13" s="4"/>
       <c r="BQ13" s="6">
         <v>9</v>
       </c>
-      <c r="BR13" s="4"/>
+      <c r="BR13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="BS13" s="6">
         <v>9</v>
       </c>
-      <c r="BT13" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="BT13" s="4"/>
       <c r="BU13" s="6">
         <v>9</v>
       </c>
-      <c r="BV13" s="4"/>
+      <c r="BV13" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="BW13" s="6">
         <v>9</v>
       </c>
@@ -9238,7 +9337,7 @@
       <c r="BY13" s="6">
         <v>9</v>
       </c>
-      <c r="BZ13" s="2"/>
+      <c r="BZ13" s="4"/>
       <c r="CA13" s="6">
         <v>9</v>
       </c>
@@ -9246,11 +9345,11 @@
       <c r="CC13" s="6">
         <v>9</v>
       </c>
-      <c r="CD13" s="4"/>
+      <c r="CD13" s="2"/>
       <c r="CE13" s="6">
         <v>9</v>
       </c>
-      <c r="CF13" s="2"/>
+      <c r="CF13" s="4"/>
       <c r="CG13" s="6">
         <v>9</v>
       </c>
@@ -9270,7 +9369,7 @@
       <c r="CO13" s="6">
         <v>9</v>
       </c>
-      <c r="CP13" s="4"/>
+      <c r="CP13" s="2"/>
       <c r="CQ13" s="6">
         <v>9</v>
       </c>
@@ -9298,10 +9397,10 @@
       <c r="DC13" s="6">
         <v>9</v>
       </c>
+      <c r="DD13" s="4"/>
       <c r="DE13" s="6">
         <v>9</v>
       </c>
-      <c r="DF13" s="4"/>
       <c r="DG13" s="6">
         <v>9</v>
       </c>
@@ -9309,10 +9408,10 @@
       <c r="DI13" s="6">
         <v>9</v>
       </c>
+      <c r="DJ13" s="4"/>
       <c r="DK13" s="6">
         <v>9</v>
       </c>
-      <c r="DL13" s="4"/>
       <c r="DM13" s="6">
         <v>9</v>
       </c>
@@ -9328,29 +9427,27 @@
       <c r="DS13" s="6">
         <v>9</v>
       </c>
-      <c r="DT13" s="2"/>
+      <c r="DT13" s="4"/>
       <c r="DU13" s="6">
         <v>9</v>
       </c>
-      <c r="DV13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="DV13" s="2"/>
       <c r="DW13" s="6">
         <v>9</v>
       </c>
       <c r="DX13" s="2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="DY13" s="6">
         <v>9</v>
       </c>
-      <c r="DZ13" s="4"/>
+      <c r="DZ13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="EA13" s="6">
         <v>9</v>
       </c>
-      <c r="EB13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="EB13" s="4"/>
       <c r="EC13" s="6">
         <v>9</v>
       </c>
@@ -9360,7 +9457,9 @@
       <c r="EE13" s="6">
         <v>9</v>
       </c>
-      <c r="EF13" s="2"/>
+      <c r="EF13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="EG13" s="6">
         <v>9</v>
       </c>
@@ -9372,21 +9471,25 @@
       <c r="EK13" s="6">
         <v>9</v>
       </c>
-      <c r="EL13" s="4"/>
+      <c r="EL13" s="2"/>
       <c r="EM13" s="6">
         <v>9</v>
       </c>
-      <c r="EN13" s="2"/>
+      <c r="EN13" s="4"/>
       <c r="EO13" s="6">
         <v>9</v>
       </c>
-      <c r="EP13" s="4"/>
+      <c r="EP13" s="2"/>
       <c r="EQ13" s="6">
         <v>9</v>
       </c>
       <c r="ER13" s="4"/>
+      <c r="ES13" s="6">
+        <v>9</v>
+      </c>
+      <c r="ET13" s="4"/>
     </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -9426,7 +9529,7 @@
       <c r="S14" s="6">
         <v>10</v>
       </c>
-      <c r="T14" s="2"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="6">
         <v>10</v>
       </c>
@@ -9466,13 +9569,13 @@
       <c r="AM14" s="6">
         <v>10</v>
       </c>
-      <c r="AN14" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="AN14" s="2"/>
       <c r="AO14" s="6">
         <v>10</v>
       </c>
-      <c r="AP14" s="2"/>
+      <c r="AP14" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AQ14" s="6">
         <v>10</v>
       </c>
@@ -9480,17 +9583,17 @@
       <c r="AS14" s="6">
         <v>10</v>
       </c>
-      <c r="AT14" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="AT14" s="2"/>
       <c r="AU14" s="6">
         <v>10</v>
       </c>
-      <c r="AV14" s="2"/>
+      <c r="AV14" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AW14" s="6">
         <v>10</v>
       </c>
-      <c r="AX14" s="4"/>
+      <c r="AX14" s="2"/>
       <c r="AY14" s="6">
         <v>10</v>
       </c>
@@ -9502,11 +9605,11 @@
       <c r="BC14" s="6">
         <v>10</v>
       </c>
-      <c r="BD14" s="2"/>
+      <c r="BD14" s="4"/>
       <c r="BE14" s="6">
         <v>10</v>
       </c>
-      <c r="BF14" s="4"/>
+      <c r="BF14" s="2"/>
       <c r="BG14" s="6">
         <v>10</v>
       </c>
@@ -9514,37 +9617,37 @@
       <c r="BI14" s="6">
         <v>10</v>
       </c>
-      <c r="BJ14" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="BJ14" s="4"/>
       <c r="BK14" s="6">
         <v>10</v>
       </c>
-      <c r="BL14" s="2"/>
+      <c r="BL14" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="BM14" s="6">
         <v>10</v>
       </c>
-      <c r="BN14" s="4"/>
+      <c r="BN14" s="2"/>
       <c r="BO14" s="6">
         <v>10</v>
       </c>
-      <c r="BP14" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="BP14" s="4"/>
       <c r="BQ14" s="6">
         <v>10</v>
       </c>
-      <c r="BR14" s="4"/>
+      <c r="BR14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="BS14" s="6">
         <v>10</v>
       </c>
-      <c r="BT14" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="BT14" s="4"/>
       <c r="BU14" s="6">
         <v>10</v>
       </c>
-      <c r="BV14" s="4"/>
+      <c r="BV14" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="BW14" s="6">
         <v>10</v>
       </c>
@@ -9552,7 +9655,7 @@
       <c r="BY14" s="6">
         <v>10</v>
       </c>
-      <c r="BZ14" s="2"/>
+      <c r="BZ14" s="4"/>
       <c r="CA14" s="6">
         <v>10</v>
       </c>
@@ -9560,11 +9663,11 @@
       <c r="CC14" s="6">
         <v>10</v>
       </c>
-      <c r="CD14" s="4"/>
+      <c r="CD14" s="2"/>
       <c r="CE14" s="6">
         <v>10</v>
       </c>
-      <c r="CF14" s="2"/>
+      <c r="CF14" s="4"/>
       <c r="CG14" s="6">
         <v>10</v>
       </c>
@@ -9584,7 +9687,7 @@
       <c r="CO14" s="6">
         <v>10</v>
       </c>
-      <c r="CP14" s="4"/>
+      <c r="CP14" s="2"/>
       <c r="CQ14" s="6">
         <v>10</v>
       </c>
@@ -9612,10 +9715,10 @@
       <c r="DC14" s="6">
         <v>10</v>
       </c>
+      <c r="DD14" s="4"/>
       <c r="DE14" s="6">
         <v>10</v>
       </c>
-      <c r="DF14" s="4"/>
       <c r="DG14" s="6">
         <v>10</v>
       </c>
@@ -9623,10 +9726,10 @@
       <c r="DI14" s="6">
         <v>10</v>
       </c>
+      <c r="DJ14" s="4"/>
       <c r="DK14" s="6">
         <v>10</v>
       </c>
-      <c r="DL14" s="4"/>
       <c r="DM14" s="6">
         <v>10</v>
       </c>
@@ -9642,29 +9745,27 @@
       <c r="DS14" s="6">
         <v>10</v>
       </c>
-      <c r="DT14" s="2"/>
+      <c r="DT14" s="4"/>
       <c r="DU14" s="6">
         <v>10</v>
       </c>
-      <c r="DV14" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="DV14" s="2"/>
       <c r="DW14" s="6">
         <v>10</v>
       </c>
       <c r="DX14" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="DY14" s="6">
         <v>10</v>
       </c>
-      <c r="DZ14" s="4"/>
+      <c r="DZ14" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="EA14" s="6">
         <v>10</v>
       </c>
-      <c r="EB14" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="EB14" s="4"/>
       <c r="EC14" s="6">
         <v>10</v>
       </c>
@@ -9674,7 +9775,9 @@
       <c r="EE14" s="6">
         <v>10</v>
       </c>
-      <c r="EF14" s="2"/>
+      <c r="EF14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="EG14" s="6">
         <v>10</v>
       </c>
@@ -9686,21 +9789,25 @@
       <c r="EK14" s="6">
         <v>10</v>
       </c>
-      <c r="EL14" s="4"/>
+      <c r="EL14" s="2"/>
       <c r="EM14" s="6">
         <v>10</v>
       </c>
-      <c r="EN14" s="2"/>
+      <c r="EN14" s="4"/>
       <c r="EO14" s="6">
         <v>10</v>
       </c>
-      <c r="EP14" s="4"/>
+      <c r="EP14" s="2"/>
       <c r="EQ14" s="6">
         <v>10</v>
       </c>
       <c r="ER14" s="4"/>
+      <c r="ES14" s="6">
+        <v>10</v>
+      </c>
+      <c r="ET14" s="4"/>
     </row>
-    <row r="15" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -9740,7 +9847,7 @@
       <c r="S15" s="6">
         <v>11</v>
       </c>
-      <c r="T15" s="2"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="6">
         <v>11</v>
       </c>
@@ -9780,13 +9887,13 @@
       <c r="AM15" s="6">
         <v>11</v>
       </c>
-      <c r="AN15" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="AN15" s="2"/>
       <c r="AO15" s="6">
         <v>11</v>
       </c>
-      <c r="AP15" s="2"/>
+      <c r="AP15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AQ15" s="6">
         <v>11</v>
       </c>
@@ -9802,7 +9909,7 @@
       <c r="AW15" s="6">
         <v>11</v>
       </c>
-      <c r="AX15" s="4"/>
+      <c r="AX15" s="2"/>
       <c r="AY15" s="6">
         <v>11</v>
       </c>
@@ -9814,11 +9921,11 @@
       <c r="BC15" s="6">
         <v>11</v>
       </c>
-      <c r="BD15" s="2"/>
+      <c r="BD15" s="4"/>
       <c r="BE15" s="6">
         <v>11</v>
       </c>
-      <c r="BF15" s="4"/>
+      <c r="BF15" s="2"/>
       <c r="BG15" s="6">
         <v>11</v>
       </c>
@@ -9826,37 +9933,37 @@
       <c r="BI15" s="6">
         <v>11</v>
       </c>
-      <c r="BJ15" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="BJ15" s="4"/>
       <c r="BK15" s="6">
         <v>11</v>
       </c>
-      <c r="BL15" s="2"/>
+      <c r="BL15" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="BM15" s="6">
         <v>11</v>
       </c>
-      <c r="BN15" s="4"/>
+      <c r="BN15" s="2"/>
       <c r="BO15" s="6">
         <v>11</v>
       </c>
-      <c r="BP15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="BP15" s="4"/>
       <c r="BQ15" s="6">
         <v>11</v>
       </c>
-      <c r="BR15" s="4"/>
+      <c r="BR15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="BS15" s="6">
         <v>11</v>
       </c>
-      <c r="BT15" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="BT15" s="4"/>
       <c r="BU15" s="6">
         <v>11</v>
       </c>
-      <c r="BV15" s="4"/>
+      <c r="BV15" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="BW15" s="6">
         <v>11</v>
       </c>
@@ -9864,7 +9971,7 @@
       <c r="BY15" s="6">
         <v>11</v>
       </c>
-      <c r="BZ15" s="2"/>
+      <c r="BZ15" s="4"/>
       <c r="CA15" s="6">
         <v>11</v>
       </c>
@@ -9872,11 +9979,11 @@
       <c r="CC15" s="6">
         <v>11</v>
       </c>
-      <c r="CD15" s="4"/>
+      <c r="CD15" s="2"/>
       <c r="CE15" s="6">
         <v>11</v>
       </c>
-      <c r="CF15" s="2"/>
+      <c r="CF15" s="4"/>
       <c r="CG15" s="6">
         <v>11</v>
       </c>
@@ -9896,7 +10003,7 @@
       <c r="CO15" s="6">
         <v>11</v>
       </c>
-      <c r="CP15" s="4"/>
+      <c r="CP15" s="2"/>
       <c r="CQ15" s="6">
         <v>11</v>
       </c>
@@ -9956,29 +10063,27 @@
       <c r="DS15" s="6">
         <v>11</v>
       </c>
-      <c r="DT15" s="2"/>
+      <c r="DT15" s="4"/>
       <c r="DU15" s="6">
         <v>11</v>
       </c>
-      <c r="DV15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="DV15" s="2"/>
       <c r="DW15" s="6">
         <v>11</v>
       </c>
       <c r="DX15" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="DY15" s="6">
         <v>11</v>
       </c>
-      <c r="DZ15" s="4"/>
+      <c r="DZ15" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="EA15" s="6">
         <v>11</v>
       </c>
-      <c r="EB15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="EB15" s="4"/>
       <c r="EC15" s="6">
         <v>11</v>
       </c>
@@ -9988,7 +10093,9 @@
       <c r="EE15" s="6">
         <v>11</v>
       </c>
-      <c r="EF15" s="2"/>
+      <c r="EF15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="EG15" s="6">
         <v>11</v>
       </c>
@@ -10000,21 +10107,25 @@
       <c r="EK15" s="6">
         <v>11</v>
       </c>
-      <c r="EL15" s="4"/>
+      <c r="EL15" s="2"/>
       <c r="EM15" s="6">
         <v>11</v>
       </c>
-      <c r="EN15" s="2"/>
+      <c r="EN15" s="4"/>
       <c r="EO15" s="6">
         <v>11</v>
       </c>
-      <c r="EP15" s="4"/>
+      <c r="EP15" s="2"/>
       <c r="EQ15" s="6">
         <v>11</v>
       </c>
       <c r="ER15" s="4"/>
+      <c r="ES15" s="6">
+        <v>11</v>
+      </c>
+      <c r="ET15" s="4"/>
     </row>
-    <row r="16" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -10054,7 +10165,7 @@
       <c r="S16" s="6">
         <v>12</v>
       </c>
-      <c r="T16" s="2"/>
+      <c r="T16" s="4"/>
       <c r="U16" s="6">
         <v>12</v>
       </c>
@@ -10114,7 +10225,7 @@
       <c r="AW16" s="6">
         <v>12</v>
       </c>
-      <c r="AX16" s="4"/>
+      <c r="AX16" s="2"/>
       <c r="AY16" s="6">
         <v>12</v>
       </c>
@@ -10126,11 +10237,11 @@
       <c r="BC16" s="6">
         <v>12</v>
       </c>
-      <c r="BD16" s="2"/>
+      <c r="BD16" s="4"/>
       <c r="BE16" s="6">
         <v>12</v>
       </c>
-      <c r="BF16" s="4"/>
+      <c r="BF16" s="2"/>
       <c r="BG16" s="6">
         <v>12</v>
       </c>
@@ -10138,37 +10249,37 @@
       <c r="BI16" s="6">
         <v>12</v>
       </c>
-      <c r="BJ16" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="BJ16" s="4"/>
       <c r="BK16" s="6">
         <v>12</v>
       </c>
-      <c r="BL16" s="2"/>
+      <c r="BL16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="BM16" s="6">
         <v>12</v>
       </c>
-      <c r="BN16" s="4"/>
+      <c r="BN16" s="2"/>
       <c r="BO16" s="6">
         <v>12</v>
       </c>
-      <c r="BP16" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="BP16" s="4"/>
       <c r="BQ16" s="6">
         <v>12</v>
       </c>
-      <c r="BR16" s="4"/>
+      <c r="BR16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="BS16" s="6">
         <v>12</v>
       </c>
-      <c r="BT16" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="BT16" s="4"/>
       <c r="BU16" s="6">
         <v>12</v>
       </c>
-      <c r="BV16" s="4"/>
+      <c r="BV16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="BW16" s="6">
         <v>12</v>
       </c>
@@ -10176,7 +10287,7 @@
       <c r="BY16" s="6">
         <v>12</v>
       </c>
-      <c r="BZ16" s="2"/>
+      <c r="BZ16" s="4"/>
       <c r="CA16" s="6">
         <v>12</v>
       </c>
@@ -10184,11 +10295,11 @@
       <c r="CC16" s="6">
         <v>12</v>
       </c>
-      <c r="CD16" s="4"/>
+      <c r="CD16" s="2"/>
       <c r="CE16" s="6">
         <v>12</v>
       </c>
-      <c r="CF16" s="2"/>
+      <c r="CF16" s="4"/>
       <c r="CG16" s="6">
         <v>12</v>
       </c>
@@ -10208,7 +10319,7 @@
       <c r="CO16" s="6">
         <v>12</v>
       </c>
-      <c r="CP16" s="4"/>
+      <c r="CP16" s="2"/>
       <c r="CQ16" s="6">
         <v>12</v>
       </c>
@@ -10268,29 +10379,27 @@
       <c r="DS16" s="6">
         <v>12</v>
       </c>
-      <c r="DT16" s="2"/>
+      <c r="DT16" s="4"/>
       <c r="DU16" s="6">
         <v>12</v>
       </c>
-      <c r="DV16" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="DV16" s="2"/>
       <c r="DW16" s="6">
         <v>12</v>
       </c>
       <c r="DX16" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="DY16" s="6">
         <v>12</v>
       </c>
-      <c r="DZ16" s="4"/>
+      <c r="DZ16" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="EA16" s="6">
         <v>12</v>
       </c>
-      <c r="EB16" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="EB16" s="4"/>
       <c r="EC16" s="6">
         <v>12</v>
       </c>
@@ -10300,7 +10409,9 @@
       <c r="EE16" s="6">
         <v>12</v>
       </c>
-      <c r="EF16" s="2"/>
+      <c r="EF16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="EG16" s="6">
         <v>12</v>
       </c>
@@ -10312,21 +10423,25 @@
       <c r="EK16" s="6">
         <v>12</v>
       </c>
-      <c r="EL16" s="4"/>
+      <c r="EL16" s="2"/>
       <c r="EM16" s="6">
         <v>12</v>
       </c>
-      <c r="EN16" s="2"/>
+      <c r="EN16" s="4"/>
       <c r="EO16" s="6">
         <v>12</v>
       </c>
-      <c r="EP16" s="4"/>
+      <c r="EP16" s="2"/>
       <c r="EQ16" s="6">
         <v>12</v>
       </c>
       <c r="ER16" s="4"/>
+      <c r="ES16" s="6">
+        <v>12</v>
+      </c>
+      <c r="ET16" s="4"/>
     </row>
-    <row r="17" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -10366,7 +10481,7 @@
       <c r="S17" s="6">
         <v>13</v>
       </c>
-      <c r="T17" s="2"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="6">
         <v>13</v>
       </c>
@@ -10426,7 +10541,7 @@
       <c r="AW17" s="6">
         <v>13</v>
       </c>
-      <c r="AX17" s="4"/>
+      <c r="AX17" s="2"/>
       <c r="AY17" s="6">
         <v>13</v>
       </c>
@@ -10438,11 +10553,11 @@
       <c r="BC17" s="6">
         <v>13</v>
       </c>
-      <c r="BD17" s="2"/>
+      <c r="BD17" s="4"/>
       <c r="BE17" s="6">
         <v>13</v>
       </c>
-      <c r="BF17" s="4"/>
+      <c r="BF17" s="2"/>
       <c r="BG17" s="6">
         <v>13</v>
       </c>
@@ -10450,37 +10565,37 @@
       <c r="BI17" s="6">
         <v>13</v>
       </c>
-      <c r="BJ17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BJ17" s="4"/>
       <c r="BK17" s="6">
         <v>13</v>
       </c>
-      <c r="BL17" s="2"/>
+      <c r="BL17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BM17" s="6">
         <v>13</v>
       </c>
-      <c r="BN17" s="4"/>
+      <c r="BN17" s="2"/>
       <c r="BO17" s="6">
         <v>13</v>
       </c>
-      <c r="BP17" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="BP17" s="4"/>
       <c r="BQ17" s="6">
         <v>13</v>
       </c>
-      <c r="BR17" s="4"/>
+      <c r="BR17" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="BS17" s="6">
         <v>13</v>
       </c>
-      <c r="BT17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BT17" s="4"/>
       <c r="BU17" s="6">
         <v>13</v>
       </c>
-      <c r="BV17" s="4"/>
+      <c r="BV17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BW17" s="6">
         <v>13</v>
       </c>
@@ -10488,7 +10603,7 @@
       <c r="BY17" s="6">
         <v>13</v>
       </c>
-      <c r="BZ17" s="2"/>
+      <c r="BZ17" s="4"/>
       <c r="CA17" s="6">
         <v>13</v>
       </c>
@@ -10496,11 +10611,11 @@
       <c r="CC17" s="6">
         <v>13</v>
       </c>
-      <c r="CD17" s="4"/>
+      <c r="CD17" s="2"/>
       <c r="CE17" s="6">
         <v>13</v>
       </c>
-      <c r="CF17" s="2"/>
+      <c r="CF17" s="4"/>
       <c r="CG17" s="6">
         <v>13</v>
       </c>
@@ -10520,7 +10635,7 @@
       <c r="CO17" s="6">
         <v>13</v>
       </c>
-      <c r="CP17" s="4"/>
+      <c r="CP17" s="2"/>
       <c r="CQ17" s="6">
         <v>13</v>
       </c>
@@ -10580,29 +10695,27 @@
       <c r="DS17" s="6">
         <v>13</v>
       </c>
-      <c r="DT17" s="2"/>
+      <c r="DT17" s="4"/>
       <c r="DU17" s="6">
         <v>13</v>
       </c>
-      <c r="DV17" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="DV17" s="2"/>
       <c r="DW17" s="6">
         <v>13</v>
       </c>
       <c r="DX17" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="DY17" s="6">
         <v>13</v>
       </c>
-      <c r="DZ17" s="4"/>
+      <c r="DZ17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="EA17" s="6">
         <v>13</v>
       </c>
-      <c r="EB17" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="EB17" s="4"/>
       <c r="EC17" s="6">
         <v>13</v>
       </c>
@@ -10612,7 +10725,9 @@
       <c r="EE17" s="6">
         <v>13</v>
       </c>
-      <c r="EF17" s="2"/>
+      <c r="EF17" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="EG17" s="6">
         <v>13</v>
       </c>
@@ -10624,21 +10739,25 @@
       <c r="EK17" s="6">
         <v>13</v>
       </c>
-      <c r="EL17" s="4"/>
+      <c r="EL17" s="2"/>
       <c r="EM17" s="6">
         <v>13</v>
       </c>
-      <c r="EN17" s="2"/>
+      <c r="EN17" s="4"/>
       <c r="EO17" s="6">
         <v>13</v>
       </c>
-      <c r="EP17" s="4"/>
+      <c r="EP17" s="2"/>
       <c r="EQ17" s="6">
         <v>13</v>
       </c>
       <c r="ER17" s="4"/>
+      <c r="ES17" s="6">
+        <v>13</v>
+      </c>
+      <c r="ET17" s="4"/>
     </row>
-    <row r="18" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -10678,7 +10797,7 @@
       <c r="S18" s="6">
         <v>14</v>
       </c>
-      <c r="T18" s="2"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="6">
         <v>14</v>
       </c>
@@ -10738,7 +10857,7 @@
       <c r="AW18" s="6">
         <v>14</v>
       </c>
-      <c r="AX18" s="4"/>
+      <c r="AX18" s="2"/>
       <c r="AY18" s="6">
         <v>14</v>
       </c>
@@ -10750,11 +10869,11 @@
       <c r="BC18" s="6">
         <v>14</v>
       </c>
-      <c r="BD18" s="2"/>
+      <c r="BD18" s="4"/>
       <c r="BE18" s="6">
         <v>14</v>
       </c>
-      <c r="BF18" s="4"/>
+      <c r="BF18" s="2"/>
       <c r="BG18" s="6">
         <v>14</v>
       </c>
@@ -10762,7 +10881,7 @@
       <c r="BI18" s="6">
         <v>14</v>
       </c>
-      <c r="BJ18" s="2"/>
+      <c r="BJ18" s="4"/>
       <c r="BK18" s="6">
         <v>14</v>
       </c>
@@ -10770,25 +10889,25 @@
       <c r="BM18" s="6">
         <v>14</v>
       </c>
-      <c r="BN18" s="4"/>
+      <c r="BN18" s="2"/>
       <c r="BO18" s="6">
         <v>14</v>
       </c>
-      <c r="BP18" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="BP18" s="4"/>
       <c r="BQ18" s="6">
         <v>14</v>
       </c>
-      <c r="BR18" s="4"/>
+      <c r="BR18" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="BS18" s="6">
         <v>14</v>
       </c>
-      <c r="BT18" s="2"/>
+      <c r="BT18" s="4"/>
       <c r="BU18" s="6">
         <v>14</v>
       </c>
-      <c r="BV18" s="4"/>
+      <c r="BV18" s="2"/>
       <c r="BW18" s="6">
         <v>14</v>
       </c>
@@ -10796,7 +10915,7 @@
       <c r="BY18" s="6">
         <v>14</v>
       </c>
-      <c r="BZ18" s="2"/>
+      <c r="BZ18" s="4"/>
       <c r="CA18" s="6">
         <v>14</v>
       </c>
@@ -10804,11 +10923,11 @@
       <c r="CC18" s="6">
         <v>14</v>
       </c>
-      <c r="CD18" s="4"/>
+      <c r="CD18" s="2"/>
       <c r="CE18" s="6">
         <v>14</v>
       </c>
-      <c r="CF18" s="2"/>
+      <c r="CF18" s="4"/>
       <c r="CG18" s="6">
         <v>14</v>
       </c>
@@ -10828,7 +10947,7 @@
       <c r="CO18" s="6">
         <v>14</v>
       </c>
-      <c r="CP18" s="4"/>
+      <c r="CP18" s="2"/>
       <c r="CQ18" s="6">
         <v>14</v>
       </c>
@@ -10888,29 +11007,27 @@
       <c r="DS18" s="6">
         <v>14</v>
       </c>
-      <c r="DT18" s="2"/>
+      <c r="DT18" s="4"/>
       <c r="DU18" s="6">
         <v>14</v>
       </c>
-      <c r="DV18" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="DV18" s="2"/>
       <c r="DW18" s="6">
         <v>14</v>
       </c>
       <c r="DX18" s="2" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="DY18" s="6">
         <v>14</v>
       </c>
-      <c r="DZ18" s="4"/>
+      <c r="DZ18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="EA18" s="6">
         <v>14</v>
       </c>
-      <c r="EB18" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="EB18" s="4"/>
       <c r="EC18" s="6">
         <v>14</v>
       </c>
@@ -10920,7 +11037,9 @@
       <c r="EE18" s="6">
         <v>14</v>
       </c>
-      <c r="EF18" s="2"/>
+      <c r="EF18" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="EG18" s="6">
         <v>14</v>
       </c>
@@ -10932,21 +11051,25 @@
       <c r="EK18" s="6">
         <v>14</v>
       </c>
-      <c r="EL18" s="4"/>
+      <c r="EL18" s="2"/>
       <c r="EM18" s="6">
         <v>14</v>
       </c>
-      <c r="EN18" s="2"/>
+      <c r="EN18" s="4"/>
       <c r="EO18" s="6">
         <v>14</v>
       </c>
-      <c r="EP18" s="4"/>
+      <c r="EP18" s="2"/>
       <c r="EQ18" s="6">
         <v>14</v>
       </c>
       <c r="ER18" s="4"/>
+      <c r="ES18" s="6">
+        <v>14</v>
+      </c>
+      <c r="ET18" s="4"/>
     </row>
-    <row r="19" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -10986,7 +11109,7 @@
       <c r="S19" s="6">
         <v>15</v>
       </c>
-      <c r="T19" s="2"/>
+      <c r="T19" s="4"/>
       <c r="U19" s="6">
         <v>15</v>
       </c>
@@ -11046,7 +11169,7 @@
       <c r="AW19" s="6">
         <v>15</v>
       </c>
-      <c r="AX19" s="4"/>
+      <c r="AX19" s="2"/>
       <c r="AY19" s="6">
         <v>15</v>
       </c>
@@ -11058,11 +11181,11 @@
       <c r="BC19" s="6">
         <v>15</v>
       </c>
-      <c r="BD19" s="2"/>
+      <c r="BD19" s="4"/>
       <c r="BE19" s="6">
         <v>15</v>
       </c>
-      <c r="BF19" s="4"/>
+      <c r="BF19" s="2"/>
       <c r="BG19" s="6">
         <v>15</v>
       </c>
@@ -11070,7 +11193,7 @@
       <c r="BI19" s="6">
         <v>15</v>
       </c>
-      <c r="BJ19" s="2"/>
+      <c r="BJ19" s="4"/>
       <c r="BK19" s="6">
         <v>15</v>
       </c>
@@ -11078,25 +11201,25 @@
       <c r="BM19" s="6">
         <v>15</v>
       </c>
-      <c r="BN19" s="4"/>
+      <c r="BN19" s="2"/>
       <c r="BO19" s="6">
         <v>15</v>
       </c>
-      <c r="BP19" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="BP19" s="4"/>
       <c r="BQ19" s="6">
         <v>15</v>
       </c>
-      <c r="BR19" s="4"/>
+      <c r="BR19" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="BS19" s="6">
         <v>15</v>
       </c>
-      <c r="BT19" s="2"/>
+      <c r="BT19" s="4"/>
       <c r="BU19" s="6">
         <v>15</v>
       </c>
-      <c r="BV19" s="4"/>
+      <c r="BV19" s="2"/>
       <c r="BW19" s="6">
         <v>15</v>
       </c>
@@ -11104,7 +11227,7 @@
       <c r="BY19" s="6">
         <v>15</v>
       </c>
-      <c r="BZ19" s="2"/>
+      <c r="BZ19" s="4"/>
       <c r="CA19" s="6">
         <v>15</v>
       </c>
@@ -11112,11 +11235,11 @@
       <c r="CC19" s="6">
         <v>15</v>
       </c>
-      <c r="CD19" s="4"/>
+      <c r="CD19" s="2"/>
       <c r="CE19" s="6">
         <v>15</v>
       </c>
-      <c r="CF19" s="2"/>
+      <c r="CF19" s="4"/>
       <c r="CG19" s="6">
         <v>15</v>
       </c>
@@ -11136,7 +11259,7 @@
       <c r="CO19" s="6">
         <v>15</v>
       </c>
-      <c r="CP19" s="4"/>
+      <c r="CP19" s="2"/>
       <c r="CQ19" s="6">
         <v>15</v>
       </c>
@@ -11196,27 +11319,25 @@
       <c r="DS19" s="6">
         <v>15</v>
       </c>
-      <c r="DT19" s="2"/>
+      <c r="DT19" s="4"/>
       <c r="DU19" s="6">
         <v>15</v>
       </c>
-      <c r="DV19" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="DV19" s="2"/>
       <c r="DW19" s="6">
         <v>15</v>
       </c>
-      <c r="DX19" s="2"/>
+      <c r="DX19" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="DY19" s="6">
         <v>15</v>
       </c>
-      <c r="DZ19" s="4"/>
+      <c r="DZ19" s="2"/>
       <c r="EA19" s="6">
         <v>15</v>
       </c>
-      <c r="EB19" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="EB19" s="4"/>
       <c r="EC19" s="6">
         <v>15</v>
       </c>
@@ -11226,7 +11347,9 @@
       <c r="EE19" s="6">
         <v>15</v>
       </c>
-      <c r="EF19" s="2"/>
+      <c r="EF19" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="EG19" s="6">
         <v>15</v>
       </c>
@@ -11238,21 +11361,25 @@
       <c r="EK19" s="6">
         <v>15</v>
       </c>
-      <c r="EL19" s="4"/>
+      <c r="EL19" s="2"/>
       <c r="EM19" s="6">
         <v>15</v>
       </c>
-      <c r="EN19" s="2"/>
+      <c r="EN19" s="4"/>
       <c r="EO19" s="6">
         <v>15</v>
       </c>
-      <c r="EP19" s="4"/>
+      <c r="EP19" s="2"/>
       <c r="EQ19" s="6">
         <v>15</v>
       </c>
       <c r="ER19" s="4"/>
+      <c r="ES19" s="6">
+        <v>15</v>
+      </c>
+      <c r="ET19" s="4"/>
     </row>
-    <row r="20" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -11292,7 +11419,7 @@
       <c r="S20" s="6">
         <v>16</v>
       </c>
-      <c r="T20" s="2"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="6">
         <v>16</v>
       </c>
@@ -11352,7 +11479,7 @@
       <c r="AW20" s="6">
         <v>16</v>
       </c>
-      <c r="AX20" s="4"/>
+      <c r="AX20" s="2"/>
       <c r="AY20" s="6">
         <v>16</v>
       </c>
@@ -11364,11 +11491,11 @@
       <c r="BC20" s="6">
         <v>16</v>
       </c>
-      <c r="BD20" s="2"/>
+      <c r="BD20" s="4"/>
       <c r="BE20" s="6">
         <v>16</v>
       </c>
-      <c r="BF20" s="4"/>
+      <c r="BF20" s="2"/>
       <c r="BG20" s="6">
         <v>16</v>
       </c>
@@ -11376,7 +11503,7 @@
       <c r="BI20" s="6">
         <v>16</v>
       </c>
-      <c r="BJ20" s="2"/>
+      <c r="BJ20" s="4"/>
       <c r="BK20" s="6">
         <v>16</v>
       </c>
@@ -11384,25 +11511,25 @@
       <c r="BM20" s="6">
         <v>16</v>
       </c>
-      <c r="BN20" s="4"/>
+      <c r="BN20" s="2"/>
       <c r="BO20" s="6">
         <v>16</v>
       </c>
-      <c r="BP20" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="BP20" s="4"/>
       <c r="BQ20" s="6">
         <v>16</v>
       </c>
-      <c r="BR20" s="4"/>
+      <c r="BR20" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="BS20" s="6">
         <v>16</v>
       </c>
-      <c r="BT20" s="2"/>
+      <c r="BT20" s="4"/>
       <c r="BU20" s="6">
         <v>16</v>
       </c>
-      <c r="BV20" s="4"/>
+      <c r="BV20" s="2"/>
       <c r="BW20" s="6">
         <v>16</v>
       </c>
@@ -11410,7 +11537,7 @@
       <c r="BY20" s="6">
         <v>16</v>
       </c>
-      <c r="BZ20" s="2"/>
+      <c r="BZ20" s="4"/>
       <c r="CA20" s="6">
         <v>16</v>
       </c>
@@ -11418,11 +11545,11 @@
       <c r="CC20" s="6">
         <v>16</v>
       </c>
-      <c r="CD20" s="4"/>
+      <c r="CD20" s="2"/>
       <c r="CE20" s="6">
         <v>16</v>
       </c>
-      <c r="CF20" s="2"/>
+      <c r="CF20" s="4"/>
       <c r="CG20" s="6">
         <v>16</v>
       </c>
@@ -11442,7 +11569,7 @@
       <c r="CO20" s="6">
         <v>16</v>
       </c>
-      <c r="CP20" s="4"/>
+      <c r="CP20" s="2"/>
       <c r="CQ20" s="6">
         <v>16</v>
       </c>
@@ -11502,27 +11629,25 @@
       <c r="DS20" s="6">
         <v>16</v>
       </c>
-      <c r="DT20" s="2"/>
+      <c r="DT20" s="4"/>
       <c r="DU20" s="6">
         <v>16</v>
       </c>
-      <c r="DV20" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="DV20" s="2"/>
       <c r="DW20" s="6">
         <v>16</v>
       </c>
-      <c r="DX20" s="2"/>
+      <c r="DX20" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="DY20" s="6">
         <v>16</v>
       </c>
-      <c r="DZ20" s="4"/>
+      <c r="DZ20" s="2"/>
       <c r="EA20" s="6">
         <v>16</v>
       </c>
-      <c r="EB20" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="EB20" s="4"/>
       <c r="EC20" s="6">
         <v>16</v>
       </c>
@@ -11532,7 +11657,9 @@
       <c r="EE20" s="6">
         <v>16</v>
       </c>
-      <c r="EF20" s="2"/>
+      <c r="EF20" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="EG20" s="6">
         <v>16</v>
       </c>
@@ -11544,21 +11671,25 @@
       <c r="EK20" s="6">
         <v>16</v>
       </c>
-      <c r="EL20" s="4"/>
+      <c r="EL20" s="2"/>
       <c r="EM20" s="6">
         <v>16</v>
       </c>
-      <c r="EN20" s="2"/>
+      <c r="EN20" s="4"/>
       <c r="EO20" s="6">
         <v>16</v>
       </c>
-      <c r="EP20" s="4"/>
+      <c r="EP20" s="2"/>
       <c r="EQ20" s="6">
         <v>16</v>
       </c>
       <c r="ER20" s="4"/>
+      <c r="ES20" s="6">
+        <v>16</v>
+      </c>
+      <c r="ET20" s="4"/>
     </row>
-    <row r="21" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -11598,7 +11729,7 @@
       <c r="S21" s="6">
         <v>17</v>
       </c>
-      <c r="T21" s="2"/>
+      <c r="T21" s="4"/>
       <c r="U21" s="6">
         <v>17</v>
       </c>
@@ -11658,7 +11789,7 @@
       <c r="AW21" s="6">
         <v>17</v>
       </c>
-      <c r="AX21" s="4"/>
+      <c r="AX21" s="2"/>
       <c r="AY21" s="6">
         <v>17</v>
       </c>
@@ -11670,11 +11801,11 @@
       <c r="BC21" s="6">
         <v>17</v>
       </c>
-      <c r="BD21" s="2"/>
+      <c r="BD21" s="4"/>
       <c r="BE21" s="6">
         <v>17</v>
       </c>
-      <c r="BF21" s="4"/>
+      <c r="BF21" s="2"/>
       <c r="BG21" s="6">
         <v>17</v>
       </c>
@@ -11682,7 +11813,7 @@
       <c r="BI21" s="6">
         <v>17</v>
       </c>
-      <c r="BJ21" s="2"/>
+      <c r="BJ21" s="4"/>
       <c r="BK21" s="6">
         <v>17</v>
       </c>
@@ -11690,25 +11821,25 @@
       <c r="BM21" s="6">
         <v>17</v>
       </c>
-      <c r="BN21" s="4"/>
+      <c r="BN21" s="2"/>
       <c r="BO21" s="6">
         <v>17</v>
       </c>
-      <c r="BP21" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="BP21" s="4"/>
       <c r="BQ21" s="6">
         <v>17</v>
       </c>
-      <c r="BR21" s="4"/>
+      <c r="BR21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="BS21" s="6">
         <v>17</v>
       </c>
-      <c r="BT21" s="2"/>
+      <c r="BT21" s="4"/>
       <c r="BU21" s="6">
         <v>17</v>
       </c>
-      <c r="BV21" s="4"/>
+      <c r="BV21" s="2"/>
       <c r="BW21" s="6">
         <v>17</v>
       </c>
@@ -11716,7 +11847,7 @@
       <c r="BY21" s="6">
         <v>17</v>
       </c>
-      <c r="BZ21" s="2"/>
+      <c r="BZ21" s="4"/>
       <c r="CA21" s="6">
         <v>17</v>
       </c>
@@ -11724,11 +11855,11 @@
       <c r="CC21" s="6">
         <v>17</v>
       </c>
-      <c r="CD21" s="4"/>
+      <c r="CD21" s="2"/>
       <c r="CE21" s="6">
         <v>17</v>
       </c>
-      <c r="CF21" s="2"/>
+      <c r="CF21" s="4"/>
       <c r="CG21" s="6">
         <v>17</v>
       </c>
@@ -11748,7 +11879,7 @@
       <c r="CO21" s="6">
         <v>17</v>
       </c>
-      <c r="CP21" s="4"/>
+      <c r="CP21" s="2"/>
       <c r="CQ21" s="6">
         <v>17</v>
       </c>
@@ -11808,27 +11939,25 @@
       <c r="DS21" s="6">
         <v>17</v>
       </c>
-      <c r="DT21" s="2"/>
+      <c r="DT21" s="4"/>
       <c r="DU21" s="6">
         <v>17</v>
       </c>
-      <c r="DV21" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="DV21" s="2"/>
       <c r="DW21" s="6">
         <v>17</v>
       </c>
-      <c r="DX21" s="2"/>
+      <c r="DX21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="DY21" s="6">
         <v>17</v>
       </c>
-      <c r="DZ21" s="4"/>
+      <c r="DZ21" s="2"/>
       <c r="EA21" s="6">
         <v>17</v>
       </c>
-      <c r="EB21" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="EB21" s="4"/>
       <c r="EC21" s="6">
         <v>17</v>
       </c>
@@ -11838,7 +11967,9 @@
       <c r="EE21" s="6">
         <v>17</v>
       </c>
-      <c r="EF21" s="2"/>
+      <c r="EF21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="EG21" s="6">
         <v>17</v>
       </c>
@@ -11850,21 +11981,25 @@
       <c r="EK21" s="6">
         <v>17</v>
       </c>
-      <c r="EL21" s="4"/>
+      <c r="EL21" s="2"/>
       <c r="EM21" s="6">
         <v>17</v>
       </c>
-      <c r="EN21" s="2"/>
+      <c r="EN21" s="4"/>
       <c r="EO21" s="6">
         <v>17</v>
       </c>
-      <c r="EP21" s="4"/>
+      <c r="EP21" s="2"/>
       <c r="EQ21" s="6">
         <v>17</v>
       </c>
       <c r="ER21" s="4"/>
+      <c r="ES21" s="6">
+        <v>17</v>
+      </c>
+      <c r="ET21" s="4"/>
     </row>
-    <row r="22" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -11904,7 +12039,7 @@
       <c r="S22" s="6">
         <v>18</v>
       </c>
-      <c r="T22" s="2"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="6">
         <v>18</v>
       </c>
@@ -11964,7 +12099,7 @@
       <c r="AW22" s="6">
         <v>18</v>
       </c>
-      <c r="AX22" s="4"/>
+      <c r="AX22" s="2"/>
       <c r="AY22" s="6">
         <v>18</v>
       </c>
@@ -11976,11 +12111,11 @@
       <c r="BC22" s="6">
         <v>18</v>
       </c>
-      <c r="BD22" s="2"/>
+      <c r="BD22" s="4"/>
       <c r="BE22" s="6">
         <v>18</v>
       </c>
-      <c r="BF22" s="4"/>
+      <c r="BF22" s="2"/>
       <c r="BG22" s="6">
         <v>18</v>
       </c>
@@ -11988,7 +12123,7 @@
       <c r="BI22" s="6">
         <v>18</v>
       </c>
-      <c r="BJ22" s="2"/>
+      <c r="BJ22" s="4"/>
       <c r="BK22" s="6">
         <v>18</v>
       </c>
@@ -11996,25 +12131,25 @@
       <c r="BM22" s="6">
         <v>18</v>
       </c>
-      <c r="BN22" s="4"/>
+      <c r="BN22" s="2"/>
       <c r="BO22" s="6">
         <v>18</v>
       </c>
-      <c r="BP22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BP22" s="4"/>
       <c r="BQ22" s="6">
         <v>18</v>
       </c>
-      <c r="BR22" s="4"/>
+      <c r="BR22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BS22" s="6">
         <v>18</v>
       </c>
-      <c r="BT22" s="2"/>
+      <c r="BT22" s="4"/>
       <c r="BU22" s="6">
         <v>18</v>
       </c>
-      <c r="BV22" s="4"/>
+      <c r="BV22" s="2"/>
       <c r="BW22" s="6">
         <v>18</v>
       </c>
@@ -12022,7 +12157,7 @@
       <c r="BY22" s="6">
         <v>18</v>
       </c>
-      <c r="BZ22" s="2"/>
+      <c r="BZ22" s="4"/>
       <c r="CA22" s="6">
         <v>18</v>
       </c>
@@ -12030,11 +12165,11 @@
       <c r="CC22" s="6">
         <v>18</v>
       </c>
-      <c r="CD22" s="4"/>
+      <c r="CD22" s="2"/>
       <c r="CE22" s="6">
         <v>18</v>
       </c>
-      <c r="CF22" s="2"/>
+      <c r="CF22" s="4"/>
       <c r="CG22" s="6">
         <v>18</v>
       </c>
@@ -12054,7 +12189,7 @@
       <c r="CO22" s="6">
         <v>18</v>
       </c>
-      <c r="CP22" s="4"/>
+      <c r="CP22" s="2"/>
       <c r="CQ22" s="6">
         <v>18</v>
       </c>
@@ -12114,27 +12249,25 @@
       <c r="DS22" s="6">
         <v>18</v>
       </c>
-      <c r="DT22" s="2"/>
+      <c r="DT22" s="4"/>
       <c r="DU22" s="6">
         <v>18</v>
       </c>
-      <c r="DV22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="DV22" s="2"/>
       <c r="DW22" s="6">
         <v>18</v>
       </c>
-      <c r="DX22" s="2"/>
+      <c r="DX22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="DY22" s="6">
         <v>18</v>
       </c>
-      <c r="DZ22" s="4"/>
+      <c r="DZ22" s="2"/>
       <c r="EA22" s="6">
         <v>18</v>
       </c>
-      <c r="EB22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="EB22" s="4"/>
       <c r="EC22" s="6">
         <v>18</v>
       </c>
@@ -12144,7 +12277,9 @@
       <c r="EE22" s="6">
         <v>18</v>
       </c>
-      <c r="EF22" s="2"/>
+      <c r="EF22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="EG22" s="6">
         <v>18</v>
       </c>
@@ -12156,21 +12291,25 @@
       <c r="EK22" s="6">
         <v>18</v>
       </c>
-      <c r="EL22" s="4"/>
+      <c r="EL22" s="2"/>
       <c r="EM22" s="6">
         <v>18</v>
       </c>
-      <c r="EN22" s="2"/>
+      <c r="EN22" s="4"/>
       <c r="EO22" s="6">
         <v>18</v>
       </c>
-      <c r="EP22" s="4"/>
+      <c r="EP22" s="2"/>
       <c r="EQ22" s="6">
         <v>18</v>
       </c>
       <c r="ER22" s="4"/>
+      <c r="ES22" s="6">
+        <v>18</v>
+      </c>
+      <c r="ET22" s="4"/>
     </row>
-    <row r="23" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -12210,7 +12349,7 @@
       <c r="S23" s="6">
         <v>19</v>
       </c>
-      <c r="T23" s="2"/>
+      <c r="T23" s="4"/>
       <c r="U23" s="6">
         <v>19</v>
       </c>
@@ -12270,7 +12409,7 @@
       <c r="AW23" s="6">
         <v>19</v>
       </c>
-      <c r="AX23" s="4"/>
+      <c r="AX23" s="2"/>
       <c r="AY23" s="6">
         <v>19</v>
       </c>
@@ -12282,11 +12421,11 @@
       <c r="BC23" s="6">
         <v>19</v>
       </c>
-      <c r="BD23" s="2"/>
+      <c r="BD23" s="4"/>
       <c r="BE23" s="6">
         <v>19</v>
       </c>
-      <c r="BF23" s="4"/>
+      <c r="BF23" s="2"/>
       <c r="BG23" s="6">
         <v>19</v>
       </c>
@@ -12294,7 +12433,7 @@
       <c r="BI23" s="6">
         <v>19</v>
       </c>
-      <c r="BJ23" s="2"/>
+      <c r="BJ23" s="4"/>
       <c r="BK23" s="6">
         <v>19</v>
       </c>
@@ -12302,25 +12441,25 @@
       <c r="BM23" s="6">
         <v>19</v>
       </c>
-      <c r="BN23" s="4"/>
+      <c r="BN23" s="2"/>
       <c r="BO23" s="6">
         <v>19</v>
       </c>
-      <c r="BP23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="BP23" s="4"/>
       <c r="BQ23" s="6">
         <v>19</v>
       </c>
-      <c r="BR23" s="4"/>
+      <c r="BR23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="BS23" s="6">
         <v>19</v>
       </c>
-      <c r="BT23" s="2"/>
+      <c r="BT23" s="4"/>
       <c r="BU23" s="6">
         <v>19</v>
       </c>
-      <c r="BV23" s="4"/>
+      <c r="BV23" s="2"/>
       <c r="BW23" s="6">
         <v>19</v>
       </c>
@@ -12328,7 +12467,7 @@
       <c r="BY23" s="6">
         <v>19</v>
       </c>
-      <c r="BZ23" s="2"/>
+      <c r="BZ23" s="4"/>
       <c r="CA23" s="6">
         <v>19</v>
       </c>
@@ -12336,11 +12475,11 @@
       <c r="CC23" s="6">
         <v>19</v>
       </c>
-      <c r="CD23" s="4"/>
+      <c r="CD23" s="2"/>
       <c r="CE23" s="6">
         <v>19</v>
       </c>
-      <c r="CF23" s="2"/>
+      <c r="CF23" s="4"/>
       <c r="CG23" s="6">
         <v>19</v>
       </c>
@@ -12360,7 +12499,7 @@
       <c r="CO23" s="6">
         <v>19</v>
       </c>
-      <c r="CP23" s="4"/>
+      <c r="CP23" s="2"/>
       <c r="CQ23" s="6">
         <v>19</v>
       </c>
@@ -12420,27 +12559,25 @@
       <c r="DS23" s="6">
         <v>19</v>
       </c>
-      <c r="DT23" s="2"/>
+      <c r="DT23" s="4"/>
       <c r="DU23" s="6">
         <v>19</v>
       </c>
-      <c r="DV23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="DV23" s="2"/>
       <c r="DW23" s="6">
         <v>19</v>
       </c>
-      <c r="DX23" s="2"/>
+      <c r="DX23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="DY23" s="6">
         <v>19</v>
       </c>
-      <c r="DZ23" s="4"/>
+      <c r="DZ23" s="2"/>
       <c r="EA23" s="6">
         <v>19</v>
       </c>
-      <c r="EB23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="EB23" s="4"/>
       <c r="EC23" s="6">
         <v>19</v>
       </c>
@@ -12450,7 +12587,9 @@
       <c r="EE23" s="6">
         <v>19</v>
       </c>
-      <c r="EF23" s="2"/>
+      <c r="EF23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="EG23" s="6">
         <v>19</v>
       </c>
@@ -12462,21 +12601,25 @@
       <c r="EK23" s="6">
         <v>19</v>
       </c>
-      <c r="EL23" s="4"/>
+      <c r="EL23" s="2"/>
       <c r="EM23" s="6">
         <v>19</v>
       </c>
-      <c r="EN23" s="2"/>
+      <c r="EN23" s="4"/>
       <c r="EO23" s="6">
         <v>19</v>
       </c>
-      <c r="EP23" s="4"/>
+      <c r="EP23" s="2"/>
       <c r="EQ23" s="6">
         <v>19</v>
       </c>
       <c r="ER23" s="4"/>
+      <c r="ES23" s="6">
+        <v>19</v>
+      </c>
+      <c r="ET23" s="4"/>
     </row>
-    <row r="24" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -12516,7 +12659,7 @@
       <c r="S24" s="6">
         <v>20</v>
       </c>
-      <c r="T24" s="2"/>
+      <c r="T24" s="4"/>
       <c r="U24" s="6">
         <v>20</v>
       </c>
@@ -12576,7 +12719,7 @@
       <c r="AW24" s="6">
         <v>20</v>
       </c>
-      <c r="AX24" s="4"/>
+      <c r="AX24" s="2"/>
       <c r="AY24" s="6">
         <v>20</v>
       </c>
@@ -12588,11 +12731,11 @@
       <c r="BC24" s="6">
         <v>20</v>
       </c>
-      <c r="BD24" s="2"/>
+      <c r="BD24" s="4"/>
       <c r="BE24" s="6">
         <v>20</v>
       </c>
-      <c r="BF24" s="4"/>
+      <c r="BF24" s="2"/>
       <c r="BG24" s="6">
         <v>20</v>
       </c>
@@ -12600,7 +12743,7 @@
       <c r="BI24" s="6">
         <v>20</v>
       </c>
-      <c r="BJ24" s="2"/>
+      <c r="BJ24" s="4"/>
       <c r="BK24" s="6">
         <v>20</v>
       </c>
@@ -12608,25 +12751,25 @@
       <c r="BM24" s="6">
         <v>20</v>
       </c>
-      <c r="BN24" s="4"/>
+      <c r="BN24" s="2"/>
       <c r="BO24" s="6">
         <v>20</v>
       </c>
-      <c r="BP24" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="BP24" s="4"/>
       <c r="BQ24" s="6">
         <v>20</v>
       </c>
-      <c r="BR24" s="4"/>
+      <c r="BR24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="BS24" s="6">
         <v>20</v>
       </c>
-      <c r="BT24" s="2"/>
+      <c r="BT24" s="4"/>
       <c r="BU24" s="6">
         <v>20</v>
       </c>
-      <c r="BV24" s="4"/>
+      <c r="BV24" s="2"/>
       <c r="BW24" s="6">
         <v>20</v>
       </c>
@@ -12634,7 +12777,7 @@
       <c r="BY24" s="6">
         <v>20</v>
       </c>
-      <c r="BZ24" s="2"/>
+      <c r="BZ24" s="4"/>
       <c r="CA24" s="6">
         <v>20</v>
       </c>
@@ -12642,11 +12785,11 @@
       <c r="CC24" s="6">
         <v>20</v>
       </c>
-      <c r="CD24" s="4"/>
+      <c r="CD24" s="2"/>
       <c r="CE24" s="6">
         <v>20</v>
       </c>
-      <c r="CF24" s="2"/>
+      <c r="CF24" s="4"/>
       <c r="CG24" s="6">
         <v>20</v>
       </c>
@@ -12666,7 +12809,7 @@
       <c r="CO24" s="6">
         <v>20</v>
       </c>
-      <c r="CP24" s="4"/>
+      <c r="CP24" s="2"/>
       <c r="CQ24" s="6">
         <v>20</v>
       </c>
@@ -12726,27 +12869,25 @@
       <c r="DS24" s="6">
         <v>20</v>
       </c>
-      <c r="DT24" s="2"/>
+      <c r="DT24" s="4"/>
       <c r="DU24" s="6">
         <v>20</v>
       </c>
-      <c r="DV24" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="DV24" s="2"/>
       <c r="DW24" s="6">
         <v>20</v>
       </c>
-      <c r="DX24" s="2"/>
+      <c r="DX24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="DY24" s="6">
         <v>20</v>
       </c>
-      <c r="DZ24" s="4"/>
+      <c r="DZ24" s="2"/>
       <c r="EA24" s="6">
         <v>20</v>
       </c>
-      <c r="EB24" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="EB24" s="4"/>
       <c r="EC24" s="6">
         <v>20</v>
       </c>
@@ -12756,7 +12897,9 @@
       <c r="EE24" s="6">
         <v>20</v>
       </c>
-      <c r="EF24" s="2"/>
+      <c r="EF24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="EG24" s="6">
         <v>20</v>
       </c>
@@ -12768,21 +12911,25 @@
       <c r="EK24" s="6">
         <v>20</v>
       </c>
-      <c r="EL24" s="4"/>
+      <c r="EL24" s="2"/>
       <c r="EM24" s="6">
         <v>20</v>
       </c>
-      <c r="EN24" s="2"/>
+      <c r="EN24" s="4"/>
       <c r="EO24" s="6">
         <v>20</v>
       </c>
-      <c r="EP24" s="4"/>
+      <c r="EP24" s="2"/>
       <c r="EQ24" s="6">
         <v>20</v>
       </c>
       <c r="ER24" s="4"/>
+      <c r="ES24" s="6">
+        <v>20</v>
+      </c>
+      <c r="ET24" s="4"/>
     </row>
-    <row r="25" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -12822,7 +12969,7 @@
       <c r="S25" s="6">
         <v>21</v>
       </c>
-      <c r="T25" s="2"/>
+      <c r="T25" s="4"/>
       <c r="U25" s="6">
         <v>21</v>
       </c>
@@ -12882,7 +13029,7 @@
       <c r="AW25" s="6">
         <v>21</v>
       </c>
-      <c r="AX25" s="4"/>
+      <c r="AX25" s="2"/>
       <c r="AY25" s="6">
         <v>21</v>
       </c>
@@ -12894,11 +13041,11 @@
       <c r="BC25" s="6">
         <v>21</v>
       </c>
-      <c r="BD25" s="2"/>
+      <c r="BD25" s="4"/>
       <c r="BE25" s="6">
         <v>21</v>
       </c>
-      <c r="BF25" s="4"/>
+      <c r="BF25" s="2"/>
       <c r="BG25" s="6">
         <v>21</v>
       </c>
@@ -12906,7 +13053,7 @@
       <c r="BI25" s="6">
         <v>21</v>
       </c>
-      <c r="BJ25" s="2"/>
+      <c r="BJ25" s="4"/>
       <c r="BK25" s="6">
         <v>21</v>
       </c>
@@ -12914,25 +13061,25 @@
       <c r="BM25" s="6">
         <v>21</v>
       </c>
-      <c r="BN25" s="4"/>
+      <c r="BN25" s="2"/>
       <c r="BO25" s="6">
         <v>21</v>
       </c>
-      <c r="BP25" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="BP25" s="4"/>
       <c r="BQ25" s="6">
         <v>21</v>
       </c>
-      <c r="BR25" s="4"/>
+      <c r="BR25" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="BS25" s="6">
         <v>21</v>
       </c>
-      <c r="BT25" s="2"/>
+      <c r="BT25" s="4"/>
       <c r="BU25" s="6">
         <v>21</v>
       </c>
-      <c r="BV25" s="4"/>
+      <c r="BV25" s="2"/>
       <c r="BW25" s="6">
         <v>21</v>
       </c>
@@ -12940,7 +13087,7 @@
       <c r="BY25" s="6">
         <v>21</v>
       </c>
-      <c r="BZ25" s="2"/>
+      <c r="BZ25" s="4"/>
       <c r="CA25" s="6">
         <v>21</v>
       </c>
@@ -12948,11 +13095,11 @@
       <c r="CC25" s="6">
         <v>21</v>
       </c>
-      <c r="CD25" s="4"/>
+      <c r="CD25" s="2"/>
       <c r="CE25" s="6">
         <v>21</v>
       </c>
-      <c r="CF25" s="2"/>
+      <c r="CF25" s="4"/>
       <c r="CG25" s="6">
         <v>21</v>
       </c>
@@ -12972,7 +13119,7 @@
       <c r="CO25" s="6">
         <v>21</v>
       </c>
-      <c r="CP25" s="4"/>
+      <c r="CP25" s="2"/>
       <c r="CQ25" s="6">
         <v>21</v>
       </c>
@@ -13032,27 +13179,25 @@
       <c r="DS25" s="6">
         <v>21</v>
       </c>
-      <c r="DT25" s="2"/>
+      <c r="DT25" s="4"/>
       <c r="DU25" s="6">
         <v>21</v>
       </c>
-      <c r="DV25" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="DV25" s="2"/>
       <c r="DW25" s="6">
         <v>21</v>
       </c>
-      <c r="DX25" s="2"/>
+      <c r="DX25" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="DY25" s="6">
         <v>21</v>
       </c>
-      <c r="DZ25" s="4"/>
+      <c r="DZ25" s="2"/>
       <c r="EA25" s="6">
         <v>21</v>
       </c>
-      <c r="EB25" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="EB25" s="4"/>
       <c r="EC25" s="6">
         <v>21</v>
       </c>
@@ -13062,7 +13207,9 @@
       <c r="EE25" s="6">
         <v>21</v>
       </c>
-      <c r="EF25" s="2"/>
+      <c r="EF25" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="EG25" s="6">
         <v>21</v>
       </c>
@@ -13074,21 +13221,25 @@
       <c r="EK25" s="6">
         <v>21</v>
       </c>
-      <c r="EL25" s="4"/>
+      <c r="EL25" s="2"/>
       <c r="EM25" s="6">
         <v>21</v>
       </c>
-      <c r="EN25" s="2"/>
+      <c r="EN25" s="4"/>
       <c r="EO25" s="6">
         <v>21</v>
       </c>
-      <c r="EP25" s="4"/>
+      <c r="EP25" s="2"/>
       <c r="EQ25" s="6">
         <v>21</v>
       </c>
       <c r="ER25" s="4"/>
+      <c r="ES25" s="6">
+        <v>21</v>
+      </c>
+      <c r="ET25" s="4"/>
     </row>
-    <row r="26" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -13128,7 +13279,7 @@
       <c r="S26" s="6">
         <v>22</v>
       </c>
-      <c r="T26" s="2"/>
+      <c r="T26" s="4"/>
       <c r="U26" s="6">
         <v>22</v>
       </c>
@@ -13188,7 +13339,7 @@
       <c r="AW26" s="6">
         <v>22</v>
       </c>
-      <c r="AX26" s="4"/>
+      <c r="AX26" s="2"/>
       <c r="AY26" s="6">
         <v>22</v>
       </c>
@@ -13200,11 +13351,11 @@
       <c r="BC26" s="6">
         <v>22</v>
       </c>
-      <c r="BD26" s="2"/>
+      <c r="BD26" s="4"/>
       <c r="BE26" s="6">
         <v>22</v>
       </c>
-      <c r="BF26" s="4"/>
+      <c r="BF26" s="2"/>
       <c r="BG26" s="6">
         <v>22</v>
       </c>
@@ -13212,7 +13363,7 @@
       <c r="BI26" s="6">
         <v>22</v>
       </c>
-      <c r="BJ26" s="2"/>
+      <c r="BJ26" s="4"/>
       <c r="BK26" s="6">
         <v>22</v>
       </c>
@@ -13220,25 +13371,25 @@
       <c r="BM26" s="6">
         <v>22</v>
       </c>
-      <c r="BN26" s="4"/>
+      <c r="BN26" s="2"/>
       <c r="BO26" s="6">
         <v>22</v>
       </c>
-      <c r="BP26" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="BP26" s="4"/>
       <c r="BQ26" s="6">
         <v>22</v>
       </c>
-      <c r="BR26" s="4"/>
+      <c r="BR26" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="BS26" s="6">
         <v>22</v>
       </c>
-      <c r="BT26" s="2"/>
+      <c r="BT26" s="4"/>
       <c r="BU26" s="6">
         <v>22</v>
       </c>
-      <c r="BV26" s="4"/>
+      <c r="BV26" s="2"/>
       <c r="BW26" s="6">
         <v>22</v>
       </c>
@@ -13246,7 +13397,7 @@
       <c r="BY26" s="6">
         <v>22</v>
       </c>
-      <c r="BZ26" s="2"/>
+      <c r="BZ26" s="4"/>
       <c r="CA26" s="6">
         <v>22</v>
       </c>
@@ -13254,11 +13405,11 @@
       <c r="CC26" s="6">
         <v>22</v>
       </c>
-      <c r="CD26" s="4"/>
+      <c r="CD26" s="2"/>
       <c r="CE26" s="6">
         <v>22</v>
       </c>
-      <c r="CF26" s="2"/>
+      <c r="CF26" s="4"/>
       <c r="CG26" s="6">
         <v>22</v>
       </c>
@@ -13278,7 +13429,7 @@
       <c r="CO26" s="6">
         <v>22</v>
       </c>
-      <c r="CP26" s="4"/>
+      <c r="CP26" s="2"/>
       <c r="CQ26" s="6">
         <v>22</v>
       </c>
@@ -13338,31 +13489,31 @@
       <c r="DS26" s="6">
         <v>22</v>
       </c>
-      <c r="DT26" s="2"/>
+      <c r="DT26" s="4"/>
       <c r="DU26" s="6">
         <v>22</v>
       </c>
-      <c r="DV26" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="DV26" s="2"/>
       <c r="DW26" s="6">
         <v>22</v>
       </c>
-      <c r="DX26" s="2"/>
+      <c r="DX26" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="DY26" s="6">
         <v>22</v>
       </c>
-      <c r="DZ26" s="4"/>
+      <c r="DZ26" s="2"/>
       <c r="EA26" s="6">
         <v>22</v>
       </c>
-      <c r="EB26" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="EB26" s="4"/>
       <c r="EC26" s="6">
         <v>22</v>
       </c>
-      <c r="ED26" s="2"/>
+      <c r="ED26" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="EE26" s="6">
         <v>22</v>
       </c>
@@ -13378,21 +13529,25 @@
       <c r="EK26" s="6">
         <v>22</v>
       </c>
-      <c r="EL26" s="4"/>
+      <c r="EL26" s="2"/>
       <c r="EM26" s="6">
         <v>22</v>
       </c>
-      <c r="EN26" s="2"/>
+      <c r="EN26" s="4"/>
       <c r="EO26" s="6">
         <v>22</v>
       </c>
-      <c r="EP26" s="4"/>
+      <c r="EP26" s="2"/>
       <c r="EQ26" s="6">
         <v>22</v>
       </c>
       <c r="ER26" s="4"/>
+      <c r="ES26" s="6">
+        <v>22</v>
+      </c>
+      <c r="ET26" s="4"/>
     </row>
-    <row r="27" spans="1:148" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:150" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -13432,7 +13587,7 @@
       <c r="S27" s="6">
         <v>23</v>
       </c>
-      <c r="T27" s="2"/>
+      <c r="T27" s="4"/>
       <c r="U27" s="6">
         <v>23</v>
       </c>
@@ -13492,7 +13647,7 @@
       <c r="AW27" s="6">
         <v>23</v>
       </c>
-      <c r="AX27" s="4"/>
+      <c r="AX27" s="2"/>
       <c r="AY27" s="6">
         <v>23</v>
       </c>
@@ -13504,11 +13659,11 @@
       <c r="BC27" s="6">
         <v>23</v>
       </c>
-      <c r="BD27" s="2"/>
+      <c r="BD27" s="4"/>
       <c r="BE27" s="6">
         <v>23</v>
       </c>
-      <c r="BF27" s="4"/>
+      <c r="BF27" s="2"/>
       <c r="BG27" s="6">
         <v>23</v>
       </c>
@@ -13516,7 +13671,7 @@
       <c r="BI27" s="6">
         <v>23</v>
       </c>
-      <c r="BJ27" s="2"/>
+      <c r="BJ27" s="4"/>
       <c r="BK27" s="6">
         <v>23</v>
       </c>
@@ -13524,25 +13679,25 @@
       <c r="BM27" s="6">
         <v>23</v>
       </c>
-      <c r="BN27" s="4"/>
+      <c r="BN27" s="2"/>
       <c r="BO27" s="6">
         <v>23</v>
       </c>
-      <c r="BP27" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="BP27" s="4"/>
       <c r="BQ27" s="6">
         <v>23</v>
       </c>
-      <c r="BR27" s="4"/>
+      <c r="BR27" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="BS27" s="6">
         <v>23</v>
       </c>
-      <c r="BT27" s="2"/>
+      <c r="BT27" s="4"/>
       <c r="BU27" s="6">
         <v>23</v>
       </c>
-      <c r="BV27" s="4"/>
+      <c r="BV27" s="2"/>
       <c r="BW27" s="6">
         <v>23</v>
       </c>
@@ -13550,7 +13705,7 @@
       <c r="BY27" s="6">
         <v>23</v>
       </c>
-      <c r="BZ27" s="2"/>
+      <c r="BZ27" s="4"/>
       <c r="CA27" s="6">
         <v>23</v>
       </c>
@@ -13558,11 +13713,11 @@
       <c r="CC27" s="6">
         <v>23</v>
       </c>
-      <c r="CD27" s="4"/>
+      <c r="CD27" s="2"/>
       <c r="CE27" s="6">
         <v>23</v>
       </c>
-      <c r="CF27" s="2"/>
+      <c r="CF27" s="4"/>
       <c r="CG27" s="6">
         <v>23</v>
       </c>
@@ -13582,7 +13737,7 @@
       <c r="CO27" s="6">
         <v>23</v>
       </c>
-      <c r="CP27" s="4"/>
+      <c r="CP27" s="2"/>
       <c r="CQ27" s="6">
         <v>23</v>
       </c>
@@ -13642,25 +13797,25 @@
       <c r="DS27" s="6">
         <v>23</v>
       </c>
-      <c r="DT27" s="2"/>
+      <c r="DT27" s="4"/>
       <c r="DU27" s="6">
         <v>23</v>
       </c>
-      <c r="DV27" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="DV27" s="2"/>
       <c r="DW27" s="6">
         <v>23</v>
       </c>
-      <c r="DX27" s="2"/>
+      <c r="DX27" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="DY27" s="6">
         <v>23</v>
       </c>
-      <c r="DZ27" s="4"/>
+      <c r="DZ27" s="2"/>
       <c r="EA27" s="6">
         <v>23</v>
       </c>
-      <c r="EB27" s="2"/>
+      <c r="EB27" s="4"/>
       <c r="EC27" s="6">
         <v>23</v>
       </c>
@@ -13680,19 +13835,23 @@
       <c r="EK27" s="6">
         <v>23</v>
       </c>
-      <c r="EL27" s="4"/>
+      <c r="EL27" s="2"/>
       <c r="EM27" s="6">
         <v>23</v>
       </c>
-      <c r="EN27" s="2"/>
+      <c r="EN27" s="4"/>
       <c r="EO27" s="6">
         <v>23</v>
       </c>
-      <c r="EP27" s="4"/>
+      <c r="EP27" s="2"/>
       <c r="EQ27" s="6">
         <v>23</v>
       </c>
       <c r="ER27" s="4"/>
+      <c r="ES27" s="6">
+        <v>23</v>
+      </c>
+      <c r="ET27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src_dependency_tree.xlsx
+++ b/src_dependency_tree.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F717BDF1-311F-4D14-9077-D1AA21A12174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422E24FD-D2F8-4859-BCB1-F1B7E026EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="14325" windowWidth="29040" windowHeight="18240" xr2:uid="{0D147937-47FE-476D-B021-75096AF6095F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22188" windowHeight="13176" xr2:uid="{0D147937-47FE-476D-B021-75096AF6095F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation Order" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="205">
   <si>
     <t>constants.f90</t>
   </si>
@@ -593,10 +593,6 @@
     <t>Routine that tests if two variables occupy the same ram-memory location.</t>
   </si>
   <si>
-    <t>Open WRITE-only, STREAM, UNFORMATTED file that is meant to be overwritten frequently 
-(that is it cycles through one write, then rewinds to the start of the file, then writes a new record)</t>
-  </si>
-  <si>
     <t>Dep</t>
   </si>
   <si>
@@ -648,13 +644,39 @@
   <si>
     <t>Linked list that has the end of the list point to the start. 
 Similar concept to rolling pointer, but that uses an array of pointers</t>
+  </si>
+  <si>
+    <t>system_call.f90</t>
+  </si>
+  <si>
+    <t>Execute a command using the operating system shell and 
+return the output from the command.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open WRITE-only, STREAM, UNFORMATTED file that is meant to be overwritten frequently 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(that is it cycles through one write, then rewinds to the start of the file, then writes a new record)</t>
+    </r>
+  </si>
+  <si>
+    <t>Execute a command using the operating system shell and return the output from the command.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +704,13 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -784,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -797,9 +826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -818,42 +844,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,7 +1207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235DC57-8223-4ADA-A635-C1797A680775}">
-  <dimension ref="A1:AB83"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -1178,30 +1216,30 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="1"/>
-    <col min="5" max="5" width="1.54296875" style="11" customWidth="1"/>
-    <col min="6" max="28" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80" style="26" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="1.5546875" style="10" customWidth="1"/>
+    <col min="6" max="28" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1272,20 +1310,20 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="21">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1310,163 +1348,163 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
     </row>
-    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>8</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
     </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1491,1160 +1529,1160 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
     </row>
-    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
     </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>2</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
     </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>3</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
     </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>2</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
     </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>7</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
     </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>11</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="15" t="s">
+      <c r="K13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="R13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="V13" s="15" t="s">
+      <c r="V13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="X13" s="15" t="s">
+      <c r="X13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y13" s="15" t="s">
+      <c r="Y13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="15" t="s">
+      <c r="Z13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AB13" s="15" t="s">
+      <c r="AB13" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>11</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="15" t="s">
+      <c r="K14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S14" s="15" t="s">
+      <c r="S14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="V14" s="15" t="s">
+      <c r="V14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W14" s="15" t="s">
+      <c r="W14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="X14" s="15" t="s">
+      <c r="X14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y14" s="15" t="s">
+      <c r="Y14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z14" s="15" t="s">
+      <c r="Z14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AB14" s="15" t="s">
+      <c r="AB14" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>10</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15" t="s">
+      <c r="K15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="R15" s="15" t="s">
+      <c r="R15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S15" s="15" t="s">
+      <c r="S15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="V15" s="15" t="s">
+      <c r="V15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="X15" s="15" t="s">
+      <c r="X15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y15" s="15" t="s">
+      <c r="Y15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z15" s="15" t="s">
+      <c r="Z15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AA15" s="15" t="s">
+      <c r="AA15" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AB15" s="15"/>
+      <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>9</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="15" t="s">
+      <c r="K16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="15" t="s">
+      <c r="S16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="U16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="V16" s="15" t="s">
+      <c r="V16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="X16" s="15" t="s">
+      <c r="X16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y16" s="15" t="s">
+      <c r="Y16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z16" s="15" t="s">
+      <c r="Z16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
     </row>
-    <row r="17" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="15">
         <v>6</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
     </row>
-    <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>4</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
     </row>
-    <row r="19" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>4</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
     </row>
-    <row r="20" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>6</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
     </row>
-    <row r="21" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>3</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
     </row>
-    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>6</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>2</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>2</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="17">
-        <v>1</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <v>3</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="17">
-        <v>1</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
+      <c r="C27" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10"/>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2669,94 +2707,94 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
+      <c r="C30" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="17">
-        <v>1</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10"/>
+      <c r="C32" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2781,20 +2819,20 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="17">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10"/>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2819,20 +2857,20 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="17">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10"/>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2857,465 +2895,465 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="15">
         <v>2</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="17">
-        <v>1</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="15">
         <v>2</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="15">
         <v>2</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="15">
         <v>2</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="15">
         <v>2</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="15">
         <v>2</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="15">
         <v>2</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="15">
         <v>4</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="15" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="15">
         <v>3</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="15" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="17">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10"/>
+      <c r="D46" s="15">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3340,20 +3378,20 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="17">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10"/>
+      <c r="D47" s="15">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -3378,108 +3416,108 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="15">
         <v>3</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="15" t="s">
+      <c r="E48" s="9"/>
+      <c r="F48" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="15">
         <v>2</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="15" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="17">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10"/>
+      <c r="D50" s="15">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3504,20 +3542,20 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="17">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10"/>
+      <c r="D51" s="15">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3542,72 +3580,72 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="15">
         <v>5</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="15" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="J52" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K52" s="15" t="s">
+      <c r="K52" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L52" s="15" t="s">
+      <c r="L52" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="15"/>
-      <c r="AB52" s="15"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="17">
-        <v>1</v>
-      </c>
-      <c r="E53" s="10"/>
+      <c r="D53" s="15">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -3632,20 +3670,20 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="17">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10"/>
+      <c r="D54" s="15">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3670,62 +3708,62 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="15">
         <v>2</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="15" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="17">
-        <v>1</v>
-      </c>
-      <c r="E56" s="10"/>
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="15">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -3750,20 +3788,20 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="17">
-        <v>1</v>
-      </c>
-      <c r="E57" s="10"/>
+      <c r="B57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="15">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3788,138 +3826,138 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="15">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+    </row>
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="17">
+      <c r="D59" s="15">
         <v>0</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="15"/>
-      <c r="AA58" s="15"/>
-      <c r="AB58" s="15"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C60" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="15">
         <v>2</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="15" t="s">
+      <c r="E60" s="9"/>
+      <c r="F60" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G60" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="17" t="s">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="17">
-        <v>1</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-    </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="17">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10"/>
+      <c r="C61" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="15">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3944,415 +3982,415 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+    </row>
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C63" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="15">
         <v>8</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="15" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G63" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J62" s="15" t="s">
+      <c r="I63" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="15" t="s">
+      <c r="K63" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L62" s="15" t="s">
+      <c r="L63" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M62" s="15" t="s">
+      <c r="M63" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N62" s="15" t="s">
+      <c r="N63" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O62" s="15" t="s">
+      <c r="O63" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="P62" s="15" t="s">
+      <c r="P63" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Q62" s="15" t="s">
+      <c r="Q63" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="R62" s="15" t="s">
+      <c r="R63" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="16" t="s">
+      <c r="B64" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="17">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
+      <c r="D64" s="15">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B65" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C65" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D65" s="15">
         <v>8</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="15" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G65" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I64" s="15" t="s">
+      <c r="H65" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="15" t="s">
+      <c r="J65" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K64" s="15" t="s">
+      <c r="K65" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="15" t="s">
+      <c r="L65" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M64" s="15" t="s">
+      <c r="M65" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N64" s="15" t="s">
+      <c r="N65" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O64" s="15" t="s">
+      <c r="O65" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="P64" s="15" t="s">
+      <c r="P65" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="Q64" s="15" t="s">
+      <c r="Q65" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="R64" s="15" t="s">
+      <c r="R65" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="17" t="s">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B66" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="17">
-        <v>1</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B67" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="17">
-        <v>1</v>
-      </c>
-      <c r="F66" s="15" t="s">
+      <c r="C67" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="15">
+        <v>1</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
-      <c r="U66" s="15"/>
-      <c r="V66" s="15"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="17" t="s">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B68" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C68" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="17">
-        <v>1</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="15" t="s">
+      <c r="D68" s="15">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="17" t="s">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B69" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C69" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+    </row>
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="17">
-        <v>1</v>
-      </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="15"/>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="15"/>
+      <c r="D70" s="15">
+        <v>1</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="17">
-        <v>1</v>
-      </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="15"/>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="15"/>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="15"/>
-    </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B71" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="17">
-        <v>1</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-    </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="17">
-        <v>0</v>
-      </c>
-      <c r="E71" s="10"/>
+      <c r="D71" s="15">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -4377,20 +4415,20 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="17">
-        <v>1</v>
-      </c>
-      <c r="E72" s="10"/>
+      <c r="B72" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="15">
+        <v>0</v>
+      </c>
+      <c r="E72" s="9"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -4415,350 +4453,388 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="17" t="s">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+    </row>
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C74" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D74" s="15">
         <v>2</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="15" t="s">
+      <c r="E74" s="9"/>
+      <c r="F74" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G74" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B75" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C75" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D74" s="17">
-        <v>1</v>
-      </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="15"/>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
+      <c r="D75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B76" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C76" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="17">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
+      <c r="D76" s="15">
+        <v>1</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
     </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="17" t="s">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C77" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="15">
         <v>2</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="15" t="s">
+      <c r="E77" s="9"/>
+      <c r="F77" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G77" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="15"/>
-      <c r="X76" s="15"/>
-      <c r="Y76" s="15"/>
-      <c r="Z76" s="15"/>
-      <c r="AA76" s="15"/>
-      <c r="AB76" s="15"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="17"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15"/>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="15"/>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="15"/>
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="15"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="17"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="15"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="15"/>
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="15"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="17"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="15"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="15"/>
-      <c r="AA79" s="15"/>
-      <c r="AB79" s="15"/>
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="15"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="14"/>
+      <c r="Z80" s="14"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="14"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="17"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="15"/>
-      <c r="W80" s="15"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="15"/>
-      <c r="AA80" s="15"/>
-      <c r="AB80" s="15"/>
+    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="15"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="14"/>
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="14"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B82" s="8" t="s">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B83" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A83" s="7"/>
-      <c r="B83" s="5" t="s">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="7">
         <v>8</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="2" t="s">
+      <c r="E84" s="9"/>
+      <c r="F84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I83" s="2" t="s">
+      <c r="H84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="M84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="N84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="O84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P83" s="2" t="s">
+      <c r="P84" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q83" s="2" t="s">
+      <c r="Q84" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB76">
-    <sortCondition ref="A2:A76"/>
-    <sortCondition ref="B2:B76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB77">
+    <sortCondition ref="A2:A77"/>
+    <sortCondition ref="B2:B77"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4767,1671 +4843,1693 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E594B1-EC0E-4F70-863A-F6EBE967FA24}">
-  <dimension ref="A1:ET27"/>
+  <dimension ref="A1:EV27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="150" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="152" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:152" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12" t="s">
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="13"/>
-      <c r="X1" s="12" t="s">
+      <c r="W1" s="12"/>
+      <c r="X1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12" t="s">
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12" t="s">
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12" t="s">
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12" t="s">
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12" t="s">
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12" t="s">
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12" t="s">
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="13" t="s">
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13" t="s">
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="12" t="s">
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="13" t="s">
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="13" t="s">
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="12" t="s">
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12" t="s">
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12" t="s">
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12" t="s">
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12" t="s">
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12" t="s">
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12" t="s">
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12" t="s">
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="DJ1" s="12" t="s">
+      <c r="DJ1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="DL1" s="12" t="s">
+      <c r="DL1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="DN1" s="12" t="s">
+      <c r="DN1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="DP1" s="12" t="s">
+      <c r="DP1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="DQ1" s="12"/>
-      <c r="DR1" s="12" t="s">
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="DS1" s="12"/>
-      <c r="DT1" s="12" t="s">
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="12" t="s">
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="DW1" s="12"/>
-      <c r="DX1" s="13" t="s">
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13" t="s">
-        <v>119</v>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="EA1" s="12"/>
       <c r="EB1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13" t="s">
+      <c r="EE1" s="12"/>
+      <c r="EF1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13" t="s">
+      <c r="EG1" s="12"/>
+      <c r="EH1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="12" t="s">
+      <c r="EI1" s="12"/>
+      <c r="EJ1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="EK1" s="12"/>
+      <c r="EL1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="EM1" s="12"/>
+      <c r="EN1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="EM1" s="12"/>
-      <c r="EN1" s="12" t="s">
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="EO1" s="12"/>
-      <c r="EP1" s="12" t="s">
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="ES1" s="12"/>
-      <c r="ET1" s="12" t="s">
+      <c r="ES1" s="11"/>
+      <c r="ET1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="14">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="13">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>2</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="14">
-        <v>1</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="13">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="14">
-        <v>1</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="N2" s="13">
+        <v>1</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="14" t="s">
+      <c r="P2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="14">
-        <v>1</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="R2" s="13">
+        <v>1</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="13">
         <v>0</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="13">
         <v>6</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <v>2</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="14" t="s">
+      <c r="Z2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AB2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="13">
         <v>2</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AF2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="14">
+      <c r="AH2" s="13">
         <v>3</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="14">
+      <c r="AJ2" s="13">
         <v>2</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AK2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" s="14">
+      <c r="AL2" s="13">
         <v>4</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AM2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AN2" s="14">
+      <c r="AN2" s="13">
         <v>4</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AO2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="14">
+      <c r="AP2" s="13">
         <v>7</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="14">
+      <c r="AR2" s="13">
         <v>6</v>
       </c>
-      <c r="AS2" s="14" t="s">
+      <c r="AS2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AT2" s="14">
+      <c r="AT2" s="13">
         <v>3</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AU2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="14">
+      <c r="AV2" s="13">
         <v>6</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AW2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="14">
+      <c r="AX2" s="13">
         <v>6</v>
       </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AY2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="14" t="s">
+      <c r="AZ2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BB2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BB2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BD2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="14" t="s">
+      <c r="BD2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BF2" s="14">
+      <c r="BF2" s="13">
         <v>3</v>
       </c>
-      <c r="BG2" s="14" t="s">
+      <c r="BG2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BH2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="14" t="s">
+      <c r="BH2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BJ2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="14" t="s">
+      <c r="BJ2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BL2" s="14">
+      <c r="BL2" s="13">
         <v>8</v>
       </c>
-      <c r="BM2" s="14" t="s">
+      <c r="BM2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BN2" s="14">
+      <c r="BN2" s="13">
         <v>2</v>
       </c>
-      <c r="BO2" s="14" t="s">
+      <c r="BO2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BP2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="14" t="s">
+      <c r="BP2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BR2" s="14">
+      <c r="BR2" s="13">
         <v>11</v>
       </c>
-      <c r="BS2" s="14" t="s">
+      <c r="BS2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BT2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="14" t="s">
+      <c r="BT2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="14">
+      <c r="BV2" s="13">
         <v>8</v>
       </c>
-      <c r="BW2" s="14" t="s">
+      <c r="BW2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BX2" s="14">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="14" t="s">
+      <c r="BX2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BZ2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="14" t="s">
+      <c r="BZ2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CB2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CC2" s="14" t="s">
+      <c r="CB2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CD2" s="14">
+      <c r="CD2" s="13">
         <v>3</v>
       </c>
-      <c r="CE2" s="14" t="s">
+      <c r="CE2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CF2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CG2" s="14" t="s">
+      <c r="CF2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CH2" s="14">
+      <c r="CH2" s="13">
         <v>2</v>
       </c>
-      <c r="CI2" s="14" t="s">
+      <c r="CI2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CJ2" s="14">
+      <c r="CJ2" s="13">
         <v>2</v>
       </c>
-      <c r="CK2" s="14" t="s">
+      <c r="CK2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CL2" s="14">
+      <c r="CL2" s="13">
         <v>2</v>
       </c>
-      <c r="CM2" s="14" t="s">
+      <c r="CM2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CN2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CO2" s="14" t="s">
+      <c r="CN2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CO2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CP2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CQ2" s="14" t="s">
+      <c r="CP2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CR2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CS2" s="14" t="s">
+      <c r="CR2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CS2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CT2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CU2" s="14" t="s">
+      <c r="CT2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CU2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CV2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CW2" s="14" t="s">
+      <c r="CV2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CW2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CX2" s="14">
-        <v>1</v>
-      </c>
-      <c r="CY2" s="14" t="s">
+      <c r="CX2" s="13">
+        <v>1</v>
+      </c>
+      <c r="CY2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="CZ2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DA2" s="14" t="s">
+      <c r="CZ2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DA2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DB2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DC2" s="14" t="s">
+      <c r="DB2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DC2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DD2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DE2" s="14" t="s">
+      <c r="DD2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DE2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DF2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DG2" s="14" t="s">
+      <c r="DF2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DG2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DH2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DI2" s="14" t="s">
+      <c r="DH2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DI2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DJ2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DK2" s="14" t="s">
+      <c r="DJ2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DK2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DL2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DM2" s="14" t="s">
+      <c r="DL2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DM2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DN2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DO2" s="14" t="s">
+      <c r="DN2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DO2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DP2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DQ2" s="14" t="s">
+      <c r="DP2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DQ2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DR2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DS2" s="14" t="s">
+      <c r="DR2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DT2" s="14">
-        <v>1</v>
-      </c>
-      <c r="DU2" s="14" t="s">
+      <c r="DT2" s="13">
+        <v>1</v>
+      </c>
+      <c r="DU2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DV2" s="14">
+      <c r="DV2" s="13">
         <v>5</v>
       </c>
-      <c r="DW2" s="14" t="s">
+      <c r="DW2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DX2" s="14">
+      <c r="DX2" s="13">
         <v>11</v>
       </c>
-      <c r="DY2" s="14" t="s">
+      <c r="DY2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="DZ2" s="14">
+      <c r="DZ2" s="13">
+        <v>1</v>
+      </c>
+      <c r="EA2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="EB2" s="13">
         <v>8</v>
       </c>
-      <c r="EA2" s="14" t="s">
+      <c r="EC2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="EB2" s="14">
-        <v>1</v>
-      </c>
-      <c r="EC2" s="14" t="s">
+      <c r="ED2" s="13">
+        <v>1</v>
+      </c>
+      <c r="EE2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="ED2" s="14">
+      <c r="EF2" s="13">
         <v>10</v>
       </c>
-      <c r="EE2" s="14" t="s">
+      <c r="EG2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="EF2" s="14">
+      <c r="EH2" s="13">
         <v>9</v>
       </c>
-      <c r="EG2" s="14" t="s">
+      <c r="EI2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="EH2" s="14">
-        <v>1</v>
-      </c>
-      <c r="EI2" s="14" t="s">
+      <c r="EJ2" s="13">
+        <v>1</v>
+      </c>
+      <c r="EK2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="EJ2" s="14">
-        <v>1</v>
-      </c>
-      <c r="EK2" s="14" t="s">
+      <c r="EL2" s="13">
+        <v>1</v>
+      </c>
+      <c r="EM2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="EL2" s="14">
+      <c r="EN2" s="13">
         <v>2</v>
       </c>
-      <c r="EM2" s="14" t="s">
+      <c r="EO2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="EN2" s="14">
-        <v>1</v>
-      </c>
-      <c r="EO2" s="14" t="s">
+      <c r="EP2" s="13">
+        <v>1</v>
+      </c>
+      <c r="EQ2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="EP2" s="14">
+      <c r="ER2" s="13">
         <v>3</v>
       </c>
-      <c r="EQ2" s="14" t="s">
+      <c r="ES2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="ER2" s="14">
-        <v>1</v>
-      </c>
-      <c r="ES2" s="14" t="s">
+      <c r="ET2" s="13">
+        <v>1</v>
+      </c>
+      <c r="EU2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="ET2" s="14">
+      <c r="EV2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:150" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:152" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="S3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="V3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="W3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="26" t="s">
+      <c r="X3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AB3" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AC3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AD3" s="26" t="s">
+      <c r="AD3" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AE3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AF3" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AG3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AH3" s="26" t="s">
+      <c r="AH3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="AI3" s="26" t="s">
+      <c r="AI3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AK3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AL3" s="26" t="s">
+      <c r="AL3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="AM3" s="26" t="s">
+      <c r="AM3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AN3" s="26" t="s">
+      <c r="AN3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="AO3" s="26" t="s">
+      <c r="AO3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AP3" s="26" t="s">
+      <c r="AP3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="AQ3" s="26" t="s">
+      <c r="AQ3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AR3" s="26" t="s">
+      <c r="AR3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="AS3" s="26" t="s">
+      <c r="AS3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AT3" s="26" t="s">
+      <c r="AT3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="AU3" s="26" t="s">
+      <c r="AU3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AV3" s="26" t="s">
+      <c r="AV3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="AW3" s="26" t="s">
+      <c r="AW3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AX3" s="26" t="s">
+      <c r="AX3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="AY3" s="26" t="s">
+      <c r="AY3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AZ3" s="26" t="s">
+      <c r="AZ3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="BA3" s="26" t="s">
+      <c r="BA3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BB3" s="26" t="s">
+      <c r="BB3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="BC3" s="26" t="s">
+      <c r="BC3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BD3" s="26" t="s">
+      <c r="BD3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="BE3" s="26" t="s">
+      <c r="BE3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BF3" s="26" t="s">
+      <c r="BF3" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="BG3" s="26" t="s">
+      <c r="BG3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BH3" s="26" t="s">
+      <c r="BH3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="BI3" s="26" t="s">
+      <c r="BI3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BJ3" s="26" t="s">
+      <c r="BJ3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="BK3" s="26" t="s">
+      <c r="BK3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BL3" s="26" t="s">
+      <c r="BL3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="BM3" s="26" t="s">
+      <c r="BM3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BN3" s="26" t="s">
+      <c r="BN3" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="BO3" s="26" t="s">
+      <c r="BO3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BP3" s="26" t="s">
+      <c r="BP3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="BQ3" s="26" t="s">
+      <c r="BQ3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BR3" s="26" t="s">
+      <c r="BR3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="BS3" s="26" t="s">
+      <c r="BS3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BT3" s="26" t="s">
+      <c r="BT3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="BU3" s="26" t="s">
+      <c r="BU3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BV3" s="26" t="s">
+      <c r="BV3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="BW3" s="26" t="s">
+      <c r="BW3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BX3" s="26" t="s">
+      <c r="BX3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="BY3" s="26" t="s">
+      <c r="BY3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BZ3" s="26" t="s">
+      <c r="BZ3" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="CA3" s="26" t="s">
+      <c r="CA3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CB3" s="26" t="s">
+      <c r="CB3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="CC3" s="26" t="s">
+      <c r="CC3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CD3" s="26" t="s">
+      <c r="CD3" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="CE3" s="26" t="s">
+      <c r="CE3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CF3" s="26" t="s">
+      <c r="CF3" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="CG3" s="26" t="s">
+      <c r="CG3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CH3" s="26" t="s">
+      <c r="CH3" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="CI3" s="26" t="s">
+      <c r="CI3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CJ3" s="26" t="s">
+      <c r="CJ3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="CK3" s="26" t="s">
+      <c r="CK3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CL3" s="26" t="s">
+      <c r="CL3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="CM3" s="26" t="s">
+      <c r="CM3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CN3" s="26" t="s">
+      <c r="CN3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="CO3" s="26" t="s">
+      <c r="CO3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CP3" s="26" t="s">
+      <c r="CP3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="CQ3" s="26" t="s">
+      <c r="CQ3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CR3" s="26" t="s">
+      <c r="CR3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="CS3" s="26" t="s">
+      <c r="CS3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CT3" s="26" t="s">
+      <c r="CT3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="CU3" s="26" t="s">
+      <c r="CU3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CV3" s="26" t="s">
+      <c r="CV3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="CW3" s="26" t="s">
+      <c r="CW3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CX3" s="26" t="s">
+      <c r="CX3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="CY3" s="26" t="s">
+      <c r="CY3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="CZ3" s="26" t="s">
+      <c r="CZ3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="DA3" s="26" t="s">
+      <c r="DA3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DB3" s="26" t="s">
+      <c r="DB3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="DC3" s="26" t="s">
+      <c r="DC3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DD3" s="26" t="s">
+      <c r="DD3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="DE3" s="26" t="s">
+      <c r="DE3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DF3" s="26" t="s">
+      <c r="DF3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DG3" s="26" t="s">
+      <c r="DG3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DH3" s="26" t="s">
+      <c r="DH3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DI3" s="26" t="s">
+      <c r="DI3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DJ3" s="26" t="s">
+      <c r="DJ3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DK3" s="26" t="s">
+      <c r="DK3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DL3" s="26" t="s">
+      <c r="DL3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DM3" s="26" t="s">
+      <c r="DM3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DN3" s="26" t="s">
+      <c r="DN3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DO3" s="26" t="s">
+      <c r="DO3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DP3" s="26" t="s">
+      <c r="DP3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DQ3" s="26" t="s">
+      <c r="DQ3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DR3" s="26" t="s">
+      <c r="DR3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DS3" s="26" t="s">
+      <c r="DS3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DT3" s="26" t="s">
+      <c r="DT3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DU3" s="26" t="s">
+      <c r="DU3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DV3" s="26" t="s">
+      <c r="DV3" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="DW3" s="26" t="s">
+      <c r="DW3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DX3" s="26" t="s">
+      <c r="DX3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="DY3" s="27" t="s">
+      <c r="DY3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="DZ3" s="26" t="s">
+      <c r="DZ3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="EA3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="EA3" s="26" t="s">
+      <c r="EC3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="EB3" s="26" t="s">
+      <c r="ED3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="EC3" s="27" t="s">
+      <c r="EE3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="ED3" s="26" t="s">
+      <c r="EF3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="EE3" s="27" t="s">
+      <c r="EG3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="EF3" s="26" t="s">
+      <c r="EH3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="EG3" s="27" t="s">
+      <c r="EI3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="EH3" s="26" t="s">
+      <c r="EJ3" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="EI3" s="27" t="s">
+      <c r="EK3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="EJ3" s="26" t="s">
+      <c r="EL3" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="EK3" s="27" t="s">
+      <c r="EM3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="EL3" s="26" t="s">
+      <c r="EN3" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="EM3" s="27" t="s">
+      <c r="EO3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="EN3" s="26" t="s">
+      <c r="EP3" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="EO3" s="27" t="s">
+      <c r="EQ3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="EP3" s="26" t="s">
+      <c r="ER3" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="EQ3" s="26" t="s">
+      <c r="ES3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="ER3" s="26" t="s">
+      <c r="ET3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="ES3" s="27" t="s">
+      <c r="EU3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="ET3" s="26" t="s">
+      <c r="EV3" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:150" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:152" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>141</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>145</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB4" s="5" t="s">
         <v>128</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD4" s="5" t="s">
         <v>132</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF4" s="5" t="s">
         <v>133</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AJ4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN4" s="5" t="s">
         <v>80</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AP4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AR4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AT4" s="5" t="s">
         <v>97</v>
       </c>
       <c r="AU4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AW4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AX4" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AY4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AZ4" s="5" t="s">
         <v>147</v>
       </c>
       <c r="BA4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BB4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="BC4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BD4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="BE4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BF4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="BG4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BH4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="BI4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BJ4" s="5" t="s">
         <v>148</v>
       </c>
       <c r="BK4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BL4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="BM4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BN4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="BO4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BP4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="BQ4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BR4" s="5" t="s">
         <v>94</v>
       </c>
       <c r="BS4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BT4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="BU4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BV4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="BW4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BX4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="BY4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BZ4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="CA4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CB4" s="5" t="s">
         <v>149</v>
       </c>
       <c r="CC4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CD4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="CE4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CF4" s="5" t="s">
         <v>78</v>
       </c>
       <c r="CG4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CH4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="CI4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CJ4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="CK4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CL4" s="5" t="s">
         <v>79</v>
       </c>
       <c r="CM4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CN4" s="5" t="s">
         <v>150</v>
       </c>
       <c r="CO4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CP4" s="5" t="s">
         <v>121</v>
       </c>
       <c r="CQ4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CR4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="CS4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CT4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="CU4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CV4" s="5" t="s">
         <v>143</v>
       </c>
       <c r="CW4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CX4" s="5" t="s">
         <v>183</v>
       </c>
       <c r="CY4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CZ4" s="5" t="s">
         <v>151</v>
       </c>
       <c r="DA4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DB4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="DC4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DD4" s="5" t="s">
         <v>131</v>
       </c>
       <c r="DE4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DF4" s="3" t="s">
         <v>158</v>
       </c>
       <c r="DG4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DH4" s="3" t="s">
         <v>157</v>
       </c>
       <c r="DI4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DJ4" s="3" t="s">
         <v>159</v>
       </c>
       <c r="DK4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DL4" s="3" t="s">
         <v>160</v>
       </c>
       <c r="DM4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DN4" s="3" t="s">
         <v>161</v>
       </c>
       <c r="DO4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DP4" s="3" t="s">
         <v>162</v>
       </c>
       <c r="DQ4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DR4" s="3" t="s">
         <v>163</v>
       </c>
       <c r="DS4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DT4" s="3" t="s">
         <v>164</v>
       </c>
       <c r="DU4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DV4" s="5" t="s">
         <v>82</v>
       </c>
       <c r="DW4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DX4" s="5" t="s">
         <v>93</v>
       </c>
       <c r="DY4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DZ4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EB4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="EA4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="EB4" s="5" t="s">
+      <c r="EC4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="ED4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="EC4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED4" s="5" t="s">
+      <c r="EE4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EF4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="EE4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="EF4" s="5" t="s">
+      <c r="EG4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EH4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="EG4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="EH4" s="5" t="s">
+      <c r="EI4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EJ4" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="EI4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="EJ4" s="5" t="s">
+      <c r="EK4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EL4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="EK4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="EL4" s="5" t="s">
+      <c r="EM4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EN4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="EM4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="EN4" s="5" t="s">
+      <c r="EO4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EP4" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="EO4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="EP4" s="5" t="s">
+      <c r="EQ4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="ER4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="EQ4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="ER4" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="ES4" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="ET4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="EU4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="EV4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -6557,7 +6655,7 @@
       <c r="AW5" s="6">
         <v>1</v>
       </c>
-      <c r="AX5" s="15" t="s">
+      <c r="AX5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AY5" s="6">
@@ -6759,19 +6857,17 @@
       <c r="DY5" s="6">
         <v>1</v>
       </c>
-      <c r="DZ5" s="2" t="s">
+      <c r="DZ5" s="4"/>
+      <c r="EA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EB5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="EA5" s="6">
-        <v>1</v>
-      </c>
-      <c r="EB5" s="4"/>
       <c r="EC5" s="6">
         <v>1</v>
       </c>
-      <c r="ED5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="ED5" s="4"/>
       <c r="EE5" s="6">
         <v>1</v>
       </c>
@@ -6781,13 +6877,13 @@
       <c r="EG5" s="6">
         <v>1</v>
       </c>
-      <c r="EH5" s="2"/>
+      <c r="EH5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="EI5" s="6">
         <v>1</v>
       </c>
-      <c r="EJ5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="EJ5" s="2"/>
       <c r="EK5" s="6">
         <v>1</v>
       </c>
@@ -6810,14 +6906,20 @@
         <v>1</v>
       </c>
       <c r="ER5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="6">
+        <v>1</v>
+      </c>
+      <c r="ET5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="ES5" s="6">
-        <v>1</v>
-      </c>
-      <c r="ET5" s="4"/>
+      <c r="EU5" s="6">
+        <v>1</v>
+      </c>
+      <c r="EV5" s="4"/>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -6939,7 +7041,7 @@
       <c r="AW6" s="6">
         <v>2</v>
       </c>
-      <c r="AX6" s="15" t="s">
+      <c r="AX6" s="14" t="s">
         <v>121</v>
       </c>
       <c r="AY6" s="6">
@@ -7125,19 +7227,17 @@
       <c r="DY6" s="6">
         <v>2</v>
       </c>
-      <c r="DZ6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="DZ6" s="4"/>
       <c r="EA6" s="6">
         <v>2</v>
       </c>
-      <c r="EB6" s="4"/>
+      <c r="EB6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="EC6" s="6">
         <v>2</v>
       </c>
-      <c r="ED6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="ED6" s="4"/>
       <c r="EE6" s="6">
         <v>2</v>
       </c>
@@ -7147,7 +7247,9 @@
       <c r="EG6" s="6">
         <v>2</v>
       </c>
-      <c r="EH6" s="2"/>
+      <c r="EH6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="EI6" s="6">
         <v>2</v>
       </c>
@@ -7155,29 +7257,33 @@
       <c r="EK6" s="6">
         <v>2</v>
       </c>
-      <c r="EL6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="EL6" s="2"/>
       <c r="EM6" s="6">
         <v>2</v>
       </c>
-      <c r="EN6" s="4"/>
+      <c r="EN6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="EO6" s="6">
         <v>2</v>
       </c>
-      <c r="EP6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="EP6" s="4"/>
       <c r="EQ6" s="6">
         <v>2</v>
       </c>
-      <c r="ER6" s="4"/>
+      <c r="ER6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="ES6" s="6">
         <v>2</v>
       </c>
       <c r="ET6" s="4"/>
+      <c r="EU6" s="6">
+        <v>2</v>
+      </c>
+      <c r="EV6" s="4"/>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -7474,19 +7580,17 @@
       <c r="DY7" s="6">
         <v>3</v>
       </c>
-      <c r="DZ7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="DZ7" s="4"/>
       <c r="EA7" s="6">
         <v>3</v>
       </c>
-      <c r="EB7" s="4"/>
+      <c r="EB7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="EC7" s="6">
         <v>3</v>
       </c>
-      <c r="ED7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="ED7" s="4"/>
       <c r="EE7" s="6">
         <v>3</v>
       </c>
@@ -7496,7 +7600,9 @@
       <c r="EG7" s="6">
         <v>3</v>
       </c>
-      <c r="EH7" s="2"/>
+      <c r="EH7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="EI7" s="6">
         <v>3</v>
       </c>
@@ -7508,23 +7614,27 @@
       <c r="EM7" s="6">
         <v>3</v>
       </c>
-      <c r="EN7" s="4"/>
+      <c r="EN7" s="2"/>
       <c r="EO7" s="6">
         <v>3</v>
       </c>
-      <c r="EP7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="EP7" s="4"/>
       <c r="EQ7" s="6">
         <v>3</v>
       </c>
-      <c r="ER7" s="4"/>
+      <c r="ER7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="ES7" s="6">
         <v>3</v>
       </c>
       <c r="ET7" s="4"/>
+      <c r="EU7" s="6">
+        <v>3</v>
+      </c>
+      <c r="EV7" s="4"/>
     </row>
-    <row r="8" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -7811,19 +7921,17 @@
       <c r="DY8" s="6">
         <v>4</v>
       </c>
-      <c r="DZ8" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="DZ8" s="4"/>
       <c r="EA8" s="6">
         <v>4</v>
       </c>
-      <c r="EB8" s="4"/>
+      <c r="EB8" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="EC8" s="6">
         <v>4</v>
       </c>
-      <c r="ED8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="ED8" s="4"/>
       <c r="EE8" s="6">
         <v>4</v>
       </c>
@@ -7833,7 +7941,9 @@
       <c r="EG8" s="6">
         <v>4</v>
       </c>
-      <c r="EH8" s="2"/>
+      <c r="EH8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="EI8" s="6">
         <v>4</v>
       </c>
@@ -7845,21 +7955,25 @@
       <c r="EM8" s="6">
         <v>4</v>
       </c>
-      <c r="EN8" s="4"/>
+      <c r="EN8" s="2"/>
       <c r="EO8" s="6">
         <v>4</v>
       </c>
-      <c r="EP8" s="2"/>
+      <c r="EP8" s="4"/>
       <c r="EQ8" s="6">
         <v>4</v>
       </c>
-      <c r="ER8" s="4"/>
+      <c r="ER8" s="2"/>
       <c r="ES8" s="6">
         <v>4</v>
       </c>
       <c r="ET8" s="4"/>
+      <c r="EU8" s="6">
+        <v>4</v>
+      </c>
+      <c r="EV8" s="4"/>
     </row>
-    <row r="9" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -8142,19 +8256,17 @@
       <c r="DY9" s="6">
         <v>5</v>
       </c>
-      <c r="DZ9" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="DZ9" s="4"/>
       <c r="EA9" s="6">
         <v>5</v>
       </c>
-      <c r="EB9" s="4"/>
+      <c r="EB9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="EC9" s="6">
         <v>5</v>
       </c>
-      <c r="ED9" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="ED9" s="4"/>
       <c r="EE9" s="6">
         <v>5</v>
       </c>
@@ -8164,7 +8276,9 @@
       <c r="EG9" s="6">
         <v>5</v>
       </c>
-      <c r="EH9" s="2"/>
+      <c r="EH9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="EI9" s="6">
         <v>5</v>
       </c>
@@ -8176,21 +8290,25 @@
       <c r="EM9" s="6">
         <v>5</v>
       </c>
-      <c r="EN9" s="4"/>
+      <c r="EN9" s="2"/>
       <c r="EO9" s="6">
         <v>5</v>
       </c>
-      <c r="EP9" s="2"/>
+      <c r="EP9" s="4"/>
       <c r="EQ9" s="6">
         <v>5</v>
       </c>
-      <c r="ER9" s="4"/>
+      <c r="ER9" s="2"/>
       <c r="ES9" s="6">
         <v>5</v>
       </c>
       <c r="ET9" s="4"/>
+      <c r="EU9" s="6">
+        <v>5</v>
+      </c>
+      <c r="EV9" s="4"/>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -8472,19 +8590,17 @@
       <c r="DY10" s="6">
         <v>6</v>
       </c>
-      <c r="DZ10" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="DZ10" s="4"/>
       <c r="EA10" s="6">
         <v>6</v>
       </c>
-      <c r="EB10" s="4"/>
+      <c r="EB10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="EC10" s="6">
         <v>6</v>
       </c>
-      <c r="ED10" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="ED10" s="4"/>
       <c r="EE10" s="6">
         <v>6</v>
       </c>
@@ -8494,7 +8610,9 @@
       <c r="EG10" s="6">
         <v>6</v>
       </c>
-      <c r="EH10" s="2"/>
+      <c r="EH10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="EI10" s="6">
         <v>6</v>
       </c>
@@ -8506,21 +8624,25 @@
       <c r="EM10" s="6">
         <v>6</v>
       </c>
-      <c r="EN10" s="4"/>
+      <c r="EN10" s="2"/>
       <c r="EO10" s="6">
         <v>6</v>
       </c>
-      <c r="EP10" s="2"/>
+      <c r="EP10" s="4"/>
       <c r="EQ10" s="6">
         <v>6</v>
       </c>
-      <c r="ER10" s="4"/>
+      <c r="ER10" s="2"/>
       <c r="ES10" s="6">
         <v>6</v>
       </c>
       <c r="ET10" s="4"/>
+      <c r="EU10" s="6">
+        <v>6</v>
+      </c>
+      <c r="EV10" s="4"/>
     </row>
-    <row r="11" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -8800,19 +8922,17 @@
       <c r="DY11" s="6">
         <v>7</v>
       </c>
-      <c r="DZ11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="DZ11" s="4"/>
       <c r="EA11" s="6">
         <v>7</v>
       </c>
-      <c r="EB11" s="4"/>
+      <c r="EB11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="EC11" s="6">
         <v>7</v>
       </c>
-      <c r="ED11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="ED11" s="4"/>
       <c r="EE11" s="6">
         <v>7</v>
       </c>
@@ -8822,7 +8942,9 @@
       <c r="EG11" s="6">
         <v>7</v>
       </c>
-      <c r="EH11" s="2"/>
+      <c r="EH11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="EI11" s="6">
         <v>7</v>
       </c>
@@ -8834,21 +8956,25 @@
       <c r="EM11" s="6">
         <v>7</v>
       </c>
-      <c r="EN11" s="4"/>
+      <c r="EN11" s="2"/>
       <c r="EO11" s="6">
         <v>7</v>
       </c>
-      <c r="EP11" s="2"/>
+      <c r="EP11" s="4"/>
       <c r="EQ11" s="6">
         <v>7</v>
       </c>
-      <c r="ER11" s="4"/>
+      <c r="ER11" s="2"/>
       <c r="ES11" s="6">
         <v>7</v>
       </c>
       <c r="ET11" s="4"/>
+      <c r="EU11" s="6">
+        <v>7</v>
+      </c>
+      <c r="EV11" s="4"/>
     </row>
-    <row r="12" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -9121,19 +9247,17 @@
       <c r="DY12" s="6">
         <v>8</v>
       </c>
-      <c r="DZ12" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="DZ12" s="4"/>
       <c r="EA12" s="6">
         <v>8</v>
       </c>
-      <c r="EB12" s="4"/>
+      <c r="EB12" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="EC12" s="6">
         <v>8</v>
       </c>
-      <c r="ED12" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="ED12" s="4"/>
       <c r="EE12" s="6">
         <v>8</v>
       </c>
@@ -9143,7 +9267,9 @@
       <c r="EG12" s="6">
         <v>8</v>
       </c>
-      <c r="EH12" s="2"/>
+      <c r="EH12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="EI12" s="6">
         <v>8</v>
       </c>
@@ -9155,21 +9281,25 @@
       <c r="EM12" s="6">
         <v>8</v>
       </c>
-      <c r="EN12" s="4"/>
+      <c r="EN12" s="2"/>
       <c r="EO12" s="6">
         <v>8</v>
       </c>
-      <c r="EP12" s="2"/>
+      <c r="EP12" s="4"/>
       <c r="EQ12" s="6">
         <v>8</v>
       </c>
-      <c r="ER12" s="4"/>
+      <c r="ER12" s="2"/>
       <c r="ES12" s="6">
         <v>8</v>
       </c>
       <c r="ET12" s="4"/>
+      <c r="EU12" s="6">
+        <v>8</v>
+      </c>
+      <c r="EV12" s="4"/>
     </row>
-    <row r="13" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -9441,19 +9571,17 @@
       <c r="DY13" s="6">
         <v>9</v>
       </c>
-      <c r="DZ13" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="DZ13" s="4"/>
       <c r="EA13" s="6">
         <v>9</v>
       </c>
-      <c r="EB13" s="4"/>
+      <c r="EB13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="EC13" s="6">
         <v>9</v>
       </c>
-      <c r="ED13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="ED13" s="4"/>
       <c r="EE13" s="6">
         <v>9</v>
       </c>
@@ -9463,7 +9591,9 @@
       <c r="EG13" s="6">
         <v>9</v>
       </c>
-      <c r="EH13" s="2"/>
+      <c r="EH13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="EI13" s="6">
         <v>9</v>
       </c>
@@ -9475,21 +9605,25 @@
       <c r="EM13" s="6">
         <v>9</v>
       </c>
-      <c r="EN13" s="4"/>
+      <c r="EN13" s="2"/>
       <c r="EO13" s="6">
         <v>9</v>
       </c>
-      <c r="EP13" s="2"/>
+      <c r="EP13" s="4"/>
       <c r="EQ13" s="6">
         <v>9</v>
       </c>
-      <c r="ER13" s="4"/>
+      <c r="ER13" s="2"/>
       <c r="ES13" s="6">
         <v>9</v>
       </c>
       <c r="ET13" s="4"/>
+      <c r="EU13" s="6">
+        <v>9</v>
+      </c>
+      <c r="EV13" s="4"/>
     </row>
-    <row r="14" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -9759,19 +9893,17 @@
       <c r="DY14" s="6">
         <v>10</v>
       </c>
-      <c r="DZ14" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="DZ14" s="4"/>
       <c r="EA14" s="6">
         <v>10</v>
       </c>
-      <c r="EB14" s="4"/>
+      <c r="EB14" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="EC14" s="6">
         <v>10</v>
       </c>
-      <c r="ED14" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="ED14" s="4"/>
       <c r="EE14" s="6">
         <v>10</v>
       </c>
@@ -9781,7 +9913,9 @@
       <c r="EG14" s="6">
         <v>10</v>
       </c>
-      <c r="EH14" s="2"/>
+      <c r="EH14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="EI14" s="6">
         <v>10</v>
       </c>
@@ -9793,21 +9927,25 @@
       <c r="EM14" s="6">
         <v>10</v>
       </c>
-      <c r="EN14" s="4"/>
+      <c r="EN14" s="2"/>
       <c r="EO14" s="6">
         <v>10</v>
       </c>
-      <c r="EP14" s="2"/>
+      <c r="EP14" s="4"/>
       <c r="EQ14" s="6">
         <v>10</v>
       </c>
-      <c r="ER14" s="4"/>
+      <c r="ER14" s="2"/>
       <c r="ES14" s="6">
         <v>10</v>
       </c>
       <c r="ET14" s="4"/>
+      <c r="EU14" s="6">
+        <v>10</v>
+      </c>
+      <c r="EV14" s="4"/>
     </row>
-    <row r="15" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -10077,19 +10215,17 @@
       <c r="DY15" s="6">
         <v>11</v>
       </c>
-      <c r="DZ15" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="DZ15" s="4"/>
       <c r="EA15" s="6">
         <v>11</v>
       </c>
-      <c r="EB15" s="4"/>
+      <c r="EB15" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="EC15" s="6">
         <v>11</v>
       </c>
-      <c r="ED15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="ED15" s="4"/>
       <c r="EE15" s="6">
         <v>11</v>
       </c>
@@ -10099,7 +10235,9 @@
       <c r="EG15" s="6">
         <v>11</v>
       </c>
-      <c r="EH15" s="2"/>
+      <c r="EH15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="EI15" s="6">
         <v>11</v>
       </c>
@@ -10111,21 +10249,25 @@
       <c r="EM15" s="6">
         <v>11</v>
       </c>
-      <c r="EN15" s="4"/>
+      <c r="EN15" s="2"/>
       <c r="EO15" s="6">
         <v>11</v>
       </c>
-      <c r="EP15" s="2"/>
+      <c r="EP15" s="4"/>
       <c r="EQ15" s="6">
         <v>11</v>
       </c>
-      <c r="ER15" s="4"/>
+      <c r="ER15" s="2"/>
       <c r="ES15" s="6">
         <v>11</v>
       </c>
       <c r="ET15" s="4"/>
+      <c r="EU15" s="6">
+        <v>11</v>
+      </c>
+      <c r="EV15" s="4"/>
     </row>
-    <row r="16" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -10393,19 +10535,17 @@
       <c r="DY16" s="6">
         <v>12</v>
       </c>
-      <c r="DZ16" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="DZ16" s="4"/>
       <c r="EA16" s="6">
         <v>12</v>
       </c>
-      <c r="EB16" s="4"/>
+      <c r="EB16" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="EC16" s="6">
         <v>12</v>
       </c>
-      <c r="ED16" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="ED16" s="4"/>
       <c r="EE16" s="6">
         <v>12</v>
       </c>
@@ -10415,7 +10555,9 @@
       <c r="EG16" s="6">
         <v>12</v>
       </c>
-      <c r="EH16" s="2"/>
+      <c r="EH16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="EI16" s="6">
         <v>12</v>
       </c>
@@ -10427,21 +10569,25 @@
       <c r="EM16" s="6">
         <v>12</v>
       </c>
-      <c r="EN16" s="4"/>
+      <c r="EN16" s="2"/>
       <c r="EO16" s="6">
         <v>12</v>
       </c>
-      <c r="EP16" s="2"/>
+      <c r="EP16" s="4"/>
       <c r="EQ16" s="6">
         <v>12</v>
       </c>
-      <c r="ER16" s="4"/>
+      <c r="ER16" s="2"/>
       <c r="ES16" s="6">
         <v>12</v>
       </c>
       <c r="ET16" s="4"/>
+      <c r="EU16" s="6">
+        <v>12</v>
+      </c>
+      <c r="EV16" s="4"/>
     </row>
-    <row r="17" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -10709,19 +10855,17 @@
       <c r="DY17" s="6">
         <v>13</v>
       </c>
-      <c r="DZ17" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="DZ17" s="4"/>
       <c r="EA17" s="6">
         <v>13</v>
       </c>
-      <c r="EB17" s="4"/>
+      <c r="EB17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="EC17" s="6">
         <v>13</v>
       </c>
-      <c r="ED17" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="ED17" s="4"/>
       <c r="EE17" s="6">
         <v>13</v>
       </c>
@@ -10731,7 +10875,9 @@
       <c r="EG17" s="6">
         <v>13</v>
       </c>
-      <c r="EH17" s="2"/>
+      <c r="EH17" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="EI17" s="6">
         <v>13</v>
       </c>
@@ -10743,21 +10889,25 @@
       <c r="EM17" s="6">
         <v>13</v>
       </c>
-      <c r="EN17" s="4"/>
+      <c r="EN17" s="2"/>
       <c r="EO17" s="6">
         <v>13</v>
       </c>
-      <c r="EP17" s="2"/>
+      <c r="EP17" s="4"/>
       <c r="EQ17" s="6">
         <v>13</v>
       </c>
-      <c r="ER17" s="4"/>
+      <c r="ER17" s="2"/>
       <c r="ES17" s="6">
         <v>13</v>
       </c>
       <c r="ET17" s="4"/>
+      <c r="EU17" s="6">
+        <v>13</v>
+      </c>
+      <c r="EV17" s="4"/>
     </row>
-    <row r="18" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -11021,19 +11171,17 @@
       <c r="DY18" s="6">
         <v>14</v>
       </c>
-      <c r="DZ18" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="DZ18" s="4"/>
       <c r="EA18" s="6">
         <v>14</v>
       </c>
-      <c r="EB18" s="4"/>
+      <c r="EB18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="EC18" s="6">
         <v>14</v>
       </c>
-      <c r="ED18" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="ED18" s="4"/>
       <c r="EE18" s="6">
         <v>14</v>
       </c>
@@ -11043,7 +11191,9 @@
       <c r="EG18" s="6">
         <v>14</v>
       </c>
-      <c r="EH18" s="2"/>
+      <c r="EH18" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="EI18" s="6">
         <v>14</v>
       </c>
@@ -11055,21 +11205,25 @@
       <c r="EM18" s="6">
         <v>14</v>
       </c>
-      <c r="EN18" s="4"/>
+      <c r="EN18" s="2"/>
       <c r="EO18" s="6">
         <v>14</v>
       </c>
-      <c r="EP18" s="2"/>
+      <c r="EP18" s="4"/>
       <c r="EQ18" s="6">
         <v>14</v>
       </c>
-      <c r="ER18" s="4"/>
+      <c r="ER18" s="2"/>
       <c r="ES18" s="6">
         <v>14</v>
       </c>
       <c r="ET18" s="4"/>
+      <c r="EU18" s="6">
+        <v>14</v>
+      </c>
+      <c r="EV18" s="4"/>
     </row>
-    <row r="19" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -11333,17 +11487,15 @@
       <c r="DY19" s="6">
         <v>15</v>
       </c>
-      <c r="DZ19" s="2"/>
+      <c r="DZ19" s="4"/>
       <c r="EA19" s="6">
         <v>15</v>
       </c>
-      <c r="EB19" s="4"/>
+      <c r="EB19" s="2"/>
       <c r="EC19" s="6">
         <v>15</v>
       </c>
-      <c r="ED19" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="ED19" s="4"/>
       <c r="EE19" s="6">
         <v>15</v>
       </c>
@@ -11353,7 +11505,9 @@
       <c r="EG19" s="6">
         <v>15</v>
       </c>
-      <c r="EH19" s="2"/>
+      <c r="EH19" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="EI19" s="6">
         <v>15</v>
       </c>
@@ -11365,21 +11519,25 @@
       <c r="EM19" s="6">
         <v>15</v>
       </c>
-      <c r="EN19" s="4"/>
+      <c r="EN19" s="2"/>
       <c r="EO19" s="6">
         <v>15</v>
       </c>
-      <c r="EP19" s="2"/>
+      <c r="EP19" s="4"/>
       <c r="EQ19" s="6">
         <v>15</v>
       </c>
-      <c r="ER19" s="4"/>
+      <c r="ER19" s="2"/>
       <c r="ES19" s="6">
         <v>15</v>
       </c>
       <c r="ET19" s="4"/>
+      <c r="EU19" s="6">
+        <v>15</v>
+      </c>
+      <c r="EV19" s="4"/>
     </row>
-    <row r="20" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -11643,17 +11801,15 @@
       <c r="DY20" s="6">
         <v>16</v>
       </c>
-      <c r="DZ20" s="2"/>
+      <c r="DZ20" s="4"/>
       <c r="EA20" s="6">
         <v>16</v>
       </c>
-      <c r="EB20" s="4"/>
+      <c r="EB20" s="2"/>
       <c r="EC20" s="6">
         <v>16</v>
       </c>
-      <c r="ED20" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="ED20" s="4"/>
       <c r="EE20" s="6">
         <v>16</v>
       </c>
@@ -11663,7 +11819,9 @@
       <c r="EG20" s="6">
         <v>16</v>
       </c>
-      <c r="EH20" s="2"/>
+      <c r="EH20" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="EI20" s="6">
         <v>16</v>
       </c>
@@ -11675,21 +11833,25 @@
       <c r="EM20" s="6">
         <v>16</v>
       </c>
-      <c r="EN20" s="4"/>
+      <c r="EN20" s="2"/>
       <c r="EO20" s="6">
         <v>16</v>
       </c>
-      <c r="EP20" s="2"/>
+      <c r="EP20" s="4"/>
       <c r="EQ20" s="6">
         <v>16</v>
       </c>
-      <c r="ER20" s="4"/>
+      <c r="ER20" s="2"/>
       <c r="ES20" s="6">
         <v>16</v>
       </c>
       <c r="ET20" s="4"/>
+      <c r="EU20" s="6">
+        <v>16</v>
+      </c>
+      <c r="EV20" s="4"/>
     </row>
-    <row r="21" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -11953,17 +12115,15 @@
       <c r="DY21" s="6">
         <v>17</v>
       </c>
-      <c r="DZ21" s="2"/>
+      <c r="DZ21" s="4"/>
       <c r="EA21" s="6">
         <v>17</v>
       </c>
-      <c r="EB21" s="4"/>
+      <c r="EB21" s="2"/>
       <c r="EC21" s="6">
         <v>17</v>
       </c>
-      <c r="ED21" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="ED21" s="4"/>
       <c r="EE21" s="6">
         <v>17</v>
       </c>
@@ -11973,7 +12133,9 @@
       <c r="EG21" s="6">
         <v>17</v>
       </c>
-      <c r="EH21" s="2"/>
+      <c r="EH21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="EI21" s="6">
         <v>17</v>
       </c>
@@ -11985,21 +12147,25 @@
       <c r="EM21" s="6">
         <v>17</v>
       </c>
-      <c r="EN21" s="4"/>
+      <c r="EN21" s="2"/>
       <c r="EO21" s="6">
         <v>17</v>
       </c>
-      <c r="EP21" s="2"/>
+      <c r="EP21" s="4"/>
       <c r="EQ21" s="6">
         <v>17</v>
       </c>
-      <c r="ER21" s="4"/>
+      <c r="ER21" s="2"/>
       <c r="ES21" s="6">
         <v>17</v>
       </c>
       <c r="ET21" s="4"/>
+      <c r="EU21" s="6">
+        <v>17</v>
+      </c>
+      <c r="EV21" s="4"/>
     </row>
-    <row r="22" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -12263,17 +12429,15 @@
       <c r="DY22" s="6">
         <v>18</v>
       </c>
-      <c r="DZ22" s="2"/>
+      <c r="DZ22" s="4"/>
       <c r="EA22" s="6">
         <v>18</v>
       </c>
-      <c r="EB22" s="4"/>
+      <c r="EB22" s="2"/>
       <c r="EC22" s="6">
         <v>18</v>
       </c>
-      <c r="ED22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="ED22" s="4"/>
       <c r="EE22" s="6">
         <v>18</v>
       </c>
@@ -12283,7 +12447,9 @@
       <c r="EG22" s="6">
         <v>18</v>
       </c>
-      <c r="EH22" s="2"/>
+      <c r="EH22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="EI22" s="6">
         <v>18</v>
       </c>
@@ -12295,21 +12461,25 @@
       <c r="EM22" s="6">
         <v>18</v>
       </c>
-      <c r="EN22" s="4"/>
+      <c r="EN22" s="2"/>
       <c r="EO22" s="6">
         <v>18</v>
       </c>
-      <c r="EP22" s="2"/>
+      <c r="EP22" s="4"/>
       <c r="EQ22" s="6">
         <v>18</v>
       </c>
-      <c r="ER22" s="4"/>
+      <c r="ER22" s="2"/>
       <c r="ES22" s="6">
         <v>18</v>
       </c>
       <c r="ET22" s="4"/>
+      <c r="EU22" s="6">
+        <v>18</v>
+      </c>
+      <c r="EV22" s="4"/>
     </row>
-    <row r="23" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -12573,17 +12743,15 @@
       <c r="DY23" s="6">
         <v>19</v>
       </c>
-      <c r="DZ23" s="2"/>
+      <c r="DZ23" s="4"/>
       <c r="EA23" s="6">
         <v>19</v>
       </c>
-      <c r="EB23" s="4"/>
+      <c r="EB23" s="2"/>
       <c r="EC23" s="6">
         <v>19</v>
       </c>
-      <c r="ED23" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="ED23" s="4"/>
       <c r="EE23" s="6">
         <v>19</v>
       </c>
@@ -12593,7 +12761,9 @@
       <c r="EG23" s="6">
         <v>19</v>
       </c>
-      <c r="EH23" s="2"/>
+      <c r="EH23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="EI23" s="6">
         <v>19</v>
       </c>
@@ -12605,21 +12775,25 @@
       <c r="EM23" s="6">
         <v>19</v>
       </c>
-      <c r="EN23" s="4"/>
+      <c r="EN23" s="2"/>
       <c r="EO23" s="6">
         <v>19</v>
       </c>
-      <c r="EP23" s="2"/>
+      <c r="EP23" s="4"/>
       <c r="EQ23" s="6">
         <v>19</v>
       </c>
-      <c r="ER23" s="4"/>
+      <c r="ER23" s="2"/>
       <c r="ES23" s="6">
         <v>19</v>
       </c>
       <c r="ET23" s="4"/>
+      <c r="EU23" s="6">
+        <v>19</v>
+      </c>
+      <c r="EV23" s="4"/>
     </row>
-    <row r="24" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -12883,17 +13057,15 @@
       <c r="DY24" s="6">
         <v>20</v>
       </c>
-      <c r="DZ24" s="2"/>
+      <c r="DZ24" s="4"/>
       <c r="EA24" s="6">
         <v>20</v>
       </c>
-      <c r="EB24" s="4"/>
+      <c r="EB24" s="2"/>
       <c r="EC24" s="6">
         <v>20</v>
       </c>
-      <c r="ED24" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="ED24" s="4"/>
       <c r="EE24" s="6">
         <v>20</v>
       </c>
@@ -12903,7 +13075,9 @@
       <c r="EG24" s="6">
         <v>20</v>
       </c>
-      <c r="EH24" s="2"/>
+      <c r="EH24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="EI24" s="6">
         <v>20</v>
       </c>
@@ -12915,21 +13089,25 @@
       <c r="EM24" s="6">
         <v>20</v>
       </c>
-      <c r="EN24" s="4"/>
+      <c r="EN24" s="2"/>
       <c r="EO24" s="6">
         <v>20</v>
       </c>
-      <c r="EP24" s="2"/>
+      <c r="EP24" s="4"/>
       <c r="EQ24" s="6">
         <v>20</v>
       </c>
-      <c r="ER24" s="4"/>
+      <c r="ER24" s="2"/>
       <c r="ES24" s="6">
         <v>20</v>
       </c>
       <c r="ET24" s="4"/>
+      <c r="EU24" s="6">
+        <v>20</v>
+      </c>
+      <c r="EV24" s="4"/>
     </row>
-    <row r="25" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -13193,17 +13371,15 @@
       <c r="DY25" s="6">
         <v>21</v>
       </c>
-      <c r="DZ25" s="2"/>
+      <c r="DZ25" s="4"/>
       <c r="EA25" s="6">
         <v>21</v>
       </c>
-      <c r="EB25" s="4"/>
+      <c r="EB25" s="2"/>
       <c r="EC25" s="6">
         <v>21</v>
       </c>
-      <c r="ED25" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="ED25" s="4"/>
       <c r="EE25" s="6">
         <v>21</v>
       </c>
@@ -13213,7 +13389,9 @@
       <c r="EG25" s="6">
         <v>21</v>
       </c>
-      <c r="EH25" s="2"/>
+      <c r="EH25" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="EI25" s="6">
         <v>21</v>
       </c>
@@ -13225,21 +13403,25 @@
       <c r="EM25" s="6">
         <v>21</v>
       </c>
-      <c r="EN25" s="4"/>
+      <c r="EN25" s="2"/>
       <c r="EO25" s="6">
         <v>21</v>
       </c>
-      <c r="EP25" s="2"/>
+      <c r="EP25" s="4"/>
       <c r="EQ25" s="6">
         <v>21</v>
       </c>
-      <c r="ER25" s="4"/>
+      <c r="ER25" s="2"/>
       <c r="ES25" s="6">
         <v>21</v>
       </c>
       <c r="ET25" s="4"/>
+      <c r="EU25" s="6">
+        <v>21</v>
+      </c>
+      <c r="EV25" s="4"/>
     </row>
-    <row r="26" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -13503,21 +13685,21 @@
       <c r="DY26" s="6">
         <v>22</v>
       </c>
-      <c r="DZ26" s="2"/>
+      <c r="DZ26" s="4"/>
       <c r="EA26" s="6">
         <v>22</v>
       </c>
-      <c r="EB26" s="4"/>
+      <c r="EB26" s="2"/>
       <c r="EC26" s="6">
         <v>22</v>
       </c>
-      <c r="ED26" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="ED26" s="4"/>
       <c r="EE26" s="6">
         <v>22</v>
       </c>
-      <c r="EF26" s="2"/>
+      <c r="EF26" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="EG26" s="6">
         <v>22</v>
       </c>
@@ -13533,21 +13715,25 @@
       <c r="EM26" s="6">
         <v>22</v>
       </c>
-      <c r="EN26" s="4"/>
+      <c r="EN26" s="2"/>
       <c r="EO26" s="6">
         <v>22</v>
       </c>
-      <c r="EP26" s="2"/>
+      <c r="EP26" s="4"/>
       <c r="EQ26" s="6">
         <v>22</v>
       </c>
-      <c r="ER26" s="4"/>
+      <c r="ER26" s="2"/>
       <c r="ES26" s="6">
         <v>22</v>
       </c>
       <c r="ET26" s="4"/>
+      <c r="EU26" s="6">
+        <v>22</v>
+      </c>
+      <c r="EV26" s="4"/>
     </row>
-    <row r="27" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -13811,15 +13997,15 @@
       <c r="DY27" s="6">
         <v>23</v>
       </c>
-      <c r="DZ27" s="2"/>
+      <c r="DZ27" s="4"/>
       <c r="EA27" s="6">
         <v>23</v>
       </c>
-      <c r="EB27" s="4"/>
+      <c r="EB27" s="2"/>
       <c r="EC27" s="6">
         <v>23</v>
       </c>
-      <c r="ED27" s="2"/>
+      <c r="ED27" s="4"/>
       <c r="EE27" s="6">
         <v>23</v>
       </c>
@@ -13839,19 +14025,23 @@
       <c r="EM27" s="6">
         <v>23</v>
       </c>
-      <c r="EN27" s="4"/>
+      <c r="EN27" s="2"/>
       <c r="EO27" s="6">
         <v>23</v>
       </c>
-      <c r="EP27" s="2"/>
+      <c r="EP27" s="4"/>
       <c r="EQ27" s="6">
         <v>23</v>
       </c>
-      <c r="ER27" s="4"/>
+      <c r="ER27" s="2"/>
       <c r="ES27" s="6">
         <v>23</v>
       </c>
       <c r="ET27" s="4"/>
+      <c r="EU27" s="6">
+        <v>23</v>
+      </c>
+      <c r="EV27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src_dependency_tree.xlsx
+++ b/src_dependency_tree.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422E24FD-D2F8-4859-BCB1-F1B7E026EF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97DF523-FC48-40BE-8F43-4B8B6B15AF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22188" windowHeight="13176" xr2:uid="{0D147937-47FE-476D-B021-75096AF6095F}"/>
+    <workbookView xWindow="57480" yWindow="14325" windowWidth="29040" windowHeight="18240" xr2:uid="{0D147937-47FE-476D-B021-75096AF6095F}"/>
   </bookViews>
   <sheets>
     <sheet name="Compilation Order" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="206">
   <si>
     <t>constants.f90</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>array_data_types_instruction.f90</t>
-  </si>
-  <si>
-    <t>sort_interface.f90</t>
   </si>
   <si>
     <t>alloc_interface.f90</t>
@@ -670,6 +667,12 @@
   </si>
   <si>
     <t>Execute a command using the operating system shell and return the output from the command.</t>
+  </si>
+  <si>
+    <t>sort_interface_driver.f90 and sort submodules</t>
+  </si>
+  <si>
+    <t>Submodules:</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,6 +895,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235DC57-8223-4ADA-A635-C1797A680775}">
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -1216,109 +1222,109 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" style="26" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="1"/>
-    <col min="5" max="5" width="1.5546875" style="10" customWidth="1"/>
-    <col min="6" max="28" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="1.54296875" style="10" customWidth="1"/>
+    <col min="6" max="28" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="W1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="16">
         <v>1</v>
@@ -1348,15 +1354,15 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="15">
         <v>2</v>
@@ -1388,15 +1394,15 @@
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>131</v>
-      </c>
       <c r="C4" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
@@ -1425,15 +1431,15 @@
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
     </row>
-    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="15">
         <v>8</v>
@@ -1446,40 +1452,40 @@
         <v>10</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="Q5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -1491,15 +1497,15 @@
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
     </row>
-    <row r="6" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
@@ -1529,21 +1535,21 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="15">
         <v>2</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -1568,15 +1574,15 @@
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
     </row>
-    <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
@@ -1605,15 +1611,15 @@
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
     </row>
-    <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="15">
         <v>2</v>
@@ -1623,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1647,15 +1653,15 @@
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
     </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="15">
         <v>3</v>
@@ -1665,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1691,15 +1697,15 @@
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
     </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="C11" s="30" t="s">
         <v>141</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>142</v>
       </c>
       <c r="D11" s="15">
         <v>2</v>
@@ -1708,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1732,15 +1738,15 @@
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
     </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="15">
         <v>7</v>
@@ -1753,33 +1759,35 @@
         <v>10</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="14" t="s">
+      <c r="N12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="P12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
@@ -1792,15 +1800,15 @@
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
     </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="15">
         <v>11</v>
@@ -1810,81 +1818,84 @@
         <v>0</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="S13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="14" t="s">
+      <c r="T13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="V13" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="W13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="X13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="AA13" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="AB13" s="14" t="s">
         <v>95</v>
       </c>
+      <c r="AC13" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="15">
         <v>11</v>
@@ -1894,81 +1905,84 @@
         <v>0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="K14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="14" t="s">
+      <c r="S14" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" s="14" t="s">
+      <c r="T14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="V14" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="W14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="X14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="AA14" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA14" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="AB14" s="14" t="s">
         <v>95</v>
       </c>
+      <c r="AC14" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="15">
         <v>10</v>
@@ -1978,79 +1992,81 @@
         <v>0</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="K15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="14" t="s">
+      <c r="S15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="14" t="s">
+      <c r="T15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="V15" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="W15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="X15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="AA15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB15" s="14"/>
+      <c r="AB15" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="15">
         <v>9</v>
@@ -2060,77 +2076,79 @@
         <v>0</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="K16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="S16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R16" s="14" t="s">
+      <c r="T16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="V16" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>32</v>
       </c>
       <c r="X16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y16" s="14" t="s">
+      <c r="AA16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
     </row>
-    <row r="17" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="15">
         <v>6</v>
@@ -2143,24 +2161,26 @@
         <v>10</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -2176,15 +2196,15 @@
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
     </row>
-    <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="15">
         <v>4</v>
@@ -2197,10 +2217,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
@@ -2222,15 +2242,15 @@
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
     </row>
-    <row r="19" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="15">
         <v>4</v>
@@ -2243,18 +2263,20 @@
         <v>10</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
@@ -2272,15 +2294,15 @@
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
     </row>
-    <row r="20" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="15">
         <v>6</v>
@@ -2293,27 +2315,29 @@
         <v>10</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="14" t="s">
+      <c r="M20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O20" s="14"/>
+      <c r="O20" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
@@ -2328,15 +2352,15 @@
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
     </row>
-    <row r="21" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="15">
         <v>3</v>
@@ -2349,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -2372,15 +2396,15 @@
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
     </row>
-    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="15">
         <v>6</v>
@@ -2393,30 +2417,32 @@
         <v>10</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="14" t="s">
+      <c r="M22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" s="14"/>
+      <c r="P22" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -2430,15 +2456,15 @@
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
     </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="15">
         <v>2</v>
@@ -2448,12 +2474,14 @@
         <v>0</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -2474,22 +2502,22 @@
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
     </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="D24" s="15">
         <v>2</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2514,21 +2542,20 @@
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
     </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
       </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -2551,15 +2578,15 @@
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
     </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="15">
         <v>3</v>
@@ -2595,15 +2622,15 @@
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
     </row>
-    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>147</v>
-      </c>
       <c r="C27" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
@@ -2632,15 +2659,15 @@
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
     </row>
-    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28" s="15">
         <v>1</v>
@@ -2669,15 +2696,15 @@
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
     </row>
-    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="15">
         <v>1</v>
@@ -2707,15 +2734,15 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
@@ -2744,15 +2771,15 @@
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
     </row>
-    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
@@ -2781,15 +2808,15 @@
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
     </row>
-    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" s="15">
         <v>1</v>
@@ -2819,15 +2846,15 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -2857,15 +2884,15 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
@@ -2895,15 +2922,15 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>151</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>152</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
@@ -2932,21 +2959,21 @@
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
     </row>
-    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="15">
         <v>2</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -2971,26 +2998,40 @@
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
     </row>
-    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>166</v>
-      </c>
       <c r="D37" s="15">
         <v>1</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
@@ -3008,30 +3049,23 @@
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
     </row>
-    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="15">
         <v>2</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -3047,21 +3081,21 @@
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
     </row>
-    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="15">
         <v>2</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -3086,21 +3120,21 @@
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
     </row>
-    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" s="15">
         <v>2</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -3125,21 +3159,21 @@
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
     </row>
-    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" s="15">
         <v>2</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -3164,21 +3198,21 @@
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
     </row>
-    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42" s="15">
         <v>2</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -3203,21 +3237,21 @@
       <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
     </row>
-    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" s="15">
         <v>2</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -3242,15 +3276,15 @@
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
     </row>
-    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="15">
         <v>4</v>
@@ -3260,22 +3294,22 @@
         <v>0</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>9</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
@@ -3294,15 +3328,15 @@
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
     </row>
-    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="15">
         <v>3</v>
@@ -3340,15 +3374,15 @@
       <c r="AA45" s="14"/>
       <c r="AB45" s="14"/>
     </row>
-    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="15">
         <v>1</v>
@@ -3378,15 +3412,15 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
@@ -3416,15 +3450,15 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="15">
         <v>3</v>
@@ -3434,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -3460,15 +3494,15 @@
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
     </row>
-    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="15">
         <v>2</v>
@@ -3481,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -3504,15 +3538,15 @@
       <c r="AA49" s="14"/>
       <c r="AB49" s="14"/>
     </row>
-    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="15">
         <v>1</v>
@@ -3542,15 +3576,15 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
@@ -3580,15 +3614,15 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="D52" s="15">
         <v>5</v>
@@ -3601,21 +3635,23 @@
         <v>10</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M52" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
@@ -3632,15 +3668,15 @@
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
     </row>
-    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
@@ -3670,15 +3706,15 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="15">
         <v>1</v>
@@ -3708,15 +3744,15 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>76</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>77</v>
       </c>
       <c r="D55" s="15">
         <v>2</v>
@@ -3750,15 +3786,15 @@
       <c r="AA55" s="14"/>
       <c r="AB55" s="14"/>
     </row>
-    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="D56" s="15">
         <v>1</v>
@@ -3788,15 +3824,15 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="15">
         <v>1</v>
@@ -3826,15 +3862,15 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" s="15">
         <v>1</v>
@@ -3864,15 +3900,15 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="D59" s="15">
         <v>0</v>
@@ -3902,15 +3938,15 @@
       <c r="AA59" s="14"/>
       <c r="AB59" s="14"/>
     </row>
-    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>123</v>
       </c>
       <c r="D60" s="15">
         <v>2</v>
@@ -3920,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
@@ -3944,15 +3980,15 @@
       <c r="AA60" s="14"/>
       <c r="AB60" s="14"/>
     </row>
-    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
@@ -3982,15 +4018,15 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="15">
         <v>1</v>
@@ -4020,15 +4056,15 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D63" s="15">
         <v>8</v>
@@ -4038,42 +4074,44 @@
         <v>0</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K63" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N63" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L63" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M63" s="14" t="s">
+      <c r="O63" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P63" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N63" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P63" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="Q63" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="R63" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S63" s="14"/>
+      <c r="S63" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="T63" s="14"/>
       <c r="U63" s="14"/>
       <c r="V63" s="14"/>
@@ -4084,15 +4122,15 @@
       <c r="AA63" s="14"/>
       <c r="AB63" s="14"/>
     </row>
-    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="15">
         <v>1</v>
@@ -4122,15 +4160,15 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="15">
         <v>8</v>
@@ -4143,39 +4181,41 @@
         <v>10</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J65" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N65" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K65" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M65" s="14" t="s">
+      <c r="O65" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P65" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N65" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P65" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="Q65" s="14" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="R65" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S65" s="14"/>
+      <c r="S65" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="T65" s="14"/>
       <c r="U65" s="14"/>
       <c r="V65" s="14"/>
@@ -4186,15 +4226,15 @@
       <c r="AA65" s="14"/>
       <c r="AB65" s="14"/>
     </row>
-    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D66" s="15">
         <v>1</v>
@@ -4224,15 +4264,15 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
@@ -4263,15 +4303,15 @@
       <c r="AA67" s="14"/>
       <c r="AB67" s="14"/>
     </row>
-    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>125</v>
       </c>
       <c r="D68" s="15">
         <v>1</v>
@@ -4303,15 +4343,15 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D69" s="15">
         <v>1</v>
@@ -4340,15 +4380,15 @@
       <c r="AA69" s="14"/>
       <c r="AB69" s="14"/>
     </row>
-    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D70" s="15">
         <v>1</v>
@@ -4377,15 +4417,15 @@
       <c r="AA70" s="14"/>
       <c r="AB70" s="14"/>
     </row>
-    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
@@ -4415,15 +4455,15 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="15">
         <v>0</v>
@@ -4453,15 +4493,15 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="15">
         <v>1</v>
@@ -4491,15 +4531,15 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74" s="15">
         <v>2</v>
@@ -4533,15 +4573,15 @@
       <c r="AA74" s="14"/>
       <c r="AB74" s="14"/>
     </row>
-    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="C75" s="31" t="s">
         <v>183</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>184</v>
       </c>
       <c r="D75" s="15">
         <v>1</v>
@@ -4570,15 +4610,15 @@
       <c r="AA75" s="14"/>
       <c r="AB75" s="14"/>
     </row>
-    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D76" s="15">
         <v>1</v>
@@ -4608,15 +4648,15 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D77" s="15">
         <v>2</v>
@@ -4650,7 +4690,7 @@
       <c r="AA77" s="14"/>
       <c r="AB77" s="14"/>
     </row>
-    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="15"/>
       <c r="B78" s="23"/>
       <c r="C78" s="30"/>
@@ -4679,7 +4719,7 @@
       <c r="AA78" s="14"/>
       <c r="AB78" s="14"/>
     </row>
-    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="15"/>
       <c r="B79" s="23"/>
       <c r="C79" s="30"/>
@@ -4708,7 +4748,7 @@
       <c r="AA79" s="14"/>
       <c r="AB79" s="14"/>
     </row>
-    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="15"/>
       <c r="B80" s="23"/>
       <c r="C80" s="30"/>
@@ -4737,7 +4777,7 @@
       <c r="AA80" s="14"/>
       <c r="AB80" s="14"/>
     </row>
-    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="15"/>
       <c r="B81" s="23"/>
       <c r="C81" s="30"/>
@@ -4766,18 +4806,18 @@
       <c r="AA81" s="14"/>
       <c r="AB81" s="14"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B83" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
       <c r="B84" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="7">
         <v>8</v>
@@ -4793,31 +4833,31 @@
         <v>1</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K84" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L84" s="2" t="s">
+      <c r="M84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="O84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
@@ -4843,1693 +4883,1693 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E594B1-EC0E-4F70-863A-F6EBE967FA24}">
-  <dimension ref="A1:EV27"/>
+  <dimension ref="A1:EV29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="152" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="152" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:152" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="11"/>
       <c r="R1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S1" s="11"/>
       <c r="T1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U1" s="11"/>
       <c r="V1" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W1" s="12"/>
       <c r="X1" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y1" s="11"/>
       <c r="Z1" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC1" s="11"/>
       <c r="AD1" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE1" s="11"/>
       <c r="AF1" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG1" s="11"/>
       <c r="AH1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AI1" s="11"/>
       <c r="AJ1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM1" s="11"/>
       <c r="AN1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AO1" s="11"/>
       <c r="AP1" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AQ1" s="12"/>
       <c r="AR1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AS1" s="12"/>
       <c r="AT1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AU1" s="11"/>
       <c r="AV1" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AW1" s="11"/>
       <c r="AX1" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AY1" s="12"/>
       <c r="AZ1" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BA1" s="12"/>
       <c r="BB1" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BC1" s="11"/>
       <c r="BD1" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BE1" s="11"/>
       <c r="BF1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BG1" s="11"/>
       <c r="BH1" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BI1" s="11"/>
       <c r="BJ1" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK1" s="11"/>
       <c r="BL1" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BM1" s="12"/>
       <c r="BN1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BO1" s="11"/>
       <c r="BP1" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BQ1" s="11"/>
       <c r="BR1" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BS1" s="12"/>
       <c r="BT1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BU1" s="11"/>
       <c r="BV1" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BW1" s="12"/>
       <c r="BX1" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BY1" s="11"/>
       <c r="BZ1" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CA1" s="11"/>
       <c r="CB1" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CC1" s="11"/>
       <c r="CD1" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CE1" s="11"/>
       <c r="CF1" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CG1" s="11"/>
       <c r="CH1" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CI1" s="11"/>
       <c r="CJ1" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="CK1" s="11"/>
       <c r="CL1" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CM1" s="11"/>
       <c r="CN1" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CO1" s="11"/>
       <c r="CP1" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CQ1" s="11"/>
       <c r="CR1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CS1" s="11"/>
       <c r="CT1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CU1" s="11"/>
       <c r="CV1" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CW1" s="11"/>
       <c r="CX1" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="CY1" s="11"/>
       <c r="CZ1" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="DA1" s="11"/>
       <c r="DB1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DC1" s="11"/>
       <c r="DD1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DE1" s="11"/>
       <c r="DF1" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DG1" s="11"/>
       <c r="DH1" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DJ1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="DL1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="DL1" s="11" t="s">
+      <c r="DN1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="DP1" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="DN1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="DP1" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="DQ1" s="11"/>
       <c r="DR1" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DS1" s="11"/>
       <c r="DT1" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DU1" s="11"/>
       <c r="DV1" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DW1" s="11"/>
       <c r="DX1" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DY1" s="11"/>
       <c r="DZ1" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EA1" s="12"/>
       <c r="EB1" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EC1" s="11"/>
       <c r="ED1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="EE1" s="12"/>
       <c r="EF1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EG1" s="12"/>
       <c r="EH1" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="EI1" s="12"/>
       <c r="EJ1" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="EK1" s="12"/>
       <c r="EL1" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="EM1" s="12"/>
       <c r="EN1" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EO1" s="11"/>
       <c r="EP1" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EQ1" s="11"/>
       <c r="ER1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="ES1" s="11"/>
       <c r="ET1" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="EU1" s="11"/>
       <c r="EV1" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="13">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="13">
         <v>1</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="13">
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="13">
         <v>2</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="13">
         <v>1</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="13">
         <v>1</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P2" s="13">
         <v>1</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R2" s="13">
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T2" s="13">
         <v>0</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V2" s="13">
         <v>6</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X2" s="13">
         <v>2</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="13">
         <v>1</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="13">
         <v>1</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD2" s="13">
         <v>2</v>
       </c>
       <c r="AE2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF2" s="13">
         <v>1</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH2" s="13">
         <v>3</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ2" s="13">
         <v>2</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL2" s="13">
         <v>4</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="13">
         <v>4</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP2" s="13">
         <v>7</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AR2" s="13">
         <v>6</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AT2" s="13">
         <v>3</v>
       </c>
       <c r="AU2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AV2" s="13">
         <v>6</v>
       </c>
       <c r="AW2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AX2" s="13">
         <v>6</v>
       </c>
       <c r="AY2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AZ2" s="13">
         <v>1</v>
       </c>
       <c r="BA2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BB2" s="13">
         <v>1</v>
       </c>
       <c r="BC2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BD2" s="13">
         <v>1</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BF2" s="13">
         <v>3</v>
       </c>
       <c r="BG2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BH2" s="13">
         <v>1</v>
       </c>
       <c r="BI2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BJ2" s="13">
         <v>1</v>
       </c>
       <c r="BK2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BL2" s="13">
         <v>8</v>
       </c>
       <c r="BM2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BN2" s="13">
         <v>2</v>
       </c>
       <c r="BO2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP2" s="13">
         <v>1</v>
       </c>
       <c r="BQ2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR2" s="13">
         <v>11</v>
       </c>
       <c r="BS2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT2" s="13">
         <v>1</v>
       </c>
       <c r="BU2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV2" s="13">
         <v>8</v>
       </c>
       <c r="BW2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX2" s="13">
         <v>1</v>
       </c>
       <c r="BY2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ2" s="13">
         <v>1</v>
       </c>
       <c r="CA2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB2" s="13">
         <v>1</v>
       </c>
       <c r="CC2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD2" s="13">
         <v>3</v>
       </c>
       <c r="CE2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF2" s="13">
         <v>1</v>
       </c>
       <c r="CG2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH2" s="13">
         <v>2</v>
       </c>
       <c r="CI2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CJ2" s="13">
         <v>2</v>
       </c>
       <c r="CK2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CL2" s="13">
         <v>2</v>
       </c>
       <c r="CM2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CN2" s="13">
         <v>1</v>
       </c>
       <c r="CO2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CP2" s="13">
         <v>1</v>
       </c>
       <c r="CQ2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CR2" s="13">
         <v>1</v>
       </c>
       <c r="CS2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CT2" s="13">
         <v>1</v>
       </c>
       <c r="CU2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CV2" s="13">
         <v>1</v>
       </c>
       <c r="CW2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CX2" s="13">
         <v>1</v>
       </c>
       <c r="CY2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CZ2" s="13">
         <v>1</v>
       </c>
       <c r="DA2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DB2" s="13">
         <v>1</v>
       </c>
       <c r="DC2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DD2" s="13">
         <v>1</v>
       </c>
       <c r="DE2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DF2" s="13">
         <v>1</v>
       </c>
       <c r="DG2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DH2" s="13">
         <v>1</v>
       </c>
       <c r="DI2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DJ2" s="13">
         <v>1</v>
       </c>
       <c r="DK2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DL2" s="13">
         <v>1</v>
       </c>
       <c r="DM2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DN2" s="13">
         <v>1</v>
       </c>
       <c r="DO2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DP2" s="13">
         <v>1</v>
       </c>
       <c r="DQ2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DR2" s="13">
         <v>1</v>
       </c>
       <c r="DS2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DT2" s="13">
         <v>1</v>
       </c>
       <c r="DU2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DV2" s="13">
         <v>5</v>
       </c>
       <c r="DW2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX2" s="13">
         <v>11</v>
       </c>
       <c r="DY2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DZ2" s="13">
         <v>1</v>
       </c>
       <c r="EA2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EB2" s="13">
         <v>8</v>
       </c>
       <c r="EC2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="ED2" s="13">
         <v>1</v>
       </c>
       <c r="EE2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EF2" s="13">
         <v>10</v>
       </c>
       <c r="EG2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EH2" s="13">
         <v>9</v>
       </c>
       <c r="EI2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EJ2" s="13">
         <v>1</v>
       </c>
       <c r="EK2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EL2" s="13">
         <v>1</v>
       </c>
       <c r="EM2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EN2" s="13">
         <v>2</v>
       </c>
       <c r="EO2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EP2" s="13">
         <v>1</v>
       </c>
       <c r="EQ2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="ER2" s="13">
         <v>3</v>
       </c>
       <c r="ES2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="ET2" s="13">
         <v>1</v>
       </c>
       <c r="EU2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="EV2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:152" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:152" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="M3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="O3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="Y3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="BW3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="CC3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD3" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="CE3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH3" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="CM3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="CO3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CP3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="CQ3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="CS3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="CU3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="CW3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="CY3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CZ3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="DA3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="DC3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="DE3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="DG3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DH3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="DI3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="DK3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DL3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="DM3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DN3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="DO3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DP3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="DQ3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DR3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="DS3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DT3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="DU3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DV3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DX3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="DY3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ3" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="EB3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="EC3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="ED3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="18" t="s">
+      <c r="EE3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="EF3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="EG3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="EH3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="EI3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="EJ3" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="EK3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="EL3" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="EN3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="EO3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP3" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="EQ3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="ER3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="ES3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="ET3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ3" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="AY3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="BC3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF3" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="BG3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="BI3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="BK3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="BM3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN3" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="BO3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="BQ3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="BS3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BT3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BV3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="BW3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BX3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="BY3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="BZ3" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="CA3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CB3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="CC3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CD3" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="CE3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CF3" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="CG3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CH3" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="CI3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CJ3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="CK3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CL3" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="CM3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CN3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="CO3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CP3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="CQ3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CR3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="CS3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CT3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="CU3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CV3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="CW3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CX3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="CY3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="CZ3" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="DA3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DB3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="DC3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DD3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="DE3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DF3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DG3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DH3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DI3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DJ3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DK3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DL3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DN3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DP3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DR3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DT3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DV3" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="DW3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DX3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="DY3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="DZ3" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="EA3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="ED3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="EE3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="EF3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="EG3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="EH3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="EI3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="EJ3" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="EK3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="EL3" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="EM3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="EN3" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="EO3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="EP3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="EQ3" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="ER3" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="ES3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="ET3" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="EU3" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="EV3" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:152" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:152" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AE4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="AG4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AP4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AQ4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AS4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AS4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV4" s="5" t="s">
+      <c r="AW4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AW4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB4" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="BC4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BD4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="BE4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BF4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BG4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BH4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BI4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BJ4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BU4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BW4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BX4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BZ4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="CA4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB4" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="BK4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BL4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BN4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BP4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BR4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BT4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BU4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BV4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BX4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BY4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BZ4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="CA4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CB4" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="CC4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CD4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="CE4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CF4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CG4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="CI4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CK4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CG4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CH4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CJ4" s="5" t="s">
+      <c r="CM4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="CO4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="CS4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CT4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="CU4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CV4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="CW4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CX4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="CY4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DA4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DB4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DD4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DE4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DF4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="DG4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DH4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="DI4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="DK4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DL4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DM4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DN4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DO4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="DQ4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DR4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="DS4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="DU4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CK4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CL4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CN4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="CO4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CP4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="CQ4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CR4" s="5" t="s">
+      <c r="DW4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DX4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="DY4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="DZ4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EB4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="EC4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="ED4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="EE4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EF4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="EG4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EH4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="EI4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="EK4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EL4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="EM4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EN4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="CS4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CT4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CV4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="CW4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CX4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="CY4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CZ4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DB4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="DC4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DD4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="DE4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DF4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DG4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DH4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="DI4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DJ4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DK4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DL4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DM4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DN4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DO4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DP4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="DQ4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DR4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DT4" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DU4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DV4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="DW4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DX4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="DY4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="DZ4" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="EA4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="EB4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="EC4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="ED4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="EE4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="EF4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="EG4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="EH4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="EI4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="EJ4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="EK4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="EL4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="EM4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="EN4" s="5" t="s">
+      <c r="EO4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EP4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="EQ4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="ER4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="EO4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="EP4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="EQ4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="ER4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="ES4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="ET4" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="EU4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="EV4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -6598,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE5" s="6">
         <v>1</v>
@@ -6798,49 +6838,49 @@
         <v>1</v>
       </c>
       <c r="DF5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DG5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="DG5" s="6">
-        <v>1</v>
-      </c>
-      <c r="DH5" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="DI5" s="6">
         <v>1</v>
       </c>
       <c r="DJ5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DK5" s="6">
         <v>1</v>
       </c>
       <c r="DL5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DM5" s="6">
         <v>1</v>
       </c>
       <c r="DN5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DO5" s="6">
         <v>1</v>
       </c>
       <c r="DP5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DQ5" s="6">
         <v>1</v>
       </c>
       <c r="DR5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DS5" s="6">
         <v>1</v>
       </c>
       <c r="DT5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DU5" s="6">
         <v>1</v>
@@ -6912,19 +6952,19 @@
         <v>1</v>
       </c>
       <c r="ET5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="EU5" s="6">
         <v>1</v>
       </c>
       <c r="EV5" s="4"/>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -6942,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K6" s="6">
         <v>2</v>
@@ -7000,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" s="6">
         <v>2</v>
@@ -7042,7 +7082,7 @@
         <v>2</v>
       </c>
       <c r="AX6" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AY6" s="6">
         <v>2</v>
@@ -7060,7 +7100,7 @@
         <v>2</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BG6" s="6">
         <v>2</v>
@@ -7074,7 +7114,7 @@
         <v>2</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BM6" s="6">
         <v>2</v>
@@ -7090,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS6" s="6">
         <v>2</v>
@@ -7140,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="CL6" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="CM6" s="6">
         <v>2</v>
@@ -7186,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="DH6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DI6" s="6">
         <v>2</v>
@@ -7222,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="DX6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="DY6" s="6">
         <v>2</v>
@@ -7242,13 +7282,13 @@
         <v>2</v>
       </c>
       <c r="EF6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EG6" s="6">
         <v>2</v>
       </c>
       <c r="EH6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EI6" s="6">
         <v>2</v>
@@ -7272,7 +7312,7 @@
         <v>2</v>
       </c>
       <c r="ER6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="ES6" s="6">
         <v>2</v>
@@ -7283,7 +7323,7 @@
       </c>
       <c r="EV6" s="4"/>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -7330,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="W7" s="6">
         <v>3</v>
@@ -7366,37 +7406,37 @@
         <v>3</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM7" s="6">
         <v>3</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="AO7" s="6">
         <v>3</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="AQ7" s="6">
         <v>3</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="AS7" s="6">
         <v>3</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AU7" s="6">
         <v>3</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="AW7" s="6">
         <v>3</v>
@@ -7418,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BG7" s="6">
         <v>3</v>
@@ -7438,7 +7478,7 @@
         <v>3</v>
       </c>
       <c r="BN7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BO7" s="6">
         <v>3</v>
@@ -7458,7 +7498,7 @@
         <v>3</v>
       </c>
       <c r="BV7" s="2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="BW7" s="6">
         <v>3</v>
@@ -7494,7 +7534,7 @@
         <v>3</v>
       </c>
       <c r="CL7" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="CM7" s="6">
         <v>3</v>
@@ -7539,7 +7579,7 @@
         <v>3</v>
       </c>
       <c r="DH7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DI7" s="6">
         <v>3</v>
@@ -7569,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="DV7" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="DW7" s="6">
         <v>3</v>
@@ -7585,7 +7625,7 @@
         <v>3</v>
       </c>
       <c r="EB7" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="EC7" s="6">
         <v>3</v>
@@ -7623,7 +7663,7 @@
         <v>3</v>
       </c>
       <c r="ER7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="ES7" s="6">
         <v>3</v>
@@ -7634,12 +7674,12 @@
       </c>
       <c r="EV7" s="4"/>
     </row>
-    <row r="8" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
@@ -7681,7 +7721,7 @@
         <v>4</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="W8" s="6">
         <v>4</v>
@@ -7715,25 +7755,25 @@
         <v>4</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM8" s="6">
         <v>4</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="AO8" s="6">
         <v>4</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="6">
         <v>4</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="AS8" s="6">
         <v>4</v>
@@ -7743,7 +7783,7 @@
         <v>4</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="AW8" s="6">
         <v>4</v>
@@ -7777,7 +7817,7 @@
         <v>4</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="BM8" s="6">
         <v>4</v>
@@ -7791,7 +7831,7 @@
         <v>4</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="BS8" s="6">
         <v>4</v>
@@ -7801,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="BV8" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BW8" s="6">
         <v>4</v>
@@ -7836,7 +7876,9 @@
       <c r="CK8" s="6">
         <v>4</v>
       </c>
-      <c r="CL8" s="2"/>
+      <c r="CL8" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="CM8" s="6">
         <v>4</v>
       </c>
@@ -7880,7 +7922,7 @@
         <v>4</v>
       </c>
       <c r="DH8" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DI8" s="6">
         <v>4</v>
@@ -7910,13 +7952,13 @@
         <v>4</v>
       </c>
       <c r="DV8" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="DW8" s="6">
         <v>4</v>
       </c>
       <c r="DX8" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="DY8" s="6">
         <v>4</v>
@@ -7926,7 +7968,7 @@
         <v>4</v>
       </c>
       <c r="EB8" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EC8" s="6">
         <v>4</v>
@@ -7936,13 +7978,13 @@
         <v>4</v>
       </c>
       <c r="EF8" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="EG8" s="6">
         <v>4</v>
       </c>
       <c r="EH8" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="EI8" s="6">
         <v>4</v>
@@ -7973,12 +8015,12 @@
       </c>
       <c r="EV8" s="4"/>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
@@ -8020,7 +8062,7 @@
         <v>5</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="W9" s="6">
         <v>5</v>
@@ -8058,19 +8100,19 @@
         <v>5</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="AO9" s="6">
         <v>5</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="AQ9" s="6">
         <v>5</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="AS9" s="6">
         <v>5</v>
@@ -8080,7 +8122,7 @@
         <v>5</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="AW9" s="6">
         <v>5</v>
@@ -8114,7 +8156,7 @@
         <v>5</v>
       </c>
       <c r="BL9" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BM9" s="6">
         <v>5</v>
@@ -8128,7 +8170,7 @@
         <v>5</v>
       </c>
       <c r="BR9" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="BS9" s="6">
         <v>5</v>
@@ -8138,7 +8180,7 @@
         <v>5</v>
       </c>
       <c r="BV9" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="BW9" s="6">
         <v>5</v>
@@ -8215,7 +8257,7 @@
         <v>5</v>
       </c>
       <c r="DH9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DI9" s="6">
         <v>5</v>
@@ -8245,13 +8287,13 @@
         <v>5</v>
       </c>
       <c r="DV9" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="DW9" s="6">
         <v>5</v>
       </c>
       <c r="DX9" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="DY9" s="6">
         <v>5</v>
@@ -8261,7 +8303,7 @@
         <v>5</v>
       </c>
       <c r="EB9" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="EC9" s="6">
         <v>5</v>
@@ -8271,13 +8313,13 @@
         <v>5</v>
       </c>
       <c r="EF9" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="EG9" s="6">
         <v>5</v>
       </c>
       <c r="EH9" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="EI9" s="6">
         <v>5</v>
@@ -8308,12 +8350,12 @@
       </c>
       <c r="EV9" s="4"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6">
         <v>6</v>
@@ -8355,7 +8397,7 @@
         <v>6</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="W10" s="6">
         <v>6</v>
@@ -8393,19 +8435,19 @@
         <v>6</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="AO10" s="6">
         <v>6</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="AQ10" s="6">
         <v>6</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="AS10" s="6">
         <v>6</v>
@@ -8415,7 +8457,7 @@
         <v>6</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="AW10" s="6">
         <v>6</v>
@@ -8449,7 +8491,7 @@
         <v>6</v>
       </c>
       <c r="BL10" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="BM10" s="6">
         <v>6</v>
@@ -8463,7 +8505,7 @@
         <v>6</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="BS10" s="6">
         <v>6</v>
@@ -8473,7 +8515,7 @@
         <v>6</v>
       </c>
       <c r="BV10" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="BW10" s="6">
         <v>6</v>
@@ -8550,7 +8592,7 @@
         <v>6</v>
       </c>
       <c r="DH10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DI10" s="6">
         <v>6</v>
@@ -8579,13 +8621,13 @@
         <v>6</v>
       </c>
       <c r="DV10" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="DW10" s="6">
         <v>6</v>
       </c>
       <c r="DX10" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="DY10" s="6">
         <v>6</v>
@@ -8595,7 +8637,7 @@
         <v>6</v>
       </c>
       <c r="EB10" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="EC10" s="6">
         <v>6</v>
@@ -8605,13 +8647,13 @@
         <v>6</v>
       </c>
       <c r="EF10" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="EG10" s="6">
         <v>6</v>
       </c>
       <c r="EH10" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="EI10" s="6">
         <v>6</v>
@@ -8642,12 +8684,12 @@
       </c>
       <c r="EV10" s="4"/>
     </row>
-    <row r="11" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6">
         <v>7</v>
@@ -8689,7 +8731,7 @@
         <v>7</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="W11" s="6">
         <v>7</v>
@@ -8726,18 +8768,20 @@
       <c r="AM11" s="6">
         <v>7</v>
       </c>
-      <c r="AN11" s="2"/>
+      <c r="AN11" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="AO11" s="6">
         <v>7</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="AQ11" s="6">
         <v>7</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AS11" s="6">
         <v>7</v>
@@ -8747,7 +8791,7 @@
         <v>7</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AW11" s="6">
         <v>7</v>
@@ -8781,7 +8825,7 @@
         <v>7</v>
       </c>
       <c r="BL11" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="BM11" s="6">
         <v>7</v>
@@ -8795,7 +8839,7 @@
         <v>7</v>
       </c>
       <c r="BR11" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="6">
         <v>7</v>
@@ -8805,7 +8849,7 @@
         <v>7</v>
       </c>
       <c r="BV11" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="BW11" s="6">
         <v>7</v>
@@ -8882,7 +8926,7 @@
         <v>7</v>
       </c>
       <c r="DH11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DI11" s="6">
         <v>7</v>
@@ -8911,13 +8955,13 @@
         <v>7</v>
       </c>
       <c r="DV11" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="DW11" s="6">
         <v>7</v>
       </c>
       <c r="DX11" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="DY11" s="6">
         <v>7</v>
@@ -8927,7 +8971,7 @@
         <v>7</v>
       </c>
       <c r="EB11" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="EC11" s="6">
         <v>7</v>
@@ -8937,13 +8981,13 @@
         <v>7</v>
       </c>
       <c r="EF11" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="EG11" s="6">
         <v>7</v>
       </c>
       <c r="EH11" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="EI11" s="6">
         <v>7</v>
@@ -8974,7 +9018,7 @@
       </c>
       <c r="EV11" s="4"/>
     </row>
-    <row r="12" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -9019,7 +9063,7 @@
         <v>8</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W12" s="6">
         <v>8</v>
@@ -9061,13 +9105,13 @@
         <v>8</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AQ12" s="6">
         <v>8</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AS12" s="6">
         <v>8</v>
@@ -9077,7 +9121,7 @@
         <v>8</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="AW12" s="6">
         <v>8</v>
@@ -9111,7 +9155,7 @@
         <v>8</v>
       </c>
       <c r="BL12" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="BM12" s="6">
         <v>8</v>
@@ -9125,7 +9169,7 @@
         <v>8</v>
       </c>
       <c r="BR12" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="BS12" s="6">
         <v>8</v>
@@ -9135,7 +9179,7 @@
         <v>8</v>
       </c>
       <c r="BV12" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="BW12" s="6">
         <v>8</v>
@@ -9237,12 +9281,14 @@
       <c r="DU12" s="6">
         <v>8</v>
       </c>
-      <c r="DV12" s="2"/>
+      <c r="DV12" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="DW12" s="6">
         <v>8</v>
       </c>
       <c r="DX12" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="DY12" s="6">
         <v>8</v>
@@ -9252,7 +9298,7 @@
         <v>8</v>
       </c>
       <c r="EB12" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="EC12" s="6">
         <v>8</v>
@@ -9262,13 +9308,13 @@
         <v>8</v>
       </c>
       <c r="EF12" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="EG12" s="6">
         <v>8</v>
       </c>
       <c r="EH12" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="EI12" s="6">
         <v>8</v>
@@ -9299,7 +9345,7 @@
       </c>
       <c r="EV12" s="4"/>
     </row>
-    <row r="13" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -9343,7 +9389,9 @@
       <c r="U13" s="6">
         <v>9</v>
       </c>
-      <c r="V13" s="2"/>
+      <c r="V13" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="W13" s="6">
         <v>9</v>
       </c>
@@ -9384,13 +9432,13 @@
         <v>9</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AQ13" s="6">
         <v>9</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AS13" s="6">
         <v>9</v>
@@ -9400,7 +9448,7 @@
         <v>9</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AW13" s="6">
         <v>9</v>
@@ -9434,7 +9482,7 @@
         <v>9</v>
       </c>
       <c r="BL13" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="BM13" s="6">
         <v>9</v>
@@ -9448,7 +9496,7 @@
         <v>9</v>
       </c>
       <c r="BR13" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="BS13" s="6">
         <v>9</v>
@@ -9458,7 +9506,7 @@
         <v>9</v>
       </c>
       <c r="BV13" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="BW13" s="6">
         <v>9</v>
@@ -9566,7 +9614,7 @@
         <v>9</v>
       </c>
       <c r="DX13" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="DY13" s="6">
         <v>9</v>
@@ -9576,7 +9624,7 @@
         <v>9</v>
       </c>
       <c r="EB13" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="EC13" s="6">
         <v>9</v>
@@ -9586,13 +9634,13 @@
         <v>9</v>
       </c>
       <c r="EF13" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="EG13" s="6">
         <v>9</v>
       </c>
       <c r="EH13" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="EI13" s="6">
         <v>9</v>
@@ -9623,7 +9671,7 @@
       </c>
       <c r="EV13" s="4"/>
     </row>
-    <row r="14" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -9708,12 +9756,14 @@
         <v>10</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AQ14" s="6">
         <v>10</v>
       </c>
-      <c r="AR14" s="2"/>
+      <c r="AR14" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AS14" s="6">
         <v>10</v>
       </c>
@@ -9722,7 +9772,7 @@
         <v>10</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW14" s="6">
         <v>10</v>
@@ -9756,7 +9806,7 @@
         <v>10</v>
       </c>
       <c r="BL14" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="BM14" s="6">
         <v>10</v>
@@ -9770,7 +9820,7 @@
         <v>10</v>
       </c>
       <c r="BR14" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="BS14" s="6">
         <v>10</v>
@@ -9780,7 +9830,7 @@
         <v>10</v>
       </c>
       <c r="BV14" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="BW14" s="6">
         <v>10</v>
@@ -9888,7 +9938,7 @@
         <v>10</v>
       </c>
       <c r="DX14" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="DY14" s="6">
         <v>10</v>
@@ -9898,7 +9948,7 @@
         <v>10</v>
       </c>
       <c r="EB14" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="EC14" s="6">
         <v>10</v>
@@ -9908,13 +9958,13 @@
         <v>10</v>
       </c>
       <c r="EF14" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="EG14" s="6">
         <v>10</v>
       </c>
       <c r="EH14" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="EI14" s="6">
         <v>10</v>
@@ -9945,7 +9995,7 @@
       </c>
       <c r="EV14" s="4"/>
     </row>
-    <row r="15" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -10030,7 +10080,7 @@
         <v>11</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="AQ15" s="6">
         <v>11</v>
@@ -10043,7 +10093,9 @@
       <c r="AU15" s="6">
         <v>11</v>
       </c>
-      <c r="AV15" s="2"/>
+      <c r="AV15" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="AW15" s="6">
         <v>11</v>
       </c>
@@ -10076,7 +10128,7 @@
         <v>11</v>
       </c>
       <c r="BL15" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BM15" s="6">
         <v>11</v>
@@ -10090,7 +10142,7 @@
         <v>11</v>
       </c>
       <c r="BR15" s="2" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="BS15" s="6">
         <v>11</v>
@@ -10100,7 +10152,7 @@
         <v>11</v>
       </c>
       <c r="BV15" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BW15" s="6">
         <v>11</v>
@@ -10210,7 +10262,7 @@
         <v>11</v>
       </c>
       <c r="DX15" s="2" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="DY15" s="6">
         <v>11</v>
@@ -10220,7 +10272,7 @@
         <v>11</v>
       </c>
       <c r="EB15" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="EC15" s="6">
         <v>11</v>
@@ -10230,13 +10282,13 @@
         <v>11</v>
       </c>
       <c r="EF15" s="2" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="EG15" s="6">
         <v>11</v>
       </c>
       <c r="EH15" s="2" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="EI15" s="6">
         <v>11</v>
@@ -10267,7 +10319,7 @@
       </c>
       <c r="EV15" s="4"/>
     </row>
-    <row r="16" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -10351,7 +10403,9 @@
       <c r="AO16" s="6">
         <v>12</v>
       </c>
-      <c r="AP16" s="2"/>
+      <c r="AP16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ16" s="6">
         <v>12</v>
       </c>
@@ -10396,7 +10450,7 @@
         <v>12</v>
       </c>
       <c r="BL16" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="BM16" s="6">
         <v>12</v>
@@ -10410,7 +10464,7 @@
         <v>12</v>
       </c>
       <c r="BR16" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="BS16" s="6">
         <v>12</v>
@@ -10420,7 +10474,7 @@
         <v>12</v>
       </c>
       <c r="BV16" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="BW16" s="6">
         <v>12</v>
@@ -10530,7 +10584,7 @@
         <v>12</v>
       </c>
       <c r="DX16" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="DY16" s="6">
         <v>12</v>
@@ -10540,7 +10594,7 @@
         <v>12</v>
       </c>
       <c r="EB16" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="EC16" s="6">
         <v>12</v>
@@ -10550,13 +10604,13 @@
         <v>12</v>
       </c>
       <c r="EF16" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="EG16" s="6">
         <v>12</v>
       </c>
       <c r="EH16" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="EI16" s="6">
         <v>12</v>
@@ -10587,7 +10641,7 @@
       </c>
       <c r="EV16" s="4"/>
     </row>
-    <row r="17" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -10730,7 +10784,7 @@
         <v>13</v>
       </c>
       <c r="BR17" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="BS17" s="6">
         <v>13</v>
@@ -10850,7 +10904,7 @@
         <v>13</v>
       </c>
       <c r="DX17" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="DY17" s="6">
         <v>13</v>
@@ -10860,7 +10914,7 @@
         <v>13</v>
       </c>
       <c r="EB17" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="EC17" s="6">
         <v>13</v>
@@ -10870,13 +10924,13 @@
         <v>13</v>
       </c>
       <c r="EF17" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="EG17" s="6">
         <v>13</v>
       </c>
       <c r="EH17" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="EI17" s="6">
         <v>13</v>
@@ -10907,7 +10961,7 @@
       </c>
       <c r="EV17" s="4"/>
     </row>
-    <row r="18" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -11035,7 +11089,9 @@
       <c r="BK18" s="6">
         <v>14</v>
       </c>
-      <c r="BL18" s="2"/>
+      <c r="BL18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="BM18" s="6">
         <v>14</v>
       </c>
@@ -11048,7 +11104,7 @@
         <v>14</v>
       </c>
       <c r="BR18" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="BS18" s="6">
         <v>14</v>
@@ -11057,7 +11113,9 @@
       <c r="BU18" s="6">
         <v>14</v>
       </c>
-      <c r="BV18" s="2"/>
+      <c r="BV18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="BW18" s="6">
         <v>14</v>
       </c>
@@ -11166,7 +11224,7 @@
         <v>14</v>
       </c>
       <c r="DX18" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="DY18" s="6">
         <v>14</v>
@@ -11186,13 +11244,13 @@
         <v>14</v>
       </c>
       <c r="EF18" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="EG18" s="6">
         <v>14</v>
       </c>
       <c r="EH18" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="EI18" s="6">
         <v>14</v>
@@ -11223,7 +11281,7 @@
       </c>
       <c r="EV18" s="4"/>
     </row>
-    <row r="19" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -11364,7 +11422,7 @@
         <v>15</v>
       </c>
       <c r="BR19" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="BS19" s="6">
         <v>15</v>
@@ -11482,7 +11540,7 @@
         <v>15</v>
       </c>
       <c r="DX19" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="DY19" s="6">
         <v>15</v>
@@ -11491,7 +11549,9 @@
       <c r="EA19" s="6">
         <v>15</v>
       </c>
-      <c r="EB19" s="2"/>
+      <c r="EB19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="EC19" s="6">
         <v>15</v>
       </c>
@@ -11500,13 +11560,13 @@
         <v>15</v>
       </c>
       <c r="EF19" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="EG19" s="6">
         <v>15</v>
       </c>
       <c r="EH19" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="EI19" s="6">
         <v>15</v>
@@ -11537,7 +11597,7 @@
       </c>
       <c r="EV19" s="4"/>
     </row>
-    <row r="20" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -11678,7 +11738,7 @@
         <v>16</v>
       </c>
       <c r="BR20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BS20" s="6">
         <v>16</v>
@@ -11796,7 +11856,7 @@
         <v>16</v>
       </c>
       <c r="DX20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="DY20" s="6">
         <v>16</v>
@@ -11814,13 +11874,13 @@
         <v>16</v>
       </c>
       <c r="EF20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="EG20" s="6">
         <v>16</v>
       </c>
       <c r="EH20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="EI20" s="6">
         <v>16</v>
@@ -11851,7 +11911,7 @@
       </c>
       <c r="EV20" s="4"/>
     </row>
-    <row r="21" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -11992,7 +12052,7 @@
         <v>17</v>
       </c>
       <c r="BR21" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="BS21" s="6">
         <v>17</v>
@@ -12110,7 +12170,7 @@
         <v>17</v>
       </c>
       <c r="DX21" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="DY21" s="6">
         <v>17</v>
@@ -12128,13 +12188,13 @@
         <v>17</v>
       </c>
       <c r="EF21" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="EG21" s="6">
         <v>17</v>
       </c>
       <c r="EH21" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="EI21" s="6">
         <v>17</v>
@@ -12165,7 +12225,7 @@
       </c>
       <c r="EV21" s="4"/>
     </row>
-    <row r="22" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -12479,7 +12539,7 @@
       </c>
       <c r="EV22" s="4"/>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -12620,7 +12680,7 @@
         <v>19</v>
       </c>
       <c r="BR23" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="BS23" s="6">
         <v>19</v>
@@ -12738,7 +12798,7 @@
         <v>19</v>
       </c>
       <c r="DX23" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="DY23" s="6">
         <v>19</v>
@@ -12756,13 +12816,13 @@
         <v>19</v>
       </c>
       <c r="EF23" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="EG23" s="6">
         <v>19</v>
       </c>
       <c r="EH23" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="EI23" s="6">
         <v>19</v>
@@ -12793,7 +12853,7 @@
       </c>
       <c r="EV23" s="4"/>
     </row>
-    <row r="24" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -12934,7 +12994,7 @@
         <v>20</v>
       </c>
       <c r="BR24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BS24" s="6">
         <v>20</v>
@@ -13052,7 +13112,7 @@
         <v>20</v>
       </c>
       <c r="DX24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="DY24" s="6">
         <v>20</v>
@@ -13070,13 +13130,13 @@
         <v>20</v>
       </c>
       <c r="EF24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="EG24" s="6">
         <v>20</v>
       </c>
       <c r="EH24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="EI24" s="6">
         <v>20</v>
@@ -13107,7 +13167,7 @@
       </c>
       <c r="EV24" s="4"/>
     </row>
-    <row r="25" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -13248,7 +13308,7 @@
         <v>21</v>
       </c>
       <c r="BR25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BS25" s="6">
         <v>21</v>
@@ -13366,7 +13426,7 @@
         <v>21</v>
       </c>
       <c r="DX25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="DY25" s="6">
         <v>21</v>
@@ -13384,13 +13444,13 @@
         <v>21</v>
       </c>
       <c r="EF25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="EG25" s="6">
         <v>21</v>
       </c>
       <c r="EH25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="EI25" s="6">
         <v>21</v>
@@ -13421,7 +13481,7 @@
       </c>
       <c r="EV25" s="4"/>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -13562,7 +13622,7 @@
         <v>22</v>
       </c>
       <c r="BR26" s="2" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="BS26" s="6">
         <v>22</v>
@@ -13680,7 +13740,7 @@
         <v>22</v>
       </c>
       <c r="DX26" s="2" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="DY26" s="6">
         <v>22</v>
@@ -13698,12 +13758,14 @@
         <v>22</v>
       </c>
       <c r="EF26" s="2" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="EG26" s="6">
         <v>22</v>
       </c>
-      <c r="EH26" s="2"/>
+      <c r="EH26" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="EI26" s="6">
         <v>22</v>
       </c>
@@ -13733,7 +13795,7 @@
       </c>
       <c r="EV26" s="4"/>
     </row>
-    <row r="27" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -14009,7 +14071,9 @@
       <c r="EE27" s="6">
         <v>23</v>
       </c>
-      <c r="EF27" s="2"/>
+      <c r="EF27" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="EG27" s="6">
         <v>23</v>
       </c>
@@ -14042,6 +14106,472 @@
         <v>23</v>
       </c>
       <c r="EV27" s="4"/>
+    </row>
+    <row r="28" spans="1:152" x14ac:dyDescent="0.35">
+      <c r="A28" s="33">
+        <v>24</v>
+      </c>
+      <c r="C28" s="33">
+        <v>24</v>
+      </c>
+      <c r="E28" s="33">
+        <v>24</v>
+      </c>
+      <c r="G28" s="33">
+        <v>24</v>
+      </c>
+      <c r="I28" s="33">
+        <v>24</v>
+      </c>
+      <c r="K28" s="33">
+        <v>24</v>
+      </c>
+      <c r="M28" s="33">
+        <v>24</v>
+      </c>
+      <c r="O28" s="33">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>24</v>
+      </c>
+      <c r="S28" s="33">
+        <v>24</v>
+      </c>
+      <c r="U28" s="33">
+        <v>24</v>
+      </c>
+      <c r="W28" s="33">
+        <v>24</v>
+      </c>
+      <c r="Y28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AA28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AC28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AE28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AG28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AI28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AK28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AM28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AO28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AQ28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AS28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AU28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AW28" s="33">
+        <v>24</v>
+      </c>
+      <c r="AY28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BA28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BC28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BE28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BG28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BI28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BK28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BM28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BO28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BQ28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BR28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BU28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BW28" s="33">
+        <v>24</v>
+      </c>
+      <c r="BY28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CA28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CC28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CE28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CG28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CI28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CK28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CM28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CO28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CQ28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CS28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CU28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CW28" s="33">
+        <v>24</v>
+      </c>
+      <c r="CY28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DA28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DC28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DE28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DG28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DI28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DK28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DM28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DO28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DQ28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DS28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DU28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DW28" s="33">
+        <v>24</v>
+      </c>
+      <c r="DX28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="DY28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EA28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EC28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EE28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EG28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EI28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EK28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EM28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EO28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EQ28" s="33">
+        <v>24</v>
+      </c>
+      <c r="ES28" s="33">
+        <v>24</v>
+      </c>
+      <c r="EU28" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:152" x14ac:dyDescent="0.35">
+      <c r="A29" s="33">
+        <v>25</v>
+      </c>
+      <c r="C29" s="33">
+        <v>25</v>
+      </c>
+      <c r="E29" s="33">
+        <v>25</v>
+      </c>
+      <c r="G29" s="33">
+        <v>25</v>
+      </c>
+      <c r="I29" s="33">
+        <v>25</v>
+      </c>
+      <c r="K29" s="33">
+        <v>25</v>
+      </c>
+      <c r="M29" s="33">
+        <v>25</v>
+      </c>
+      <c r="O29" s="33">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="33">
+        <v>25</v>
+      </c>
+      <c r="S29" s="33">
+        <v>25</v>
+      </c>
+      <c r="U29" s="33">
+        <v>25</v>
+      </c>
+      <c r="W29" s="33">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AA29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AC29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AE29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AG29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AI29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AK29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AM29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AO29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AQ29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AS29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AU29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AW29" s="33">
+        <v>25</v>
+      </c>
+      <c r="AY29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BA29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BC29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BE29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BG29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BI29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BK29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BM29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BO29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BQ29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BS29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BU29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BW29" s="33">
+        <v>25</v>
+      </c>
+      <c r="BY29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CA29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CC29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CE29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CG29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CI29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CK29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CM29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CO29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CQ29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CS29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CU29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CW29" s="33">
+        <v>25</v>
+      </c>
+      <c r="CY29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DA29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DC29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DE29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DG29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DI29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DK29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DM29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DO29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DQ29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DS29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DU29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DW29" s="33">
+        <v>25</v>
+      </c>
+      <c r="DY29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EA29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EC29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EE29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EG29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EI29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EK29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EM29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EO29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EQ29" s="33">
+        <v>25</v>
+      </c>
+      <c r="ES29" s="33">
+        <v>25</v>
+      </c>
+      <c r="EU29" s="33">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
